--- a/spliney/martysweight.xlsx
+++ b/spliney/martysweight.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martyn\Documents\R\Projects\Fasting\spliney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF587E0F-89E6-4A74-A7E4-B4137EEF73C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="871" documentId="13_ncr:1_{923E0362-A660-43F7-8217-020AF11FF90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55B055D-E75A-45C7-8E8E-3361065E4D29}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Time_hours</t>
   </si>
@@ -42,14 +54,14 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Episode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +69,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,9 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,258 +415,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>83.6</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>83.6</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>82.2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>82.2</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44306</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>81.900000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>38</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44303</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44303</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>80.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44302</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
       <c r="E6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>44301</v>
       </c>
       <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>42</v>
-      </c>
-      <c r="D7">
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>82.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44301</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44301</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80.5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>44300</v>
+        <v>44303</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>80.3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B11">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44300</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
       <c r="C11">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>82.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>44334</v>
       </c>
@@ -666,8 +721,11 @@
       <c r="F13">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>44335</v>
       </c>
@@ -686,8 +744,11 @@
       <c r="F14">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>44335</v>
       </c>
@@ -706,8 +767,11 @@
       <c r="F15">
         <v>81.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>44335</v>
       </c>
@@ -726,8 +790,11 @@
       <c r="F16">
         <v>83.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>44335</v>
       </c>
@@ -746,8 +813,11 @@
       <c r="F17">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>44336</v>
       </c>
@@ -766,8 +836,11 @@
       <c r="F18">
         <v>82.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>44336</v>
       </c>
@@ -786,8 +859,11 @@
       <c r="F19">
         <v>82.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>44336</v>
       </c>
@@ -806,8 +882,11 @@
       <c r="F20">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>44336</v>
       </c>
@@ -826,8 +905,11 @@
       <c r="F21">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>44336</v>
       </c>
@@ -846,8 +928,11 @@
       <c r="F22">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>44336</v>
       </c>
@@ -866,8 +951,11 @@
       <c r="F23">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>44337</v>
       </c>
@@ -886,8 +974,11 @@
       <c r="F24">
         <v>82.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>44337</v>
       </c>
@@ -906,8 +997,11 @@
       <c r="F25">
         <v>82.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>44337</v>
       </c>
@@ -926,8 +1020,3929 @@
       <c r="F26">
         <v>82.1</v>
       </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>84.7</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>83.7</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>82.7</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>54</v>
+      </c>
+      <c r="F30">
+        <v>82.1</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>82.1</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>83</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>83</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>83</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>84.8</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>83.9</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>42</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>83.5</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>83.5</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>36</v>
+      </c>
+      <c r="F39">
+        <v>83.1</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>83.8</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>84.4</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>84</v>
+      </c>
+      <c r="G42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>45</v>
+      </c>
+      <c r="F43">
+        <v>84</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>84.5</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <v>83.5</v>
+      </c>
+      <c r="G45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>83</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>84.3</v>
+      </c>
+      <c r="G47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>83.9</v>
+      </c>
+      <c r="G48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>83.1</v>
+      </c>
+      <c r="G49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>85.3</v>
+      </c>
+      <c r="G50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>84.1</v>
+      </c>
+      <c r="G51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <v>84.1</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>83.7</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>83.2</v>
+      </c>
+      <c r="G54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>45</v>
+      </c>
+      <c r="F55">
+        <v>83.7</v>
+      </c>
+      <c r="G55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>83.6</v>
+      </c>
+      <c r="G56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>82.6</v>
+      </c>
+      <c r="G57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>82.6</v>
+      </c>
+      <c r="G58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B59">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>83</v>
+      </c>
+      <c r="G59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>82.1</v>
+      </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>55</v>
+      </c>
+      <c r="D61">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>55</v>
+      </c>
+      <c r="F61">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>45</v>
+      </c>
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>45</v>
+      </c>
+      <c r="F62">
+        <v>82.1</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>45</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>84</v>
+      </c>
+      <c r="G63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>45</v>
+      </c>
+      <c r="F64">
+        <v>83.6</v>
+      </c>
+      <c r="G64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="F65">
+        <v>83.6</v>
+      </c>
+      <c r="G65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+      <c r="F66">
+        <v>83.5</v>
+      </c>
+      <c r="G66">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>45</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>84.3</v>
+      </c>
+      <c r="G67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>11</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>84.3</v>
+      </c>
+      <c r="G68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>45</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>84.3</v>
+      </c>
+      <c r="G69">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>42</v>
+      </c>
+      <c r="F70">
+        <v>84.3</v>
+      </c>
+      <c r="G70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>84.3</v>
+      </c>
+      <c r="G71">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <v>84.3</v>
+      </c>
+      <c r="G72">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B73">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>45</v>
+      </c>
+      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>45</v>
+      </c>
+      <c r="F73">
+        <v>83.7</v>
+      </c>
+      <c r="G73">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B74">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
+      <c r="F74">
+        <v>84.4</v>
+      </c>
+      <c r="G74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>84.4</v>
+      </c>
+      <c r="G75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+      <c r="D76">
+        <v>11</v>
+      </c>
+      <c r="E76">
+        <v>45</v>
+      </c>
+      <c r="F76">
+        <v>84.6</v>
+      </c>
+      <c r="G76">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>55</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>84.4</v>
+      </c>
+      <c r="G77">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>55</v>
+      </c>
+      <c r="D78">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+      <c r="F78">
+        <v>84.4</v>
+      </c>
+      <c r="G78">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>45</v>
+      </c>
+      <c r="F79">
+        <v>83.6</v>
+      </c>
+      <c r="G79">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>45</v>
+      </c>
+      <c r="F80">
+        <v>85.2</v>
+      </c>
+      <c r="G80">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>85.2</v>
+      </c>
+      <c r="G81">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B82">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>84.4</v>
+      </c>
+      <c r="G82">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>55</v>
+      </c>
+      <c r="F83">
+        <v>84.4</v>
+      </c>
+      <c r="G83">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>24</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>83.7</v>
+      </c>
+      <c r="G84">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>45</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
+      </c>
+      <c r="F85">
+        <v>83.7</v>
+      </c>
+      <c r="G85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>45</v>
+      </c>
+      <c r="D86">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>30</v>
+      </c>
+      <c r="F86">
+        <v>84.2</v>
+      </c>
+      <c r="G86">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>45</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+      <c r="F87">
+        <v>83.7</v>
+      </c>
+      <c r="G87">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B88">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>83.7</v>
+      </c>
+      <c r="G88">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>11</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>84.8</v>
+      </c>
+      <c r="G89">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>45</v>
+      </c>
+      <c r="D90">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
+      </c>
+      <c r="F90">
+        <v>84.8</v>
+      </c>
+      <c r="G90">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>45</v>
+      </c>
+      <c r="F91">
+        <v>85.6</v>
+      </c>
+      <c r="G91">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B92">
+        <v>15</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>45</v>
+      </c>
+      <c r="F92">
+        <v>84.8</v>
+      </c>
+      <c r="G92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>85.6</v>
+      </c>
+      <c r="G93">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3">
+        <v>44361</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>84.8</v>
+      </c>
+      <c r="G94">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="3">
+        <v>44361</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>84.8</v>
+      </c>
+      <c r="G95">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="3">
+        <v>44361</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>84.4</v>
+      </c>
+      <c r="G96">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="E97">
+        <v>30</v>
+      </c>
+      <c r="F97">
+        <v>83.7</v>
+      </c>
+      <c r="G97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B98">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>15</v>
+      </c>
+      <c r="F98">
+        <v>84.8</v>
+      </c>
+      <c r="G98">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B99">
+        <v>23</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>15</v>
+      </c>
+      <c r="F99">
+        <v>84.8</v>
+      </c>
+      <c r="G99">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>45</v>
+      </c>
+      <c r="D100">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>83.9</v>
+      </c>
+      <c r="G100">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>15</v>
+      </c>
+      <c r="F101">
+        <v>84.4</v>
+      </c>
+      <c r="G101">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B102">
+        <v>13</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>15</v>
+      </c>
+      <c r="F102">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G102">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B103">
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>24</v>
+      </c>
+      <c r="E103">
+        <v>15</v>
+      </c>
+      <c r="F103">
+        <v>83.8</v>
+      </c>
+      <c r="G103">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B104">
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <v>45</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>15</v>
+      </c>
+      <c r="F104">
+        <v>84.4</v>
+      </c>
+      <c r="G104">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>45</v>
+      </c>
+      <c r="D105">
+        <v>13</v>
+      </c>
+      <c r="E105">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>83.7</v>
+      </c>
+      <c r="G105">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="E106">
+        <v>15</v>
+      </c>
+      <c r="F106">
+        <v>83.7</v>
+      </c>
+      <c r="G106">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>18</v>
+      </c>
+      <c r="E107">
+        <v>30</v>
+      </c>
+      <c r="F107">
+        <v>80.7</v>
+      </c>
+      <c r="G107">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B108">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>23</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108">
+        <v>83.8</v>
+      </c>
+      <c r="G108">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B109">
+        <v>19</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <v>25</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>83.8</v>
+      </c>
+      <c r="G109">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B110">
+        <v>21</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>84.8</v>
+      </c>
+      <c r="G110">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B111">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>40</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
+      </c>
+      <c r="F111">
+        <v>84.5</v>
+      </c>
+      <c r="G111">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>84</v>
+      </c>
+      <c r="G112">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>14</v>
+      </c>
+      <c r="E113">
+        <v>15</v>
+      </c>
+      <c r="F113">
+        <v>84.9</v>
+      </c>
+      <c r="G113">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>15</v>
+      </c>
+      <c r="D114">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>15</v>
+      </c>
+      <c r="F114">
+        <v>84.1</v>
+      </c>
+      <c r="G114">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>15</v>
+      </c>
+      <c r="F115">
+        <v>82</v>
+      </c>
+      <c r="G115">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B116">
+        <v>13</v>
+      </c>
+      <c r="C116">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>25</v>
+      </c>
+      <c r="F116">
+        <v>82.7</v>
+      </c>
+      <c r="G116">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B117">
+        <v>13</v>
+      </c>
+      <c r="C117">
+        <v>25</v>
+      </c>
+      <c r="D117">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>25</v>
+      </c>
+      <c r="F117">
+        <v>84.5</v>
+      </c>
+      <c r="G117">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B118">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>30</v>
+      </c>
+      <c r="F118">
+        <v>84.5</v>
+      </c>
+      <c r="G118">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <f>A118+1</f>
+        <v>44366</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>30</v>
+      </c>
+      <c r="F119">
+        <v>82</v>
+      </c>
+      <c r="G119">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <f>A119</f>
+        <v>44366</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>30</v>
+      </c>
+      <c r="F120">
+        <v>84.9</v>
+      </c>
+      <c r="G120">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <f>A120</f>
+        <v>44366</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>30</v>
+      </c>
+      <c r="F121">
+        <v>84.9</v>
+      </c>
+      <c r="G121">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <f>A121</f>
+        <v>44366</v>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+      <c r="D122">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>30</v>
+      </c>
+      <c r="F122">
+        <v>82</v>
+      </c>
+      <c r="G122">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <f>A122</f>
+        <v>44366</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>30</v>
+      </c>
+      <c r="F123">
+        <v>85.9</v>
+      </c>
+      <c r="G123">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <f>A123</f>
+        <v>44366</v>
+      </c>
+      <c r="B124">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>15</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>30</v>
+      </c>
+      <c r="F124">
+        <v>85.9</v>
+      </c>
+      <c r="G124">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <f>A124</f>
+        <v>44366</v>
+      </c>
+      <c r="B125">
+        <v>14</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>30</v>
+      </c>
+      <c r="F125">
+        <v>85.9</v>
+      </c>
+      <c r="G125">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <f>A125</f>
+        <v>44366</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>55</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+      <c r="E126">
+        <v>40</v>
+      </c>
+      <c r="F126">
+        <v>84.9</v>
+      </c>
+      <c r="G126">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <f>A126</f>
+        <v>44366</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>55</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>40</v>
+      </c>
+      <c r="F127">
+        <v>84.9</v>
+      </c>
+      <c r="G127">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <f>A127</f>
+        <v>44366</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>55</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>40</v>
+      </c>
+      <c r="F128">
+        <v>84.9</v>
+      </c>
+      <c r="G128">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <f>A128+1</f>
+        <v>44367</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>15</v>
+      </c>
+      <c r="D129">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>84.2</v>
+      </c>
+      <c r="G129">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <f>A129</f>
+        <v>44367</v>
+      </c>
+      <c r="B130">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>84.2</v>
+      </c>
+      <c r="G130">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <f>A130</f>
+        <v>44367</v>
+      </c>
+      <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>84.2</v>
+      </c>
+      <c r="G131">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <f>A131</f>
+        <v>44367</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>23</v>
+      </c>
+      <c r="E132">
+        <v>25</v>
+      </c>
+      <c r="F132">
+        <v>84.2</v>
+      </c>
+      <c r="G132">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <f>A132</f>
+        <v>44367</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>23</v>
+      </c>
+      <c r="E133">
+        <v>25</v>
+      </c>
+      <c r="F133">
+        <v>81.2</v>
+      </c>
+      <c r="G133">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <f>A133</f>
+        <v>44367</v>
+      </c>
+      <c r="B134">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>23</v>
+      </c>
+      <c r="E134">
+        <v>25</v>
+      </c>
+      <c r="F134">
+        <v>84</v>
+      </c>
+      <c r="G134">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <f>A134</f>
+        <v>44367</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>23</v>
+      </c>
+      <c r="E135">
+        <v>25</v>
+      </c>
+      <c r="F135">
+        <v>84</v>
+      </c>
+      <c r="G135">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <f>A135</f>
+        <v>44367</v>
+      </c>
+      <c r="B136">
+        <v>17</v>
+      </c>
+      <c r="C136">
+        <v>15</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>30</v>
+      </c>
+      <c r="F136">
+        <v>85</v>
+      </c>
+      <c r="G136">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <f>A136</f>
+        <v>44367</v>
+      </c>
+      <c r="B137">
+        <v>17</v>
+      </c>
+      <c r="C137">
+        <v>15</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>30</v>
+      </c>
+      <c r="F137">
+        <v>85</v>
+      </c>
+      <c r="G137">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <f>A137</f>
+        <v>44367</v>
+      </c>
+      <c r="B138">
+        <v>17</v>
+      </c>
+      <c r="C138">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>30</v>
+      </c>
+      <c r="F138">
+        <v>85</v>
+      </c>
+      <c r="G138">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <f>A138</f>
+        <v>44367</v>
+      </c>
+      <c r="B139">
+        <v>21</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>15</v>
+      </c>
+      <c r="F139">
+        <v>85</v>
+      </c>
+      <c r="G139">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <f>A139</f>
+        <v>44367</v>
+      </c>
+      <c r="B140">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>15</v>
+      </c>
+      <c r="F140">
+        <v>84.6</v>
+      </c>
+      <c r="G140">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <f>A140</f>
+        <v>44367</v>
+      </c>
+      <c r="B141">
+        <v>21</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>15</v>
+      </c>
+      <c r="F141">
+        <v>84.6</v>
+      </c>
+      <c r="G141">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <f>A141</f>
+        <v>44367</v>
+      </c>
+      <c r="B142">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>15</v>
+      </c>
+      <c r="F142">
+        <v>84.6</v>
+      </c>
+      <c r="G142">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <f>A142</f>
+        <v>44367</v>
+      </c>
+      <c r="B143">
+        <v>21</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>15</v>
+      </c>
+      <c r="F143">
+        <v>84.6</v>
+      </c>
+      <c r="G143">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <f>A143+1</f>
+        <v>44368</v>
+      </c>
+      <c r="B144">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>55</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>25</v>
+      </c>
+      <c r="F144">
+        <v>84.1</v>
+      </c>
+      <c r="G144">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <f>A144</f>
+        <v>44368</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>55</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>25</v>
+      </c>
+      <c r="F145">
+        <v>84.1</v>
+      </c>
+      <c r="G145">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <f>A145</f>
+        <v>44368</v>
+      </c>
+      <c r="B146">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>55</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <v>84.1</v>
+      </c>
+      <c r="G146">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <f>A146</f>
+        <v>44368</v>
+      </c>
+      <c r="B147">
+        <v>17</v>
+      </c>
+      <c r="C147">
+        <v>45</v>
+      </c>
+      <c r="D147">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>15</v>
+      </c>
+      <c r="F147">
+        <v>83.7</v>
+      </c>
+      <c r="G147">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <f>A147</f>
+        <v>44368</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>45</v>
+      </c>
+      <c r="D148">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>15</v>
+      </c>
+      <c r="F148">
+        <v>83.7</v>
+      </c>
+      <c r="G148">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <f>A148</f>
+        <v>44368</v>
+      </c>
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149">
+        <v>45</v>
+      </c>
+      <c r="D149">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>15</v>
+      </c>
+      <c r="F149">
+        <v>83.7</v>
+      </c>
+      <c r="G149">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <f>A149+1</f>
+        <v>44369</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150">
+        <v>84.2</v>
+      </c>
+      <c r="G150">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <f>A150</f>
+        <v>44369</v>
+      </c>
+      <c r="B151">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>10</v>
+      </c>
+      <c r="F151">
+        <v>84.2</v>
+      </c>
+      <c r="G151">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <f>A151</f>
+        <v>44369</v>
+      </c>
+      <c r="B152">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <v>10</v>
+      </c>
+      <c r="F152">
+        <v>84.2</v>
+      </c>
+      <c r="G152">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <f>A152</f>
+        <v>44369</v>
+      </c>
+      <c r="B153">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>35</v>
+      </c>
+      <c r="D153">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>35</v>
+      </c>
+      <c r="F153">
+        <v>83.8</v>
+      </c>
+      <c r="G153">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <f>A153</f>
+        <v>44369</v>
+      </c>
+      <c r="B154">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>35</v>
+      </c>
+      <c r="D154">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>35</v>
+      </c>
+      <c r="F154">
+        <v>83.8</v>
+      </c>
+      <c r="G154">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <f>A154</f>
+        <v>44369</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <v>35</v>
+      </c>
+      <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>35</v>
+      </c>
+      <c r="F155">
+        <v>83.8</v>
+      </c>
+      <c r="G155">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <f>A155+1</f>
+        <v>44370</v>
+      </c>
+      <c r="B156">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <v>30</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>85</v>
+      </c>
+      <c r="G156">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <f>A156</f>
+        <v>44370</v>
+      </c>
+      <c r="B157">
+        <v>12</v>
+      </c>
+      <c r="C157">
+        <v>30</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>85</v>
+      </c>
+      <c r="G157">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <f>A157</f>
+        <v>44370</v>
+      </c>
+      <c r="B158">
+        <v>12</v>
+      </c>
+      <c r="C158">
+        <v>30</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>85</v>
+      </c>
+      <c r="G158">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <f>A158+1</f>
+        <v>44371</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>35</v>
+      </c>
+      <c r="D159">
+        <v>12</v>
+      </c>
+      <c r="E159">
+        <v>35</v>
+      </c>
+      <c r="F159">
+        <v>83.5</v>
+      </c>
+      <c r="G159">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <f>A159</f>
+        <v>44371</v>
+      </c>
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>35</v>
+      </c>
+      <c r="D160">
+        <v>12</v>
+      </c>
+      <c r="E160">
+        <v>35</v>
+      </c>
+      <c r="F160">
+        <v>83.5</v>
+      </c>
+      <c r="G160">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <f>A160</f>
+        <v>44371</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>35</v>
+      </c>
+      <c r="D161">
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>35</v>
+      </c>
+      <c r="F161">
+        <v>83.5</v>
+      </c>
+      <c r="G161">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <f>A161</f>
+        <v>44371</v>
+      </c>
+      <c r="B162">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>55</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>84.5</v>
+      </c>
+      <c r="G162">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <f>A162</f>
+        <v>44371</v>
+      </c>
+      <c r="B163">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>55</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>10</v>
+      </c>
+      <c r="F163">
+        <v>84.5</v>
+      </c>
+      <c r="G163">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <f>A163</f>
+        <v>44371</v>
+      </c>
+      <c r="B164">
+        <v>13</v>
+      </c>
+      <c r="C164">
+        <v>55</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>10</v>
+      </c>
+      <c r="F164">
+        <v>84.5</v>
+      </c>
+      <c r="G164">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <f>A164+3</f>
+        <v>44374</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>50</v>
+      </c>
+      <c r="D165">
+        <v>13</v>
+      </c>
+      <c r="E165">
+        <v>50</v>
+      </c>
+      <c r="F165">
+        <v>84.9</v>
+      </c>
+      <c r="G165">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <f>A165</f>
+        <v>44374</v>
+      </c>
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>50</v>
+      </c>
+      <c r="D166">
+        <v>13</v>
+      </c>
+      <c r="E166">
+        <v>50</v>
+      </c>
+      <c r="F166">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="G166">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <f>A166</f>
+        <v>44374</v>
+      </c>
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>50</v>
+      </c>
+      <c r="D167">
+        <v>13</v>
+      </c>
+      <c r="E167">
+        <v>50</v>
+      </c>
+      <c r="F167">
+        <v>84.5</v>
+      </c>
+      <c r="G167">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <f>A167</f>
+        <v>44374</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>50</v>
+      </c>
+      <c r="D168">
+        <v>13</v>
+      </c>
+      <c r="E168">
+        <v>50</v>
+      </c>
+      <c r="F168">
+        <v>84.5</v>
+      </c>
+      <c r="G168">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <f>A168</f>
+        <v>44374</v>
+      </c>
+      <c r="B169">
+        <v>16</v>
+      </c>
+      <c r="C169">
+        <v>50</v>
+      </c>
+      <c r="D169">
+        <v>22</v>
+      </c>
+      <c r="E169">
+        <v>50</v>
+      </c>
+      <c r="F169">
+        <v>84.5</v>
+      </c>
+      <c r="G169">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <f>A169</f>
+        <v>44374</v>
+      </c>
+      <c r="B170">
+        <v>16</v>
+      </c>
+      <c r="C170">
+        <v>50</v>
+      </c>
+      <c r="D170">
+        <v>22</v>
+      </c>
+      <c r="E170">
+        <v>50</v>
+      </c>
+      <c r="F170">
+        <v>84.2</v>
+      </c>
+      <c r="G170">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <f>A170</f>
+        <v>44374</v>
+      </c>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>50</v>
+      </c>
+      <c r="D171">
+        <v>22</v>
+      </c>
+      <c r="E171">
+        <v>50</v>
+      </c>
+      <c r="F171">
+        <v>84.2</v>
+      </c>
+      <c r="G171">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <f>A171</f>
+        <v>44374</v>
+      </c>
+      <c r="B172">
+        <v>16</v>
+      </c>
+      <c r="C172">
+        <v>50</v>
+      </c>
+      <c r="D172">
+        <v>22</v>
+      </c>
+      <c r="E172">
+        <v>50</v>
+      </c>
+      <c r="F172">
+        <v>84.2</v>
+      </c>
+      <c r="G172">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <f>A172</f>
+        <v>44374</v>
+      </c>
+      <c r="B173">
+        <v>19</v>
+      </c>
+      <c r="C173">
+        <v>30</v>
+      </c>
+      <c r="D173">
+        <v>25</v>
+      </c>
+      <c r="E173">
+        <v>30</v>
+      </c>
+      <c r="F173">
+        <v>83.2</v>
+      </c>
+      <c r="G173">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <f>A173</f>
+        <v>44374</v>
+      </c>
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>30</v>
+      </c>
+      <c r="D174">
+        <v>25</v>
+      </c>
+      <c r="E174">
+        <v>30</v>
+      </c>
+      <c r="F174">
+        <v>83.2</v>
+      </c>
+      <c r="G174">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <f>A174</f>
+        <v>44374</v>
+      </c>
+      <c r="B175">
+        <v>19</v>
+      </c>
+      <c r="C175">
+        <v>30</v>
+      </c>
+      <c r="D175">
+        <v>25</v>
+      </c>
+      <c r="E175">
+        <v>30</v>
+      </c>
+      <c r="F175">
+        <v>83.2</v>
+      </c>
+      <c r="G175">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <f>A175</f>
+        <v>44374</v>
+      </c>
+      <c r="B176">
+        <v>20</v>
+      </c>
+      <c r="C176">
+        <v>45</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>84.9</v>
+      </c>
+      <c r="G176">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <f>A176</f>
+        <v>44374</v>
+      </c>
+      <c r="B177">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>45</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>84.9</v>
+      </c>
+      <c r="G177">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <f>A177</f>
+        <v>44374</v>
+      </c>
+      <c r="B178">
+        <v>20</v>
+      </c>
+      <c r="C178">
+        <v>45</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>84.9</v>
+      </c>
+      <c r="G178">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <f>A178+1</f>
+        <v>44375</v>
+      </c>
+      <c r="B179">
+        <v>7</v>
+      </c>
+      <c r="C179">
+        <v>30</v>
+      </c>
+      <c r="D179">
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <v>15</v>
+      </c>
+      <c r="F179">
+        <v>84.3</v>
+      </c>
+      <c r="G179">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <f>A179</f>
+        <v>44375</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>30</v>
+      </c>
+      <c r="D180">
+        <v>11</v>
+      </c>
+      <c r="E180">
+        <v>15</v>
+      </c>
+      <c r="F180">
+        <v>84.3</v>
+      </c>
+      <c r="G180">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <f>A180</f>
+        <v>44375</v>
+      </c>
+      <c r="B181">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>30</v>
+      </c>
+      <c r="D181">
+        <v>11</v>
+      </c>
+      <c r="E181">
+        <v>15</v>
+      </c>
+      <c r="F181">
+        <v>84.3</v>
+      </c>
+      <c r="G181">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <f>A181</f>
+        <v>44375</v>
+      </c>
+      <c r="B182">
+        <v>12</v>
+      </c>
+      <c r="C182">
+        <v>30</v>
+      </c>
+      <c r="D182">
+        <v>16</v>
+      </c>
+      <c r="E182">
+        <v>15</v>
+      </c>
+      <c r="F182">
+        <v>84.6</v>
+      </c>
+      <c r="G182">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <f>A182</f>
+        <v>44375</v>
+      </c>
+      <c r="B183">
+        <v>12</v>
+      </c>
+      <c r="C183">
+        <v>30</v>
+      </c>
+      <c r="D183">
+        <v>16</v>
+      </c>
+      <c r="E183">
+        <v>15</v>
+      </c>
+      <c r="F183">
+        <v>84</v>
+      </c>
+      <c r="G183">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <f>A183</f>
+        <v>44375</v>
+      </c>
+      <c r="B184">
+        <v>12</v>
+      </c>
+      <c r="C184">
+        <v>30</v>
+      </c>
+      <c r="D184">
+        <v>16</v>
+      </c>
+      <c r="E184">
+        <v>15</v>
+      </c>
+      <c r="F184">
+        <v>84</v>
+      </c>
+      <c r="G184">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <f>A184</f>
+        <v>44375</v>
+      </c>
+      <c r="B185">
+        <v>12</v>
+      </c>
+      <c r="C185">
+        <v>30</v>
+      </c>
+      <c r="D185">
+        <v>16</v>
+      </c>
+      <c r="E185">
+        <v>15</v>
+      </c>
+      <c r="F185">
+        <v>84</v>
+      </c>
+      <c r="G185">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f60a4376a33fe09dfddee3b7d8d4a7bb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="906a0e747f0336b2cce67eb72cba36c9" ns2:_="">
+    <xsd:import namespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83972029-C29B-49D4-B62D-C7EE56B95B69}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}"/>
 </file>
--- a/spliney/martysweight.xlsx
+++ b/spliney/martysweight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martyn\Documents\R\Projects\Fasting\spliney\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19244\Documents\V2 Docs\R Git\Martysweight\spliney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="871" documentId="13_ncr:1_{923E0362-A660-43F7-8217-020AF11FF90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55B055D-E75A-45C7-8E8E-3361065E4D29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8D198-C2B1-4135-94E7-8DFD4FF56880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,18 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,14 +445,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44299</v>
       </c>
@@ -465,14 +468,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>83.6</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44300</v>
       </c>
@@ -488,14 +491,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>83.6</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44300</v>
       </c>
@@ -511,14 +514,14 @@
       <c r="E4">
         <v>21</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>82.2</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44301</v>
       </c>
@@ -534,14 +537,14 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>82.2</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44301</v>
       </c>
@@ -557,14 +560,14 @@
       <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>81.400000000000006</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44301</v>
       </c>
@@ -580,14 +583,14 @@
       <c r="E7">
         <v>46</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>81.099999999999994</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44302</v>
       </c>
@@ -603,14 +606,14 @@
       <c r="E8">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>81.099999999999994</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44303</v>
       </c>
@@ -626,14 +629,14 @@
       <c r="E9">
         <v>40</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>80.5</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44303</v>
       </c>
@@ -649,14 +652,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>80.3</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44305</v>
       </c>
@@ -672,14 +675,14 @@
       <c r="E11">
         <v>28</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>81.5</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44306</v>
       </c>
@@ -695,14 +698,14 @@
       <c r="E12">
         <v>25</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>81.900000000000006</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44334</v>
       </c>
@@ -718,14 +721,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>83</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44335</v>
       </c>
@@ -741,14 +744,14 @@
       <c r="E14">
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>82.2</v>
       </c>
       <c r="G14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44335</v>
       </c>
@@ -764,14 +767,14 @@
       <c r="E15">
         <v>15</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>81.7</v>
       </c>
       <c r="G15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44335</v>
       </c>
@@ -787,14 +790,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>83.1</v>
       </c>
       <c r="G16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44335</v>
       </c>
@@ -810,14 +813,14 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>83.6</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44336</v>
       </c>
@@ -833,14 +836,14 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>82.7</v>
       </c>
       <c r="G18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44336</v>
       </c>
@@ -856,14 +859,14 @@
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>82.4</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44336</v>
       </c>
@@ -879,14 +882,14 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>82</v>
       </c>
       <c r="G20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44336</v>
       </c>
@@ -902,14 +905,14 @@
       <c r="E21">
         <v>30</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>82</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44336</v>
       </c>
@@ -925,14 +928,14 @@
       <c r="E22">
         <v>30</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>83</v>
       </c>
       <c r="G22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44336</v>
       </c>
@@ -948,14 +951,14 @@
       <c r="E23">
         <v>45</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>83</v>
       </c>
       <c r="G23">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44337</v>
       </c>
@@ -971,14 +974,14 @@
       <c r="E24">
         <v>30</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>82.4</v>
       </c>
       <c r="G24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44337</v>
       </c>
@@ -994,14 +997,14 @@
       <c r="E25">
         <v>40</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>82.4</v>
       </c>
       <c r="G25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44337</v>
       </c>
@@ -1017,14 +1020,14 @@
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>82.1</v>
       </c>
       <c r="G26">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44297</v>
       </c>
@@ -1040,14 +1043,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>84.7</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44298</v>
       </c>
@@ -1063,14 +1066,14 @@
       <c r="E28">
         <v>10</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>83.7</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44298</v>
       </c>
@@ -1086,16 +1089,16 @@
       <c r="E29">
         <v>50</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>82.7</v>
       </c>
       <c r="G29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>44337</v>
+        <v>44298</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -1109,14 +1112,14 @@
       <c r="E30">
         <v>54</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>82.1</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44337</v>
       </c>
@@ -1132,14 +1135,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>82.1</v>
       </c>
       <c r="G31">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44337</v>
       </c>
@@ -1155,14 +1158,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>83</v>
       </c>
       <c r="G32">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44338</v>
       </c>
@@ -1178,14 +1181,14 @@
       <c r="E33">
         <v>12</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>83</v>
       </c>
       <c r="G33">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44338</v>
       </c>
@@ -1201,14 +1204,14 @@
       <c r="E34">
         <v>12</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>83</v>
       </c>
       <c r="G34">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44338</v>
       </c>
@@ -1224,14 +1227,14 @@
       <c r="E35">
         <v>12</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>84.8</v>
       </c>
       <c r="G35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44339</v>
       </c>
@@ -1247,14 +1250,14 @@
       <c r="E36">
         <v>12</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>83.9</v>
       </c>
       <c r="G36">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44339</v>
       </c>
@@ -1270,14 +1273,14 @@
       <c r="E37">
         <v>42</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>83.5</v>
       </c>
       <c r="G37">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44339</v>
       </c>
@@ -1293,14 +1296,14 @@
       <c r="E38">
         <v>30</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>83.5</v>
       </c>
       <c r="G38">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44339</v>
       </c>
@@ -1316,14 +1319,14 @@
       <c r="E39">
         <v>36</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>83.1</v>
       </c>
       <c r="G39">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44340</v>
       </c>
@@ -1339,14 +1342,14 @@
       <c r="E40">
         <v>30</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>83.8</v>
       </c>
       <c r="G40">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44341</v>
       </c>
@@ -1362,14 +1365,14 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>84.4</v>
       </c>
       <c r="G41">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44341</v>
       </c>
@@ -1385,14 +1388,14 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>84</v>
       </c>
       <c r="G42">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44341</v>
       </c>
@@ -1408,14 +1411,14 @@
       <c r="E43">
         <v>45</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>84</v>
       </c>
       <c r="G43">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44341</v>
       </c>
@@ -1431,14 +1434,14 @@
       <c r="E44">
         <v>30</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>84.5</v>
       </c>
       <c r="G44">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44342</v>
       </c>
@@ -1454,14 +1457,14 @@
       <c r="E45">
         <v>45</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>83.5</v>
       </c>
       <c r="G45">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44342</v>
       </c>
@@ -1477,14 +1480,14 @@
       <c r="E46">
         <v>30</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>83</v>
       </c>
       <c r="G46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44342</v>
       </c>
@@ -1500,14 +1503,14 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>84.3</v>
       </c>
       <c r="G47">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44343</v>
       </c>
@@ -1523,14 +1526,14 @@
       <c r="E48">
         <v>20</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>83.9</v>
       </c>
       <c r="G48">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44343</v>
       </c>
@@ -1546,14 +1549,14 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>83.1</v>
       </c>
       <c r="G49">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44347</v>
       </c>
@@ -1569,14 +1572,14 @@
       <c r="E50">
         <v>30</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>85.3</v>
       </c>
       <c r="G50">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44347</v>
       </c>
@@ -1592,14 +1595,14 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>84.1</v>
       </c>
       <c r="G51">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44348</v>
       </c>
@@ -1615,14 +1618,14 @@
       <c r="E52">
         <v>30</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>84.1</v>
       </c>
       <c r="G52">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44348</v>
       </c>
@@ -1638,14 +1641,14 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>83.7</v>
       </c>
       <c r="G53">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44348</v>
       </c>
@@ -1661,14 +1664,14 @@
       <c r="E54">
         <v>15</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>83.2</v>
       </c>
       <c r="G54">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44349</v>
       </c>
@@ -1684,14 +1687,14 @@
       <c r="E55">
         <v>45</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>83.7</v>
       </c>
       <c r="G55">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44349</v>
       </c>
@@ -1707,14 +1710,14 @@
       <c r="E56">
         <v>30</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <v>83.6</v>
       </c>
       <c r="G56">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44350</v>
       </c>
@@ -1730,14 +1733,14 @@
       <c r="E57">
         <v>30</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>82.6</v>
       </c>
       <c r="G57">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44350</v>
       </c>
@@ -1753,14 +1756,14 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>82.6</v>
       </c>
       <c r="G58">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44350</v>
       </c>
@@ -1776,14 +1779,14 @@
       <c r="E59" s="2">
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <v>83</v>
       </c>
       <c r="G59">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44351</v>
       </c>
@@ -1799,14 +1802,14 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <v>82.1</v>
       </c>
       <c r="G60">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44351</v>
       </c>
@@ -1822,14 +1825,14 @@
       <c r="E61">
         <v>55</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <v>81.900000000000006</v>
       </c>
       <c r="G61">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44351</v>
       </c>
@@ -1845,14 +1848,14 @@
       <c r="E62">
         <v>45</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <v>82.1</v>
       </c>
       <c r="G62">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44351</v>
       </c>
@@ -1868,14 +1871,14 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>84</v>
       </c>
       <c r="G63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44351</v>
       </c>
@@ -1891,14 +1894,14 @@
       <c r="E64">
         <v>45</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="4">
         <v>83.6</v>
       </c>
       <c r="G64">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44352</v>
       </c>
@@ -1914,14 +1917,14 @@
       <c r="E65">
         <v>15</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="4">
         <v>83.6</v>
       </c>
       <c r="G65">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44352</v>
       </c>
@@ -1937,14 +1940,14 @@
       <c r="E66">
         <v>30</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>83.5</v>
       </c>
       <c r="G66">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44352</v>
       </c>
@@ -1960,14 +1963,14 @@
       <c r="E67">
         <v>30</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <v>84.3</v>
       </c>
       <c r="G67">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44353</v>
       </c>
@@ -1983,14 +1986,14 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>84.3</v>
       </c>
       <c r="G68">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44353</v>
       </c>
@@ -2006,14 +2009,14 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <v>84.3</v>
       </c>
       <c r="G69">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44353</v>
       </c>
@@ -2029,14 +2032,14 @@
       <c r="E70">
         <v>42</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="4">
         <v>84.3</v>
       </c>
       <c r="G70">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44353</v>
       </c>
@@ -2052,14 +2055,14 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="4">
         <v>84.3</v>
       </c>
       <c r="G71">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44354</v>
       </c>
@@ -2075,14 +2078,14 @@
       <c r="E72">
         <v>15</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="4">
         <v>84.3</v>
       </c>
       <c r="G72">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44354</v>
       </c>
@@ -2098,14 +2101,14 @@
       <c r="E73">
         <v>45</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="4">
         <v>83.7</v>
       </c>
       <c r="G73">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44354</v>
       </c>
@@ -2121,14 +2124,14 @@
       <c r="E74">
         <v>15</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="4">
         <v>84.4</v>
       </c>
       <c r="G74">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44354</v>
       </c>
@@ -2144,14 +2147,14 @@
       <c r="E75">
         <v>15</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="4">
         <v>84.4</v>
       </c>
       <c r="G75">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44355</v>
       </c>
@@ -2167,14 +2170,14 @@
       <c r="E76">
         <v>45</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="4">
         <v>84.6</v>
       </c>
       <c r="G76">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44355</v>
       </c>
@@ -2190,14 +2193,14 @@
       <c r="E77">
         <v>40</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="4">
         <v>84.4</v>
       </c>
       <c r="G77">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44355</v>
       </c>
@@ -2213,14 +2216,14 @@
       <c r="E78">
         <v>40</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="4">
         <v>84.4</v>
       </c>
       <c r="G78">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44355</v>
       </c>
@@ -2236,14 +2239,14 @@
       <c r="E79">
         <v>45</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="4">
         <v>83.6</v>
       </c>
       <c r="G79">
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44355</v>
       </c>
@@ -2259,14 +2262,14 @@
       <c r="E80">
         <v>45</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="4">
         <v>85.2</v>
       </c>
       <c r="G80">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44356</v>
       </c>
@@ -2282,14 +2285,14 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="4">
         <v>85.2</v>
       </c>
       <c r="G81">
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44356</v>
       </c>
@@ -2305,14 +2308,14 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="4">
         <v>84.4</v>
       </c>
       <c r="G82">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44357</v>
       </c>
@@ -2328,14 +2331,14 @@
       <c r="E83">
         <v>55</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>84.4</v>
       </c>
       <c r="G83">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44357</v>
       </c>
@@ -2351,14 +2354,14 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="4">
         <v>83.7</v>
       </c>
       <c r="G84">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44358</v>
       </c>
@@ -2374,14 +2377,14 @@
       <c r="E85">
         <v>30</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="4">
         <v>83.7</v>
       </c>
       <c r="G85">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44358</v>
       </c>
@@ -2397,14 +2400,14 @@
       <c r="E86">
         <v>30</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="4">
         <v>84.2</v>
       </c>
       <c r="G86">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44358</v>
       </c>
@@ -2420,14 +2423,14 @@
       <c r="E87">
         <v>30</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="4">
         <v>83.7</v>
       </c>
       <c r="G87">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44358</v>
       </c>
@@ -2443,14 +2446,14 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="4">
         <v>83.7</v>
       </c>
       <c r="G88">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44359</v>
       </c>
@@ -2466,14 +2469,14 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="4">
         <v>84.8</v>
       </c>
       <c r="G89">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44359</v>
       </c>
@@ -2489,14 +2492,14 @@
       <c r="E90">
         <v>30</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="4">
         <v>84.8</v>
       </c>
       <c r="G90">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44360</v>
       </c>
@@ -2512,14 +2515,14 @@
       <c r="E91">
         <v>45</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="4">
         <v>85.6</v>
       </c>
       <c r="G91">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44360</v>
       </c>
@@ -2535,14 +2538,14 @@
       <c r="E92">
         <v>45</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="4">
         <v>84.8</v>
       </c>
       <c r="G92">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44360</v>
       </c>
@@ -2558,14 +2561,14 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="4">
         <v>85.6</v>
       </c>
       <c r="G93">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>44361</v>
       </c>
@@ -2581,14 +2584,14 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="4">
         <v>84.8</v>
       </c>
       <c r="G94">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>44361</v>
       </c>
@@ -2604,14 +2607,14 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="4">
         <v>84.8</v>
       </c>
       <c r="G95">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>44361</v>
       </c>
@@ -2627,14 +2630,14 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="4">
         <v>84.4</v>
       </c>
       <c r="G96">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44362</v>
       </c>
@@ -2650,14 +2653,14 @@
       <c r="E97">
         <v>30</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="4">
         <v>83.7</v>
       </c>
       <c r="G97">
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44362</v>
       </c>
@@ -2673,14 +2676,14 @@
       <c r="E98">
         <v>15</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="4">
         <v>84.8</v>
       </c>
       <c r="G98">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44362</v>
       </c>
@@ -2696,14 +2699,14 @@
       <c r="E99">
         <v>15</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="4">
         <v>84.8</v>
       </c>
       <c r="G99">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44363</v>
       </c>
@@ -2719,14 +2722,14 @@
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="4">
         <v>83.9</v>
       </c>
       <c r="G100">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44363</v>
       </c>
@@ -2742,14 +2745,14 @@
       <c r="E101">
         <v>15</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="4">
         <v>84.4</v>
       </c>
       <c r="G101">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44363</v>
       </c>
@@ -2765,14 +2768,14 @@
       <c r="E102">
         <v>15</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="4">
         <v>81.900000000000006</v>
       </c>
       <c r="G102">
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44363</v>
       </c>
@@ -2788,14 +2791,14 @@
       <c r="E103">
         <v>15</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="4">
         <v>83.8</v>
       </c>
       <c r="G103">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44363</v>
       </c>
@@ -2811,14 +2814,14 @@
       <c r="E104">
         <v>15</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="4">
         <v>84.4</v>
       </c>
       <c r="G104">
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44364</v>
       </c>
@@ -2834,14 +2837,14 @@
       <c r="E105">
         <v>15</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="4">
         <v>83.7</v>
       </c>
       <c r="G105">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44364</v>
       </c>
@@ -2857,14 +2860,14 @@
       <c r="E106">
         <v>15</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="4">
         <v>83.7</v>
       </c>
       <c r="G106">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44364</v>
       </c>
@@ -2880,14 +2883,14 @@
       <c r="E107">
         <v>30</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="4">
         <v>80.7</v>
       </c>
       <c r="G107">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44364</v>
       </c>
@@ -2903,14 +2906,14 @@
       <c r="E108">
         <v>50</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="4">
         <v>83.8</v>
       </c>
       <c r="G108">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44364</v>
       </c>
@@ -2926,14 +2929,14 @@
       <c r="E109">
         <v>0</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="4">
         <v>83.8</v>
       </c>
       <c r="G109">
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44364</v>
       </c>
@@ -2949,14 +2952,14 @@
       <c r="E110">
         <v>0</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="4">
         <v>84.8</v>
       </c>
       <c r="G110">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44364</v>
       </c>
@@ -2972,14 +2975,14 @@
       <c r="E111">
         <v>40</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="4">
         <v>84.5</v>
       </c>
       <c r="G111">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>44365</v>
       </c>
@@ -2995,14 +2998,14 @@
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="4">
         <v>84</v>
       </c>
       <c r="G112">
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>44365</v>
       </c>
@@ -3018,14 +3021,14 @@
       <c r="E113">
         <v>15</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="4">
         <v>84.9</v>
       </c>
       <c r="G113">
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>44365</v>
       </c>
@@ -3041,14 +3044,14 @@
       <c r="E114">
         <v>15</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="4">
         <v>84.1</v>
       </c>
       <c r="G114">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>44365</v>
       </c>
@@ -3064,14 +3067,14 @@
       <c r="E115">
         <v>15</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="4">
         <v>82</v>
       </c>
       <c r="G115">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>44365</v>
       </c>
@@ -3087,14 +3090,14 @@
       <c r="E116">
         <v>25</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="4">
         <v>82.7</v>
       </c>
       <c r="G116">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>44365</v>
       </c>
@@ -3110,14 +3113,14 @@
       <c r="E117">
         <v>25</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="4">
         <v>84.5</v>
       </c>
       <c r="G117">
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>44365</v>
       </c>
@@ -3133,14 +3136,14 @@
       <c r="E118">
         <v>30</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="4">
         <v>84.5</v>
       </c>
       <c r="G118">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <f>A118+1</f>
         <v>44366</v>
@@ -3157,16 +3160,16 @@
       <c r="E119">
         <v>30</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="4">
         <v>82</v>
       </c>
       <c r="G119">
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <f>A119</f>
+        <f t="shared" ref="A120:A128" si="0">A119</f>
         <v>44366</v>
       </c>
       <c r="B120">
@@ -3181,16 +3184,16 @@
       <c r="E120">
         <v>30</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="4">
         <v>84.9</v>
       </c>
       <c r="G120">
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <f>A120</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B121">
@@ -3205,16 +3208,16 @@
       <c r="E121">
         <v>30</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="4">
         <v>84.9</v>
       </c>
       <c r="G121">
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <f>A121</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B122">
@@ -3229,16 +3232,16 @@
       <c r="E122">
         <v>30</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="4">
         <v>82</v>
       </c>
       <c r="G122">
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <f>A122</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B123">
@@ -3253,16 +3256,16 @@
       <c r="E123">
         <v>30</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="4">
         <v>85.9</v>
       </c>
       <c r="G123">
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <f>A123</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B124">
@@ -3277,16 +3280,16 @@
       <c r="E124">
         <v>30</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="4">
         <v>85.9</v>
       </c>
       <c r="G124">
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <f>A124</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B125">
@@ -3301,16 +3304,16 @@
       <c r="E125">
         <v>30</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="4">
         <v>85.9</v>
       </c>
       <c r="G125">
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <f>A125</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B126">
@@ -3325,16 +3328,16 @@
       <c r="E126">
         <v>40</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="4">
         <v>84.9</v>
       </c>
       <c r="G126">
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <f>A126</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B127">
@@ -3349,16 +3352,16 @@
       <c r="E127">
         <v>40</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="4">
         <v>84.9</v>
       </c>
       <c r="G127">
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <f>A127</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B128">
@@ -3373,14 +3376,14 @@
       <c r="E128">
         <v>40</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="4">
         <v>84.9</v>
       </c>
       <c r="G128">
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <f>A128+1</f>
         <v>44367</v>
@@ -3397,16 +3400,16 @@
       <c r="E129">
         <v>0</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="4">
         <v>84.2</v>
       </c>
       <c r="G129">
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <f>A129</f>
+        <f t="shared" ref="A130:A143" si="1">A129</f>
         <v>44367</v>
       </c>
       <c r="B130">
@@ -3421,16 +3424,16 @@
       <c r="E130">
         <v>0</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="4">
         <v>84.2</v>
       </c>
       <c r="G130">
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <f>A130</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B131">
@@ -3445,16 +3448,16 @@
       <c r="E131">
         <v>0</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="4">
         <v>84.2</v>
       </c>
       <c r="G131">
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <f>A131</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B132">
@@ -3469,16 +3472,16 @@
       <c r="E132">
         <v>25</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="4">
         <v>84.2</v>
       </c>
       <c r="G132">
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <f>A132</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B133">
@@ -3493,16 +3496,16 @@
       <c r="E133">
         <v>25</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="4">
         <v>81.2</v>
       </c>
       <c r="G133">
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <f>A133</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B134">
@@ -3517,16 +3520,16 @@
       <c r="E134">
         <v>25</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="4">
         <v>84</v>
       </c>
       <c r="G134">
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <f>A134</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B135">
@@ -3541,16 +3544,16 @@
       <c r="E135">
         <v>25</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="4">
         <v>84</v>
       </c>
       <c r="G135">
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <f>A135</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B136">
@@ -3565,16 +3568,16 @@
       <c r="E136">
         <v>30</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="4">
         <v>85</v>
       </c>
       <c r="G136">
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <f>A136</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B137">
@@ -3589,16 +3592,16 @@
       <c r="E137">
         <v>30</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="4">
         <v>85</v>
       </c>
       <c r="G137">
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <f>A137</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B138">
@@ -3613,16 +3616,16 @@
       <c r="E138">
         <v>30</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="4">
         <v>85</v>
       </c>
       <c r="G138">
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <f>A138</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B139">
@@ -3637,16 +3640,16 @@
       <c r="E139">
         <v>15</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="4">
         <v>85</v>
       </c>
       <c r="G139">
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <f>A139</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B140">
@@ -3661,16 +3664,16 @@
       <c r="E140">
         <v>15</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="4">
         <v>84.6</v>
       </c>
       <c r="G140">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <f>A140</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B141">
@@ -3685,16 +3688,16 @@
       <c r="E141">
         <v>15</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="4">
         <v>84.6</v>
       </c>
       <c r="G141">
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <f>A141</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B142">
@@ -3709,16 +3712,16 @@
       <c r="E142">
         <v>15</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="4">
         <v>84.6</v>
       </c>
       <c r="G142">
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <f>A142</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B143">
@@ -3733,14 +3736,14 @@
       <c r="E143">
         <v>15</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="4">
         <v>84.6</v>
       </c>
       <c r="G143">
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <f>A143+1</f>
         <v>44368</v>
@@ -3757,14 +3760,14 @@
       <c r="E144">
         <v>25</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="4">
         <v>84.1</v>
       </c>
       <c r="G144">
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <f>A144</f>
         <v>44368</v>
@@ -3781,14 +3784,14 @@
       <c r="E145">
         <v>25</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="4">
         <v>84.1</v>
       </c>
       <c r="G145">
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <f>A145</f>
         <v>44368</v>
@@ -3805,14 +3808,14 @@
       <c r="E146">
         <v>25</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="4">
         <v>84.1</v>
       </c>
       <c r="G146">
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <f>A146</f>
         <v>44368</v>
@@ -3829,14 +3832,14 @@
       <c r="E147">
         <v>15</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="4">
         <v>83.7</v>
       </c>
       <c r="G147">
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <f>A147</f>
         <v>44368</v>
@@ -3853,14 +3856,14 @@
       <c r="E148">
         <v>15</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="4">
         <v>83.7</v>
       </c>
       <c r="G148">
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <f>A148</f>
         <v>44368</v>
@@ -3877,14 +3880,14 @@
       <c r="E149">
         <v>15</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="4">
         <v>83.7</v>
       </c>
       <c r="G149">
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <f>A149+1</f>
         <v>44369</v>
@@ -3901,14 +3904,14 @@
       <c r="E150">
         <v>10</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="4">
         <v>84.2</v>
       </c>
       <c r="G150">
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <f>A150</f>
         <v>44369</v>
@@ -3925,14 +3928,14 @@
       <c r="E151">
         <v>10</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="4">
         <v>84.2</v>
       </c>
       <c r="G151">
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <f>A151</f>
         <v>44369</v>
@@ -3949,14 +3952,14 @@
       <c r="E152">
         <v>10</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="4">
         <v>84.2</v>
       </c>
       <c r="G152">
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <f>A152</f>
         <v>44369</v>
@@ -3973,14 +3976,14 @@
       <c r="E153">
         <v>35</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="4">
         <v>83.8</v>
       </c>
       <c r="G153">
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <f>A153</f>
         <v>44369</v>
@@ -3997,14 +4000,14 @@
       <c r="E154">
         <v>35</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="4">
         <v>83.8</v>
       </c>
       <c r="G154">
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <f>A154</f>
         <v>44369</v>
@@ -4021,14 +4024,14 @@
       <c r="E155">
         <v>35</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="4">
         <v>83.8</v>
       </c>
       <c r="G155">
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <f>A155+1</f>
         <v>44370</v>
@@ -4045,14 +4048,14 @@
       <c r="E156">
         <v>0</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="4">
         <v>85</v>
       </c>
       <c r="G156">
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <f>A156</f>
         <v>44370</v>
@@ -4069,14 +4072,14 @@
       <c r="E157">
         <v>0</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="4">
         <v>85</v>
       </c>
       <c r="G157">
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <f>A157</f>
         <v>44370</v>
@@ -4093,14 +4096,14 @@
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="4">
         <v>85</v>
       </c>
       <c r="G158">
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <f>A158+1</f>
         <v>44371</v>
@@ -4117,14 +4120,14 @@
       <c r="E159">
         <v>35</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="4">
         <v>83.5</v>
       </c>
       <c r="G159">
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <f>A159</f>
         <v>44371</v>
@@ -4141,14 +4144,14 @@
       <c r="E160">
         <v>35</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="4">
         <v>83.5</v>
       </c>
       <c r="G160">
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <f>A160</f>
         <v>44371</v>
@@ -4165,14 +4168,14 @@
       <c r="E161">
         <v>35</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="4">
         <v>83.5</v>
       </c>
       <c r="G161">
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <f>A161</f>
         <v>44371</v>
@@ -4189,14 +4192,14 @@
       <c r="E162">
         <v>10</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="4">
         <v>84.5</v>
       </c>
       <c r="G162">
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <f>A162</f>
         <v>44371</v>
@@ -4213,14 +4216,14 @@
       <c r="E163">
         <v>10</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="4">
         <v>84.5</v>
       </c>
       <c r="G163">
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <f>A163</f>
         <v>44371</v>
@@ -4237,14 +4240,14 @@
       <c r="E164">
         <v>10</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="4">
         <v>84.5</v>
       </c>
       <c r="G164">
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <f>A164+3</f>
         <v>44374</v>
@@ -4261,16 +4264,16 @@
       <c r="E165">
         <v>50</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="4">
         <v>84.9</v>
       </c>
       <c r="G165">
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <f>A165</f>
+        <f t="shared" ref="A166:A178" si="2">A165</f>
         <v>44374</v>
       </c>
       <c r="B166">
@@ -4285,16 +4288,16 @@
       <c r="E166">
         <v>50</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="4">
         <v>80.099999999999994</v>
       </c>
       <c r="G166">
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <f>A166</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B167">
@@ -4309,16 +4312,16 @@
       <c r="E167">
         <v>50</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="4">
         <v>84.5</v>
       </c>
       <c r="G167">
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <f>A167</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B168">
@@ -4333,16 +4336,16 @@
       <c r="E168">
         <v>50</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="4">
         <v>84.5</v>
       </c>
       <c r="G168">
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <f>A168</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B169">
@@ -4357,16 +4360,16 @@
       <c r="E169">
         <v>50</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="4">
         <v>84.5</v>
       </c>
       <c r="G169">
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <f>A169</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B170">
@@ -4381,16 +4384,16 @@
       <c r="E170">
         <v>50</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="4">
         <v>84.2</v>
       </c>
       <c r="G170">
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <f>A170</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B171">
@@ -4405,16 +4408,16 @@
       <c r="E171">
         <v>50</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="4">
         <v>84.2</v>
       </c>
       <c r="G171">
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <f>A171</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B172">
@@ -4429,16 +4432,16 @@
       <c r="E172">
         <v>50</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="4">
         <v>84.2</v>
       </c>
       <c r="G172">
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <f>A172</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B173">
@@ -4453,16 +4456,16 @@
       <c r="E173">
         <v>30</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="4">
         <v>83.2</v>
       </c>
       <c r="G173">
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <f>A173</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B174">
@@ -4477,16 +4480,16 @@
       <c r="E174">
         <v>30</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="4">
         <v>83.2</v>
       </c>
       <c r="G174">
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <f>A174</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B175">
@@ -4501,16 +4504,16 @@
       <c r="E175">
         <v>30</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="4">
         <v>83.2</v>
       </c>
       <c r="G175">
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <f>A175</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B176">
@@ -4525,16 +4528,16 @@
       <c r="E176">
         <v>0</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="4">
         <v>84.9</v>
       </c>
       <c r="G176">
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <f>A176</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B177">
@@ -4549,16 +4552,16 @@
       <c r="E177">
         <v>0</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="4">
         <v>84.9</v>
       </c>
       <c r="G177">
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <f>A177</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B178">
@@ -4573,14 +4576,14 @@
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="4">
         <v>84.9</v>
       </c>
       <c r="G178">
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <f>A178+1</f>
         <v>44375</v>
@@ -4597,16 +4600,16 @@
       <c r="E179">
         <v>15</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="4">
         <v>84.3</v>
       </c>
       <c r="G179">
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <f>A179</f>
+        <f t="shared" ref="A180:A190" si="3">A179</f>
         <v>44375</v>
       </c>
       <c r="B180">
@@ -4621,16 +4624,16 @@
       <c r="E180">
         <v>15</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="4">
         <v>84.3</v>
       </c>
       <c r="G180">
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <f>A180</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B181">
@@ -4645,16 +4648,16 @@
       <c r="E181">
         <v>15</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="4">
         <v>84.3</v>
       </c>
       <c r="G181">
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <f>A181</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B182">
@@ -4669,16 +4672,16 @@
       <c r="E182">
         <v>15</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="4">
         <v>84.6</v>
       </c>
       <c r="G182">
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <f>A182</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B183">
@@ -4693,16 +4696,16 @@
       <c r="E183">
         <v>15</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="4">
         <v>84</v>
       </c>
       <c r="G183">
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <f>A183</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B184">
@@ -4717,16 +4720,16 @@
       <c r="E184">
         <v>15</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="4">
         <v>84</v>
       </c>
       <c r="G184">
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <f>A184</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B185">
@@ -4741,11 +4744,2867 @@
       <c r="E185">
         <v>15</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="4">
         <v>84</v>
       </c>
       <c r="G185">
         <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <f t="shared" si="3"/>
+        <v>44375</v>
+      </c>
+      <c r="B186">
+        <v>15</v>
+      </c>
+      <c r="C186">
+        <v>25</v>
+      </c>
+      <c r="D186">
+        <v>19</v>
+      </c>
+      <c r="E186">
+        <v>10</v>
+      </c>
+      <c r="F186" s="4">
+        <v>84</v>
+      </c>
+      <c r="G186">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <f t="shared" si="3"/>
+        <v>44375</v>
+      </c>
+      <c r="B187">
+        <v>15</v>
+      </c>
+      <c r="C187">
+        <v>25</v>
+      </c>
+      <c r="D187">
+        <v>19</v>
+      </c>
+      <c r="E187">
+        <v>10</v>
+      </c>
+      <c r="F187" s="4">
+        <v>84</v>
+      </c>
+      <c r="G187">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <f t="shared" si="3"/>
+        <v>44375</v>
+      </c>
+      <c r="B188">
+        <v>15</v>
+      </c>
+      <c r="C188">
+        <v>25</v>
+      </c>
+      <c r="D188">
+        <v>19</v>
+      </c>
+      <c r="E188">
+        <v>10</v>
+      </c>
+      <c r="F188" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G188">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <f t="shared" si="3"/>
+        <v>44375</v>
+      </c>
+      <c r="B189">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>25</v>
+      </c>
+      <c r="D189">
+        <v>19</v>
+      </c>
+      <c r="E189">
+        <v>10</v>
+      </c>
+      <c r="F189" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G189">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <f t="shared" si="3"/>
+        <v>44375</v>
+      </c>
+      <c r="B190">
+        <v>19</v>
+      </c>
+      <c r="C190">
+        <v>30</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190" s="4">
+        <v>85.3</v>
+      </c>
+      <c r="G190">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <f t="shared" ref="A191:A193" si="4">A190</f>
+        <v>44375</v>
+      </c>
+      <c r="B191">
+        <v>19</v>
+      </c>
+      <c r="C191">
+        <v>30</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" s="4">
+        <v>85.3</v>
+      </c>
+      <c r="G191">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <f t="shared" si="4"/>
+        <v>44375</v>
+      </c>
+      <c r="B192">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>30</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192" s="4">
+        <v>85.3</v>
+      </c>
+      <c r="G192">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <f t="shared" si="4"/>
+        <v>44375</v>
+      </c>
+      <c r="B193">
+        <v>22</v>
+      </c>
+      <c r="C193">
+        <v>20</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>50</v>
+      </c>
+      <c r="F193" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="G193">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <f t="shared" ref="A194:A216" si="5">A193</f>
+        <v>44375</v>
+      </c>
+      <c r="B194">
+        <v>22</v>
+      </c>
+      <c r="C194">
+        <v>20</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>50</v>
+      </c>
+      <c r="F194" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="G194">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <f t="shared" si="5"/>
+        <v>44375</v>
+      </c>
+      <c r="B195">
+        <v>22</v>
+      </c>
+      <c r="C195">
+        <v>20</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>50</v>
+      </c>
+      <c r="F195" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="G195">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <f>A195+1</f>
+        <v>44376</v>
+      </c>
+      <c r="B196">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>30</v>
+      </c>
+      <c r="D196">
+        <v>12</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="G196">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B197">
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <v>30</v>
+      </c>
+      <c r="D197">
+        <v>12</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G197">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B198">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>30</v>
+      </c>
+      <c r="D198">
+        <v>12</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G198">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B199">
+        <v>7</v>
+      </c>
+      <c r="C199">
+        <v>30</v>
+      </c>
+      <c r="D199">
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G199">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B200">
+        <v>9</v>
+      </c>
+      <c r="C200">
+        <v>40</v>
+      </c>
+      <c r="D200">
+        <v>14</v>
+      </c>
+      <c r="E200">
+        <v>10</v>
+      </c>
+      <c r="F200" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G200">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B201">
+        <v>9</v>
+      </c>
+      <c r="C201">
+        <v>40</v>
+      </c>
+      <c r="D201">
+        <v>14</v>
+      </c>
+      <c r="E201">
+        <v>10</v>
+      </c>
+      <c r="F201" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G201">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B202">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <v>40</v>
+      </c>
+      <c r="D202">
+        <v>14</v>
+      </c>
+      <c r="E202">
+        <v>10</v>
+      </c>
+      <c r="F202" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G202">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B203">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>17</v>
+      </c>
+      <c r="E203">
+        <v>35</v>
+      </c>
+      <c r="F203" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G203">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B204">
+        <v>13</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>17</v>
+      </c>
+      <c r="E204">
+        <v>35</v>
+      </c>
+      <c r="F204" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G204">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B205">
+        <v>13</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>17</v>
+      </c>
+      <c r="E205">
+        <v>35</v>
+      </c>
+      <c r="F205" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G205">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B206">
+        <v>15</v>
+      </c>
+      <c r="C206">
+        <v>15</v>
+      </c>
+      <c r="D206">
+        <v>19</v>
+      </c>
+      <c r="E206">
+        <v>45</v>
+      </c>
+      <c r="F206" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G206">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B207">
+        <v>15</v>
+      </c>
+      <c r="C207">
+        <v>15</v>
+      </c>
+      <c r="D207">
+        <v>19</v>
+      </c>
+      <c r="E207">
+        <v>45</v>
+      </c>
+      <c r="F207" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G207">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B208">
+        <v>16</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>20</v>
+      </c>
+      <c r="E208">
+        <v>30</v>
+      </c>
+      <c r="F208" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G208">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B209">
+        <v>16</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>30</v>
+      </c>
+      <c r="F209" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G209">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B210">
+        <v>16</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>20</v>
+      </c>
+      <c r="E210">
+        <v>30</v>
+      </c>
+      <c r="F210" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G210">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B211">
+        <v>18</v>
+      </c>
+      <c r="C211">
+        <v>30</v>
+      </c>
+      <c r="D211">
+        <v>23</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G211">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B212">
+        <v>18</v>
+      </c>
+      <c r="C212">
+        <v>30</v>
+      </c>
+      <c r="D212">
+        <v>23</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G212">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B213">
+        <v>18</v>
+      </c>
+      <c r="C213">
+        <v>30</v>
+      </c>
+      <c r="D213">
+        <v>23</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G213">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B214">
+        <v>19</v>
+      </c>
+      <c r="C214">
+        <v>35</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G214">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B215">
+        <v>19</v>
+      </c>
+      <c r="C215">
+        <v>35</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G215">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <f t="shared" si="5"/>
+        <v>44376</v>
+      </c>
+      <c r="B216">
+        <v>19</v>
+      </c>
+      <c r="C216">
+        <v>35</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G216">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <f>A216+1</f>
+        <v>44377</v>
+      </c>
+      <c r="B217">
+        <v>6</v>
+      </c>
+      <c r="C217">
+        <v>30</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217">
+        <v>55</v>
+      </c>
+      <c r="F217" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G217">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <f t="shared" ref="A218:A228" si="6">A217</f>
+        <v>44377</v>
+      </c>
+      <c r="B218">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>30</v>
+      </c>
+      <c r="D218">
+        <v>10</v>
+      </c>
+      <c r="E218">
+        <v>55</v>
+      </c>
+      <c r="F218" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G218">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B219">
+        <v>6</v>
+      </c>
+      <c r="C219">
+        <v>30</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219">
+        <v>55</v>
+      </c>
+      <c r="F219" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G219">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B220">
+        <v>12</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>16</v>
+      </c>
+      <c r="E220">
+        <v>25</v>
+      </c>
+      <c r="F220" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G220">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B221">
+        <v>12</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>16</v>
+      </c>
+      <c r="E221">
+        <v>25</v>
+      </c>
+      <c r="F221" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G221">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B222">
+        <v>12</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>16</v>
+      </c>
+      <c r="E222">
+        <v>25</v>
+      </c>
+      <c r="F222" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G222">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B223">
+        <v>16</v>
+      </c>
+      <c r="C223">
+        <v>50</v>
+      </c>
+      <c r="D223">
+        <v>21</v>
+      </c>
+      <c r="E223">
+        <v>15</v>
+      </c>
+      <c r="F223" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G223">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B224">
+        <v>16</v>
+      </c>
+      <c r="C224">
+        <v>50</v>
+      </c>
+      <c r="D224">
+        <v>21</v>
+      </c>
+      <c r="E224">
+        <v>15</v>
+      </c>
+      <c r="F224" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G224">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B225">
+        <v>16</v>
+      </c>
+      <c r="C225">
+        <v>50</v>
+      </c>
+      <c r="D225">
+        <v>21</v>
+      </c>
+      <c r="E225">
+        <v>15</v>
+      </c>
+      <c r="F225" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G225">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B226">
+        <v>18</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G226">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B227">
+        <v>18</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G227">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <f t="shared" si="6"/>
+        <v>44377</v>
+      </c>
+      <c r="B228">
+        <v>18</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G228">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <f>A228+1</f>
+        <v>44378</v>
+      </c>
+      <c r="B229">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>45</v>
+      </c>
+      <c r="D229">
+        <v>13</v>
+      </c>
+      <c r="E229">
+        <v>45</v>
+      </c>
+      <c r="F229" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G229">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <f t="shared" ref="A230:A240" si="7">A229</f>
+        <v>44378</v>
+      </c>
+      <c r="B230">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>45</v>
+      </c>
+      <c r="D230">
+        <v>13</v>
+      </c>
+      <c r="E230">
+        <v>45</v>
+      </c>
+      <c r="F230" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G230">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B231">
+        <v>7</v>
+      </c>
+      <c r="C231">
+        <v>45</v>
+      </c>
+      <c r="D231">
+        <v>13</v>
+      </c>
+      <c r="E231">
+        <v>45</v>
+      </c>
+      <c r="F231" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G231">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B232">
+        <v>8</v>
+      </c>
+      <c r="C232">
+        <v>45</v>
+      </c>
+      <c r="D232">
+        <v>14</v>
+      </c>
+      <c r="E232">
+        <v>45</v>
+      </c>
+      <c r="F232" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G232">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B233">
+        <v>8</v>
+      </c>
+      <c r="C233">
+        <v>45</v>
+      </c>
+      <c r="D233">
+        <v>14</v>
+      </c>
+      <c r="E233">
+        <v>45</v>
+      </c>
+      <c r="F233" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G233">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B234">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <v>45</v>
+      </c>
+      <c r="D234">
+        <v>14</v>
+      </c>
+      <c r="E234">
+        <v>45</v>
+      </c>
+      <c r="F234" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G234">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B235">
+        <v>12</v>
+      </c>
+      <c r="C235">
+        <v>50</v>
+      </c>
+      <c r="D235">
+        <v>18</v>
+      </c>
+      <c r="E235">
+        <v>50</v>
+      </c>
+      <c r="F235" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G235">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B236">
+        <v>12</v>
+      </c>
+      <c r="C236">
+        <v>50</v>
+      </c>
+      <c r="D236">
+        <v>18</v>
+      </c>
+      <c r="E236">
+        <v>50</v>
+      </c>
+      <c r="F236" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G236">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B237">
+        <v>12</v>
+      </c>
+      <c r="C237">
+        <v>50</v>
+      </c>
+      <c r="D237">
+        <v>18</v>
+      </c>
+      <c r="E237">
+        <v>50</v>
+      </c>
+      <c r="F237" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G237">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B238">
+        <v>14</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+      <c r="D238">
+        <v>20</v>
+      </c>
+      <c r="E238">
+        <v>45</v>
+      </c>
+      <c r="F238" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G238">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B239">
+        <v>14</v>
+      </c>
+      <c r="C239">
+        <v>45</v>
+      </c>
+      <c r="D239">
+        <v>20</v>
+      </c>
+      <c r="E239">
+        <v>45</v>
+      </c>
+      <c r="F239" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G239">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <f t="shared" si="7"/>
+        <v>44378</v>
+      </c>
+      <c r="B240">
+        <v>14</v>
+      </c>
+      <c r="C240">
+        <v>45</v>
+      </c>
+      <c r="D240">
+        <v>20</v>
+      </c>
+      <c r="E240">
+        <v>45</v>
+      </c>
+      <c r="F240" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G240">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <f t="shared" ref="A241:A247" si="8">A240</f>
+        <v>44378</v>
+      </c>
+      <c r="B241">
+        <v>18</v>
+      </c>
+      <c r="C241">
+        <v>15</v>
+      </c>
+      <c r="D241">
+        <v>24</v>
+      </c>
+      <c r="E241">
+        <v>15</v>
+      </c>
+      <c r="F241" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G241">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <f t="shared" si="8"/>
+        <v>44378</v>
+      </c>
+      <c r="B242">
+        <v>18</v>
+      </c>
+      <c r="C242">
+        <v>15</v>
+      </c>
+      <c r="D242">
+        <v>24</v>
+      </c>
+      <c r="E242">
+        <v>15</v>
+      </c>
+      <c r="F242" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G242">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <f t="shared" si="8"/>
+        <v>44378</v>
+      </c>
+      <c r="B243">
+        <v>18</v>
+      </c>
+      <c r="C243">
+        <v>15</v>
+      </c>
+      <c r="D243">
+        <v>24</v>
+      </c>
+      <c r="E243">
+        <v>15</v>
+      </c>
+      <c r="F243" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G243">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <f t="shared" si="8"/>
+        <v>44378</v>
+      </c>
+      <c r="B244">
+        <v>18</v>
+      </c>
+      <c r="C244">
+        <v>15</v>
+      </c>
+      <c r="D244">
+        <v>24</v>
+      </c>
+      <c r="E244">
+        <v>15</v>
+      </c>
+      <c r="F244" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G244">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <f t="shared" si="8"/>
+        <v>44378</v>
+      </c>
+      <c r="B245">
+        <v>19</v>
+      </c>
+      <c r="C245">
+        <v>10</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G245">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <f t="shared" si="8"/>
+        <v>44378</v>
+      </c>
+      <c r="B246">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <v>10</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G246">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <f t="shared" si="8"/>
+        <v>44378</v>
+      </c>
+      <c r="B247">
+        <v>19</v>
+      </c>
+      <c r="C247">
+        <v>10</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G247">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <f>A247</f>
+        <v>44378</v>
+      </c>
+      <c r="B248">
+        <v>20</v>
+      </c>
+      <c r="C248">
+        <v>50</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>40</v>
+      </c>
+      <c r="F248" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G248">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <f>A248+1</f>
+        <v>44379</v>
+      </c>
+      <c r="B249">
+        <v>7</v>
+      </c>
+      <c r="C249">
+        <v>20</v>
+      </c>
+      <c r="D249">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>10</v>
+      </c>
+      <c r="F249" s="4">
+        <v>84</v>
+      </c>
+      <c r="G249">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <f t="shared" ref="A250:A255" si="9">A249</f>
+        <v>44379</v>
+      </c>
+      <c r="B250">
+        <v>7</v>
+      </c>
+      <c r="C250">
+        <v>20</v>
+      </c>
+      <c r="D250">
+        <v>12</v>
+      </c>
+      <c r="E250">
+        <v>10</v>
+      </c>
+      <c r="F250" s="4">
+        <v>84</v>
+      </c>
+      <c r="G250">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <f t="shared" si="9"/>
+        <v>44379</v>
+      </c>
+      <c r="B251">
+        <v>7</v>
+      </c>
+      <c r="C251">
+        <v>20</v>
+      </c>
+      <c r="D251">
+        <v>12</v>
+      </c>
+      <c r="E251">
+        <v>10</v>
+      </c>
+      <c r="F251" s="4">
+        <v>84</v>
+      </c>
+      <c r="G251">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <f t="shared" si="9"/>
+        <v>44379</v>
+      </c>
+      <c r="B252">
+        <v>9</v>
+      </c>
+      <c r="C252">
+        <v>15</v>
+      </c>
+      <c r="D252">
+        <v>14</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G252">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <f t="shared" si="9"/>
+        <v>44379</v>
+      </c>
+      <c r="B253">
+        <v>9</v>
+      </c>
+      <c r="C253">
+        <v>15</v>
+      </c>
+      <c r="D253">
+        <v>14</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G253">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <f t="shared" si="9"/>
+        <v>44379</v>
+      </c>
+      <c r="B254">
+        <v>11</v>
+      </c>
+      <c r="C254">
+        <v>20</v>
+      </c>
+      <c r="D254">
+        <v>16</v>
+      </c>
+      <c r="E254">
+        <v>10</v>
+      </c>
+      <c r="F254" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G254">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <f t="shared" si="9"/>
+        <v>44379</v>
+      </c>
+      <c r="B255">
+        <v>11</v>
+      </c>
+      <c r="C255">
+        <v>20</v>
+      </c>
+      <c r="D255">
+        <v>16</v>
+      </c>
+      <c r="E255">
+        <v>10</v>
+      </c>
+      <c r="F255" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G255">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <f>A255</f>
+        <v>44379</v>
+      </c>
+      <c r="B256">
+        <v>14</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <v>18</v>
+      </c>
+      <c r="E256">
+        <v>35</v>
+      </c>
+      <c r="F256" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G256">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <f>A256</f>
+        <v>44379</v>
+      </c>
+      <c r="B257">
+        <v>14</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257">
+        <v>18</v>
+      </c>
+      <c r="E257">
+        <v>35</v>
+      </c>
+      <c r="F257" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G257">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <f>A257</f>
+        <v>44379</v>
+      </c>
+      <c r="B258">
+        <v>14</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>18</v>
+      </c>
+      <c r="E258">
+        <v>35</v>
+      </c>
+      <c r="F258" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G258">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <f>A258</f>
+        <v>44379</v>
+      </c>
+      <c r="B259">
+        <v>15</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>35</v>
+      </c>
+      <c r="F259" s="4">
+        <v>85</v>
+      </c>
+      <c r="G259">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <f>A259</f>
+        <v>44379</v>
+      </c>
+      <c r="B260">
+        <v>15</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>35</v>
+      </c>
+      <c r="F260" s="4">
+        <v>85</v>
+      </c>
+      <c r="G260">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <f>A260</f>
+        <v>44379</v>
+      </c>
+      <c r="B261">
+        <v>15</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>35</v>
+      </c>
+      <c r="F261" s="4">
+        <v>85</v>
+      </c>
+      <c r="G261">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <f>A261</f>
+        <v>44379</v>
+      </c>
+      <c r="B262">
+        <v>15</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>35</v>
+      </c>
+      <c r="F262" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G262">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <f>A262</f>
+        <v>44379</v>
+      </c>
+      <c r="B263">
+        <v>15</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>35</v>
+      </c>
+      <c r="F263" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G263">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <f>A263+1</f>
+        <v>44380</v>
+      </c>
+      <c r="B264">
+        <v>8</v>
+      </c>
+      <c r="C264">
+        <v>50</v>
+      </c>
+      <c r="D264">
+        <v>8</v>
+      </c>
+      <c r="E264">
+        <v>5</v>
+      </c>
+      <c r="F264" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G264">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <f>A264</f>
+        <v>44380</v>
+      </c>
+      <c r="B265">
+        <v>8</v>
+      </c>
+      <c r="C265">
+        <v>50</v>
+      </c>
+      <c r="D265">
+        <v>8</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265" s="4">
+        <v>82.1</v>
+      </c>
+      <c r="G265">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <f>A265</f>
+        <v>44380</v>
+      </c>
+      <c r="B266">
+        <v>8</v>
+      </c>
+      <c r="C266">
+        <v>50</v>
+      </c>
+      <c r="D266">
+        <v>8</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266" s="4">
+        <v>82.1</v>
+      </c>
+      <c r="G266">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <f>A266</f>
+        <v>44380</v>
+      </c>
+      <c r="B267">
+        <v>8</v>
+      </c>
+      <c r="C267">
+        <v>50</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
+      </c>
+      <c r="E267">
+        <v>5</v>
+      </c>
+      <c r="F267" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G267">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <f>A267</f>
+        <v>44380</v>
+      </c>
+      <c r="B268">
+        <v>12</v>
+      </c>
+      <c r="C268">
+        <v>10</v>
+      </c>
+      <c r="D268">
+        <v>11</v>
+      </c>
+      <c r="E268">
+        <v>25</v>
+      </c>
+      <c r="F268" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G268">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <f>A268</f>
+        <v>44380</v>
+      </c>
+      <c r="B269">
+        <v>12</v>
+      </c>
+      <c r="C269">
+        <v>10</v>
+      </c>
+      <c r="D269">
+        <v>11</v>
+      </c>
+      <c r="E269">
+        <v>25</v>
+      </c>
+      <c r="F269" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G269">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <f>A269</f>
+        <v>44380</v>
+      </c>
+      <c r="B270">
+        <v>12</v>
+      </c>
+      <c r="C270">
+        <v>10</v>
+      </c>
+      <c r="D270">
+        <v>11</v>
+      </c>
+      <c r="E270">
+        <v>25</v>
+      </c>
+      <c r="F270" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G270">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <f>A270+1</f>
+        <v>44381</v>
+      </c>
+      <c r="B271">
+        <v>10</v>
+      </c>
+      <c r="C271">
+        <v>5</v>
+      </c>
+      <c r="D271">
+        <v>9</v>
+      </c>
+      <c r="E271">
+        <v>40</v>
+      </c>
+      <c r="F271" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G271">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <f>A271</f>
+        <v>44381</v>
+      </c>
+      <c r="B272">
+        <v>10</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+      <c r="D272">
+        <v>9</v>
+      </c>
+      <c r="E272">
+        <v>40</v>
+      </c>
+      <c r="F272" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G272">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <f>A272</f>
+        <v>44381</v>
+      </c>
+      <c r="B273">
+        <v>10</v>
+      </c>
+      <c r="C273">
+        <v>5</v>
+      </c>
+      <c r="D273">
+        <v>9</v>
+      </c>
+      <c r="E273">
+        <v>40</v>
+      </c>
+      <c r="F273" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G273">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <f>A273</f>
+        <v>44381</v>
+      </c>
+      <c r="B274">
+        <v>13</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>12</v>
+      </c>
+      <c r="E274">
+        <v>35</v>
+      </c>
+      <c r="F274" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G274">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <f>A274</f>
+        <v>44381</v>
+      </c>
+      <c r="B275">
+        <v>13</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>12</v>
+      </c>
+      <c r="E275">
+        <v>35</v>
+      </c>
+      <c r="F275" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G275">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <f>A275</f>
+        <v>44381</v>
+      </c>
+      <c r="B276">
+        <v>13</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>12</v>
+      </c>
+      <c r="E276">
+        <v>35</v>
+      </c>
+      <c r="F276" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G276">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <f>A276</f>
+        <v>44381</v>
+      </c>
+      <c r="B277">
+        <v>14</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G277">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <f>A277</f>
+        <v>44381</v>
+      </c>
+      <c r="B278">
+        <v>14</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G278">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <f>A278</f>
+        <v>44381</v>
+      </c>
+      <c r="B279">
+        <v>14</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G279">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <f>A279</f>
+        <v>44381</v>
+      </c>
+      <c r="B280">
+        <v>16</v>
+      </c>
+      <c r="C280">
+        <v>5</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>5</v>
+      </c>
+      <c r="F280" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G280">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <f>A280</f>
+        <v>44381</v>
+      </c>
+      <c r="B281">
+        <v>17</v>
+      </c>
+      <c r="C281">
+        <v>45</v>
+      </c>
+      <c r="D281">
+        <v>3</v>
+      </c>
+      <c r="E281">
+        <v>45</v>
+      </c>
+      <c r="F281" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G281">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <f>A281</f>
+        <v>44381</v>
+      </c>
+      <c r="B282">
+        <v>17</v>
+      </c>
+      <c r="C282">
+        <v>45</v>
+      </c>
+      <c r="D282">
+        <v>3</v>
+      </c>
+      <c r="E282">
+        <v>45</v>
+      </c>
+      <c r="F282" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G282">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <f>A282</f>
+        <v>44381</v>
+      </c>
+      <c r="B283">
+        <v>17</v>
+      </c>
+      <c r="C283">
+        <v>45</v>
+      </c>
+      <c r="D283">
+        <v>3</v>
+      </c>
+      <c r="E283">
+        <v>45</v>
+      </c>
+      <c r="F283" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G283">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <f>A283</f>
+        <v>44381</v>
+      </c>
+      <c r="B284">
+        <v>19</v>
+      </c>
+      <c r="C284">
+        <v>40</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>40</v>
+      </c>
+      <c r="F284" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G284">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <f>A284</f>
+        <v>44381</v>
+      </c>
+      <c r="B285">
+        <v>19</v>
+      </c>
+      <c r="C285">
+        <v>40</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>40</v>
+      </c>
+      <c r="F285" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G285">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <f>A285</f>
+        <v>44381</v>
+      </c>
+      <c r="B286">
+        <v>19</v>
+      </c>
+      <c r="C286">
+        <v>40</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>40</v>
+      </c>
+      <c r="F286" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G286">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <f>A286</f>
+        <v>44381</v>
+      </c>
+      <c r="B287">
+        <v>19</v>
+      </c>
+      <c r="C287">
+        <v>40</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>40</v>
+      </c>
+      <c r="F287" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G287">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <f>A287</f>
+        <v>44381</v>
+      </c>
+      <c r="B288">
+        <v>21</v>
+      </c>
+      <c r="C288">
+        <v>25</v>
+      </c>
+      <c r="D288">
+        <v>3</v>
+      </c>
+      <c r="E288">
+        <v>25</v>
+      </c>
+      <c r="F288" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G288">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <f>A288</f>
+        <v>44381</v>
+      </c>
+      <c r="B289">
+        <v>21</v>
+      </c>
+      <c r="C289">
+        <v>25</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>25</v>
+      </c>
+      <c r="F289" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G289">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <f>A289+1</f>
+        <v>44382</v>
+      </c>
+      <c r="B290">
+        <v>7</v>
+      </c>
+      <c r="C290">
+        <v>10</v>
+      </c>
+      <c r="D290">
+        <v>13</v>
+      </c>
+      <c r="E290">
+        <v>10</v>
+      </c>
+      <c r="F290" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G290">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <f>A290</f>
+        <v>44382</v>
+      </c>
+      <c r="B291">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+      <c r="D291">
+        <v>13</v>
+      </c>
+      <c r="E291">
+        <v>10</v>
+      </c>
+      <c r="F291" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G291">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <f>A291</f>
+        <v>44382</v>
+      </c>
+      <c r="B292">
+        <v>7</v>
+      </c>
+      <c r="C292">
+        <v>10</v>
+      </c>
+      <c r="D292">
+        <v>13</v>
+      </c>
+      <c r="E292">
+        <v>10</v>
+      </c>
+      <c r="F292" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G292">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <f>A292</f>
+        <v>44382</v>
+      </c>
+      <c r="B293">
+        <v>7</v>
+      </c>
+      <c r="C293">
+        <v>10</v>
+      </c>
+      <c r="D293">
+        <v>13</v>
+      </c>
+      <c r="E293">
+        <v>10</v>
+      </c>
+      <c r="F293" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G293">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <f>A293</f>
+        <v>44382</v>
+      </c>
+      <c r="B294">
+        <v>9</v>
+      </c>
+      <c r="C294">
+        <v>30</v>
+      </c>
+      <c r="D294">
+        <v>15</v>
+      </c>
+      <c r="E294">
+        <v>30</v>
+      </c>
+      <c r="F294" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G294">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <f>A294</f>
+        <v>44382</v>
+      </c>
+      <c r="B295">
+        <v>9</v>
+      </c>
+      <c r="C295">
+        <v>30</v>
+      </c>
+      <c r="D295">
+        <v>15</v>
+      </c>
+      <c r="E295">
+        <v>30</v>
+      </c>
+      <c r="F295" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G295">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <f>A295</f>
+        <v>44382</v>
+      </c>
+      <c r="B296">
+        <v>9</v>
+      </c>
+      <c r="C296">
+        <v>30</v>
+      </c>
+      <c r="D296">
+        <v>15</v>
+      </c>
+      <c r="E296">
+        <v>30</v>
+      </c>
+      <c r="F296" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G296">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <f>A296</f>
+        <v>44382</v>
+      </c>
+      <c r="B297">
+        <v>12</v>
+      </c>
+      <c r="C297">
+        <v>35</v>
+      </c>
+      <c r="D297">
+        <v>18</v>
+      </c>
+      <c r="E297">
+        <v>35</v>
+      </c>
+      <c r="F297" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G297">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <f>A297</f>
+        <v>44382</v>
+      </c>
+      <c r="B298">
+        <v>12</v>
+      </c>
+      <c r="C298">
+        <v>35</v>
+      </c>
+      <c r="D298">
+        <v>18</v>
+      </c>
+      <c r="E298">
+        <v>35</v>
+      </c>
+      <c r="F298" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G298">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <f>A298</f>
+        <v>44382</v>
+      </c>
+      <c r="B299">
+        <v>14</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>20</v>
+      </c>
+      <c r="E299">
+        <v>5</v>
+      </c>
+      <c r="F299" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G299">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <f>A299</f>
+        <v>44382</v>
+      </c>
+      <c r="B300">
+        <v>14</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+      <c r="D300">
+        <v>20</v>
+      </c>
+      <c r="E300">
+        <v>5</v>
+      </c>
+      <c r="F300" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G300">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <f>A300</f>
+        <v>44382</v>
+      </c>
+      <c r="B301">
+        <v>15</v>
+      </c>
+      <c r="C301">
+        <v>20</v>
+      </c>
+      <c r="D301">
+        <v>21</v>
+      </c>
+      <c r="E301">
+        <v>20</v>
+      </c>
+      <c r="F301" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G301">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <f>A301</f>
+        <v>44382</v>
+      </c>
+      <c r="B302">
+        <v>15</v>
+      </c>
+      <c r="C302">
+        <v>20</v>
+      </c>
+      <c r="D302">
+        <v>21</v>
+      </c>
+      <c r="E302">
+        <v>20</v>
+      </c>
+      <c r="F302" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G302">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <f>A302</f>
+        <v>44382</v>
+      </c>
+      <c r="B303">
+        <v>17</v>
+      </c>
+      <c r="C303">
+        <v>20</v>
+      </c>
+      <c r="D303">
+        <v>23</v>
+      </c>
+      <c r="E303">
+        <v>20</v>
+      </c>
+      <c r="F303" s="4">
+        <v>84</v>
+      </c>
+      <c r="G303">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <f>A303</f>
+        <v>44382</v>
+      </c>
+      <c r="B304">
+        <v>17</v>
+      </c>
+      <c r="C304">
+        <v>20</v>
+      </c>
+      <c r="D304">
+        <v>23</v>
+      </c>
+      <c r="E304">
+        <v>20</v>
+      </c>
+      <c r="F304" s="4">
+        <v>84</v>
+      </c>
+      <c r="G304">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4753,19 +7612,11 @@
     <sortCondition ref="A2:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f60a4376a33fe09dfddee3b7d8d4a7bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="906a0e747f0336b2cce67eb72cba36c9" ns2:_="">
     <xsd:import namespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
@@ -4929,20 +7780,52 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83972029-C29B-49D4-B62D-C7EE56B95B69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83972029-C29B-49D4-B62D-C7EE56B95B69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spliney/martysweight.xlsx
+++ b/spliney/martysweight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19244\Documents\V2 Docs\R Git\Martysweight\spliney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8D198-C2B1-4135-94E7-8DFD4FF56880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740B466B-7625-4D4A-A42D-FB1BDAE72431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
@@ -416,11 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A307" sqref="A307"/>
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A382" sqref="A382:G382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
-        <f>A255</f>
+        <f t="shared" ref="A256:A263" si="10">A255</f>
         <v>44379</v>
       </c>
       <c r="B256">
@@ -6457,7 +6457,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
-        <f>A256</f>
+        <f t="shared" si="10"/>
         <v>44379</v>
       </c>
       <c r="B257">
@@ -6481,7 +6481,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <f>A257</f>
+        <f t="shared" si="10"/>
         <v>44379</v>
       </c>
       <c r="B258">
@@ -6505,7 +6505,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
-        <f>A258</f>
+        <f t="shared" si="10"/>
         <v>44379</v>
       </c>
       <c r="B259">
@@ -6529,7 +6529,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
-        <f>A259</f>
+        <f t="shared" si="10"/>
         <v>44379</v>
       </c>
       <c r="B260">
@@ -6553,7 +6553,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
-        <f>A260</f>
+        <f t="shared" si="10"/>
         <v>44379</v>
       </c>
       <c r="B261">
@@ -6577,7 +6577,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
-        <f>A261</f>
+        <f t="shared" si="10"/>
         <v>44379</v>
       </c>
       <c r="B262">
@@ -6601,7 +6601,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
-        <f>A262</f>
+        <f t="shared" si="10"/>
         <v>44379</v>
       </c>
       <c r="B263">
@@ -6649,7 +6649,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
-        <f>A264</f>
+        <f t="shared" ref="A265:A270" si="11">A264</f>
         <v>44380</v>
       </c>
       <c r="B265">
@@ -6673,7 +6673,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
-        <f>A265</f>
+        <f t="shared" si="11"/>
         <v>44380</v>
       </c>
       <c r="B266">
@@ -6697,7 +6697,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
-        <f>A266</f>
+        <f t="shared" si="11"/>
         <v>44380</v>
       </c>
       <c r="B267">
@@ -6721,7 +6721,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
-        <f>A267</f>
+        <f t="shared" si="11"/>
         <v>44380</v>
       </c>
       <c r="B268">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
-        <f>A268</f>
+        <f t="shared" si="11"/>
         <v>44380</v>
       </c>
       <c r="B269">
@@ -6769,7 +6769,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
-        <f>A269</f>
+        <f t="shared" si="11"/>
         <v>44380</v>
       </c>
       <c r="B270">
@@ -6817,7 +6817,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
-        <f>A271</f>
+        <f t="shared" ref="A272:A289" si="12">A271</f>
         <v>44381</v>
       </c>
       <c r="B272">
@@ -6841,7 +6841,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
-        <f>A272</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B273">
@@ -6865,7 +6865,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
-        <f>A273</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B274">
@@ -6889,7 +6889,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
-        <f>A274</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B275">
@@ -6913,7 +6913,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
-        <f>A275</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B276">
@@ -6937,7 +6937,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <f>A276</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B277">
@@ -6961,7 +6961,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
-        <f>A277</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B278">
@@ -6985,7 +6985,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
-        <f>A278</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B279">
@@ -7009,7 +7009,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
-        <f>A279</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B280">
@@ -7033,7 +7033,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
-        <f>A280</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B281">
@@ -7057,7 +7057,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
-        <f>A281</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B282">
@@ -7081,7 +7081,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
-        <f>A282</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B283">
@@ -7105,7 +7105,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
-        <f>A283</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B284">
@@ -7129,7 +7129,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
-        <f>A284</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B285">
@@ -7153,7 +7153,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
-        <f>A285</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B286">
@@ -7177,7 +7177,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
-        <f>A286</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B287">
@@ -7201,7 +7201,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
-        <f>A287</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B288">
@@ -7225,7 +7225,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
-        <f>A288</f>
+        <f t="shared" si="12"/>
         <v>44381</v>
       </c>
       <c r="B289">
@@ -7273,7 +7273,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
-        <f>A290</f>
+        <f t="shared" ref="A291:A318" si="13">A290</f>
         <v>44382</v>
       </c>
       <c r="B291">
@@ -7297,7 +7297,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
-        <f>A291</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B292">
@@ -7321,7 +7321,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
-        <f>A292</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B293">
@@ -7345,7 +7345,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
-        <f>A293</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B294">
@@ -7369,7 +7369,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
-        <f>A294</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B295">
@@ -7393,7 +7393,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
-        <f>A295</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B296">
@@ -7417,7 +7417,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
-        <f>A296</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B297">
@@ -7441,7 +7441,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
-        <f>A297</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B298">
@@ -7465,7 +7465,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
-        <f>A298</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B299">
@@ -7489,7 +7489,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
-        <f>A299</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B300">
@@ -7513,7 +7513,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
-        <f>A300</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B301">
@@ -7537,7 +7537,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
-        <f>A301</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B302">
@@ -7561,7 +7561,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
-        <f>A302</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B303">
@@ -7585,7 +7585,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
-        <f>A303</f>
+        <f t="shared" si="13"/>
         <v>44382</v>
       </c>
       <c r="B304">
@@ -7605,6 +7605,1879 @@
       </c>
       <c r="G304">
         <v>63</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B305">
+        <v>18</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>24</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G305">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B306">
+        <v>18</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>24</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G306">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B307">
+        <v>18</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>24</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G307">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B308">
+        <v>18</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>24</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G308">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B309">
+        <v>19</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+      <c r="D309">
+        <v>25</v>
+      </c>
+      <c r="E309">
+        <v>5</v>
+      </c>
+      <c r="F309" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G309">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B310">
+        <v>19</v>
+      </c>
+      <c r="C310">
+        <v>5</v>
+      </c>
+      <c r="D310">
+        <v>25</v>
+      </c>
+      <c r="E310">
+        <v>5</v>
+      </c>
+      <c r="F310" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G310">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B311">
+        <v>19</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+      <c r="D311">
+        <v>25</v>
+      </c>
+      <c r="E311">
+        <v>5</v>
+      </c>
+      <c r="F311" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G311">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B312">
+        <v>19</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
+      </c>
+      <c r="D312">
+        <v>25</v>
+      </c>
+      <c r="E312">
+        <v>5</v>
+      </c>
+      <c r="F312" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G312">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B313">
+        <v>20</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>26</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G313">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B314">
+        <v>20</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>26</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G314">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B315">
+        <v>20</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>26</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G315">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B316">
+        <v>21</v>
+      </c>
+      <c r="C316">
+        <v>20</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>35</v>
+      </c>
+      <c r="F316" s="4">
+        <v>85.4</v>
+      </c>
+      <c r="G316">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B317">
+        <v>21</v>
+      </c>
+      <c r="C317">
+        <v>20</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>35</v>
+      </c>
+      <c r="F317" s="4">
+        <v>85.4</v>
+      </c>
+      <c r="G317">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <f t="shared" si="13"/>
+        <v>44382</v>
+      </c>
+      <c r="B318">
+        <v>21</v>
+      </c>
+      <c r="C318">
+        <v>20</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>35</v>
+      </c>
+      <c r="F318" s="4">
+        <v>85.4</v>
+      </c>
+      <c r="G318">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <f>A318+1</f>
+        <v>44383</v>
+      </c>
+      <c r="B319">
+        <v>7</v>
+      </c>
+      <c r="C319">
+        <v>45</v>
+      </c>
+      <c r="D319">
+        <v>11</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G319">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <f t="shared" ref="A320:A327" si="14">A319</f>
+        <v>44383</v>
+      </c>
+      <c r="B320">
+        <v>7</v>
+      </c>
+      <c r="C320">
+        <v>45</v>
+      </c>
+      <c r="D320">
+        <v>11</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G320">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <f t="shared" si="14"/>
+        <v>44383</v>
+      </c>
+      <c r="B321">
+        <v>7</v>
+      </c>
+      <c r="C321">
+        <v>45</v>
+      </c>
+      <c r="D321">
+        <v>11</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G321">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <f t="shared" si="14"/>
+        <v>44383</v>
+      </c>
+      <c r="B322">
+        <v>20</v>
+      </c>
+      <c r="C322">
+        <v>40</v>
+      </c>
+      <c r="D322">
+        <v>23</v>
+      </c>
+      <c r="E322">
+        <v>55</v>
+      </c>
+      <c r="F322" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G322">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <f t="shared" si="14"/>
+        <v>44383</v>
+      </c>
+      <c r="B323">
+        <v>20</v>
+      </c>
+      <c r="C323">
+        <v>40</v>
+      </c>
+      <c r="D323">
+        <v>23</v>
+      </c>
+      <c r="E323">
+        <v>55</v>
+      </c>
+      <c r="F323" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G323">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <f t="shared" si="14"/>
+        <v>44383</v>
+      </c>
+      <c r="B324">
+        <v>20</v>
+      </c>
+      <c r="C324">
+        <v>40</v>
+      </c>
+      <c r="D324">
+        <v>23</v>
+      </c>
+      <c r="E324">
+        <v>55</v>
+      </c>
+      <c r="F324" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G324">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <f t="shared" si="14"/>
+        <v>44383</v>
+      </c>
+      <c r="B325">
+        <v>21</v>
+      </c>
+      <c r="C325">
+        <v>25</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>20</v>
+      </c>
+      <c r="F325" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="G325">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <f t="shared" si="14"/>
+        <v>44383</v>
+      </c>
+      <c r="B326">
+        <v>21</v>
+      </c>
+      <c r="C326">
+        <v>25</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>20</v>
+      </c>
+      <c r="F326" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="G326">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <f t="shared" si="14"/>
+        <v>44383</v>
+      </c>
+      <c r="B327">
+        <v>21</v>
+      </c>
+      <c r="C327">
+        <v>25</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>20</v>
+      </c>
+      <c r="F327" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="G327">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <f>A327+1</f>
+        <v>44384</v>
+      </c>
+      <c r="B328">
+        <v>7</v>
+      </c>
+      <c r="C328">
+        <v>15</v>
+      </c>
+      <c r="D328">
+        <v>10</v>
+      </c>
+      <c r="E328">
+        <v>5</v>
+      </c>
+      <c r="F328" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G328">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <f>A328</f>
+        <v>44384</v>
+      </c>
+      <c r="B329">
+        <v>7</v>
+      </c>
+      <c r="C329">
+        <v>15</v>
+      </c>
+      <c r="D329">
+        <v>10</v>
+      </c>
+      <c r="E329">
+        <v>5</v>
+      </c>
+      <c r="F329" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G329">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <f>A329</f>
+        <v>44384</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>15</v>
+      </c>
+      <c r="D330">
+        <v>10</v>
+      </c>
+      <c r="E330">
+        <v>5</v>
+      </c>
+      <c r="F330" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G330">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <f>A330</f>
+        <v>44384</v>
+      </c>
+      <c r="B331">
+        <v>10</v>
+      </c>
+      <c r="C331">
+        <v>5</v>
+      </c>
+      <c r="D331">
+        <v>12</v>
+      </c>
+      <c r="E331">
+        <v>55</v>
+      </c>
+      <c r="F331" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G331">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <f>A331</f>
+        <v>44384</v>
+      </c>
+      <c r="B332">
+        <v>10</v>
+      </c>
+      <c r="C332">
+        <v>5</v>
+      </c>
+      <c r="D332">
+        <v>12</v>
+      </c>
+      <c r="E332">
+        <v>55</v>
+      </c>
+      <c r="F332" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G332">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <f>A332</f>
+        <v>44384</v>
+      </c>
+      <c r="B333">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>5</v>
+      </c>
+      <c r="D333">
+        <v>12</v>
+      </c>
+      <c r="E333">
+        <v>55</v>
+      </c>
+      <c r="F333" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G333">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <f>A333</f>
+        <v>44384</v>
+      </c>
+      <c r="B334">
+        <v>13</v>
+      </c>
+      <c r="C334">
+        <v>55</v>
+      </c>
+      <c r="D334">
+        <v>16</v>
+      </c>
+      <c r="E334">
+        <v>50</v>
+      </c>
+      <c r="F334" s="4">
+        <v>82</v>
+      </c>
+      <c r="G334">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <f>A334</f>
+        <v>44384</v>
+      </c>
+      <c r="B335">
+        <v>13</v>
+      </c>
+      <c r="C335">
+        <v>55</v>
+      </c>
+      <c r="D335">
+        <v>16</v>
+      </c>
+      <c r="E335">
+        <v>50</v>
+      </c>
+      <c r="F335" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G335">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <f>A335</f>
+        <v>44384</v>
+      </c>
+      <c r="B336">
+        <v>13</v>
+      </c>
+      <c r="C336">
+        <v>55</v>
+      </c>
+      <c r="D336">
+        <v>16</v>
+      </c>
+      <c r="E336">
+        <v>50</v>
+      </c>
+      <c r="F336" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G336">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <f>A336</f>
+        <v>44384</v>
+      </c>
+      <c r="B337">
+        <v>13</v>
+      </c>
+      <c r="C337">
+        <v>55</v>
+      </c>
+      <c r="D337">
+        <v>16</v>
+      </c>
+      <c r="E337">
+        <v>50</v>
+      </c>
+      <c r="F337" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G337">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <f>A337</f>
+        <v>44384</v>
+      </c>
+      <c r="B338">
+        <v>15</v>
+      </c>
+      <c r="C338">
+        <v>25</v>
+      </c>
+      <c r="D338">
+        <v>18</v>
+      </c>
+      <c r="E338">
+        <v>20</v>
+      </c>
+      <c r="F338" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G338">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <f>A338</f>
+        <v>44384</v>
+      </c>
+      <c r="B339">
+        <v>15</v>
+      </c>
+      <c r="C339">
+        <v>25</v>
+      </c>
+      <c r="D339">
+        <v>18</v>
+      </c>
+      <c r="E339">
+        <v>20</v>
+      </c>
+      <c r="F339" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G339">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <f>A339</f>
+        <v>44384</v>
+      </c>
+      <c r="B340">
+        <v>15</v>
+      </c>
+      <c r="C340">
+        <v>25</v>
+      </c>
+      <c r="D340">
+        <v>18</v>
+      </c>
+      <c r="E340">
+        <v>20</v>
+      </c>
+      <c r="F340" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G340">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <f>A340</f>
+        <v>44384</v>
+      </c>
+      <c r="B341">
+        <v>17</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>19</v>
+      </c>
+      <c r="E341">
+        <v>55</v>
+      </c>
+      <c r="F341" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G341">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <f>A341</f>
+        <v>44384</v>
+      </c>
+      <c r="B342">
+        <v>17</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>19</v>
+      </c>
+      <c r="E342">
+        <v>55</v>
+      </c>
+      <c r="F342" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G342">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
+        <f>A342</f>
+        <v>44384</v>
+      </c>
+      <c r="B343">
+        <v>17</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>19</v>
+      </c>
+      <c r="E343">
+        <v>55</v>
+      </c>
+      <c r="F343" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G343">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <f>A343</f>
+        <v>44384</v>
+      </c>
+      <c r="B344">
+        <v>17</v>
+      </c>
+      <c r="C344">
+        <v>30</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G344">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <f>A344</f>
+        <v>44384</v>
+      </c>
+      <c r="B345">
+        <v>17</v>
+      </c>
+      <c r="C345">
+        <v>30</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G345">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <f>A345</f>
+        <v>44384</v>
+      </c>
+      <c r="B346">
+        <v>17</v>
+      </c>
+      <c r="C346">
+        <v>30</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G346">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <f>A346</f>
+        <v>44384</v>
+      </c>
+      <c r="B347">
+        <v>20</v>
+      </c>
+      <c r="C347">
+        <v>55</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+      <c r="E347">
+        <v>15</v>
+      </c>
+      <c r="F347" s="4">
+        <f>F346</f>
+        <v>84.1</v>
+      </c>
+      <c r="G347">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <f>A347+1</f>
+        <v>44385</v>
+      </c>
+      <c r="B348">
+        <v>7</v>
+      </c>
+      <c r="C348">
+        <v>5</v>
+      </c>
+      <c r="D348">
+        <v>12</v>
+      </c>
+      <c r="E348">
+        <v>25</v>
+      </c>
+      <c r="F348" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G348">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <f>A348</f>
+        <v>44385</v>
+      </c>
+      <c r="B349">
+        <v>7</v>
+      </c>
+      <c r="C349">
+        <v>5</v>
+      </c>
+      <c r="D349">
+        <v>12</v>
+      </c>
+      <c r="E349">
+        <v>25</v>
+      </c>
+      <c r="F349" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G349">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <f>A349</f>
+        <v>44385</v>
+      </c>
+      <c r="B350">
+        <v>7</v>
+      </c>
+      <c r="C350">
+        <v>5</v>
+      </c>
+      <c r="D350">
+        <v>12</v>
+      </c>
+      <c r="E350">
+        <v>25</v>
+      </c>
+      <c r="F350" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G350">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <f>A350</f>
+        <v>44385</v>
+      </c>
+      <c r="B351">
+        <v>9</v>
+      </c>
+      <c r="C351">
+        <v>10</v>
+      </c>
+      <c r="D351">
+        <v>14</v>
+      </c>
+      <c r="E351">
+        <v>30</v>
+      </c>
+      <c r="F351" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G351">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <f>A351</f>
+        <v>44385</v>
+      </c>
+      <c r="B352">
+        <v>11</v>
+      </c>
+      <c r="C352">
+        <v>35</v>
+      </c>
+      <c r="D352">
+        <v>16</v>
+      </c>
+      <c r="E352">
+        <v>55</v>
+      </c>
+      <c r="F352" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G352">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <f>A352</f>
+        <v>44385</v>
+      </c>
+      <c r="B353">
+        <v>11</v>
+      </c>
+      <c r="C353">
+        <v>35</v>
+      </c>
+      <c r="D353">
+        <v>16</v>
+      </c>
+      <c r="E353">
+        <v>55</v>
+      </c>
+      <c r="F353" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G353">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <f>A353</f>
+        <v>44385</v>
+      </c>
+      <c r="B354">
+        <v>11</v>
+      </c>
+      <c r="C354">
+        <v>35</v>
+      </c>
+      <c r="D354">
+        <v>16</v>
+      </c>
+      <c r="E354">
+        <v>55</v>
+      </c>
+      <c r="F354" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G354">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <f>A354</f>
+        <v>44385</v>
+      </c>
+      <c r="B355">
+        <v>12</v>
+      </c>
+      <c r="C355">
+        <v>40</v>
+      </c>
+      <c r="D355">
+        <v>18</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G355">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <f>A355</f>
+        <v>44385</v>
+      </c>
+      <c r="B356">
+        <v>12</v>
+      </c>
+      <c r="C356">
+        <v>40</v>
+      </c>
+      <c r="D356">
+        <v>18</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G356">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <f>A356</f>
+        <v>44385</v>
+      </c>
+      <c r="B357">
+        <v>13</v>
+      </c>
+      <c r="C357">
+        <v>45</v>
+      </c>
+      <c r="D357">
+        <v>19</v>
+      </c>
+      <c r="E357">
+        <v>5</v>
+      </c>
+      <c r="F357" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G357">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <f>A357</f>
+        <v>44385</v>
+      </c>
+      <c r="B358">
+        <v>13</v>
+      </c>
+      <c r="C358">
+        <v>45</v>
+      </c>
+      <c r="D358">
+        <v>19</v>
+      </c>
+      <c r="E358">
+        <v>5</v>
+      </c>
+      <c r="F358" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G358">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <f>A358</f>
+        <v>44385</v>
+      </c>
+      <c r="B359">
+        <v>13</v>
+      </c>
+      <c r="C359">
+        <v>45</v>
+      </c>
+      <c r="D359">
+        <v>19</v>
+      </c>
+      <c r="E359">
+        <v>5</v>
+      </c>
+      <c r="F359" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G359">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <f>A359</f>
+        <v>44385</v>
+      </c>
+      <c r="B360">
+        <v>14</v>
+      </c>
+      <c r="C360">
+        <v>15</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G360">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <f>A360</f>
+        <v>44385</v>
+      </c>
+      <c r="B361">
+        <v>14</v>
+      </c>
+      <c r="C361">
+        <v>15</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G361">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <f>A361</f>
+        <v>44385</v>
+      </c>
+      <c r="B362">
+        <v>14</v>
+      </c>
+      <c r="C362">
+        <v>15</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G362">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <f>A362</f>
+        <v>44385</v>
+      </c>
+      <c r="B363">
+        <v>17</v>
+      </c>
+      <c r="C363">
+        <v>55</v>
+      </c>
+      <c r="D363">
+        <v>3</v>
+      </c>
+      <c r="E363">
+        <v>40</v>
+      </c>
+      <c r="F363" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G363">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <f>A363</f>
+        <v>44385</v>
+      </c>
+      <c r="B364">
+        <v>17</v>
+      </c>
+      <c r="C364">
+        <v>55</v>
+      </c>
+      <c r="D364">
+        <v>3</v>
+      </c>
+      <c r="E364">
+        <v>40</v>
+      </c>
+      <c r="F364" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G364">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <f>A364</f>
+        <v>44385</v>
+      </c>
+      <c r="B365">
+        <v>17</v>
+      </c>
+      <c r="C365">
+        <v>55</v>
+      </c>
+      <c r="D365">
+        <v>3</v>
+      </c>
+      <c r="E365">
+        <v>40</v>
+      </c>
+      <c r="F365" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G365">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <f>A365</f>
+        <v>44385</v>
+      </c>
+      <c r="B366">
+        <v>19</v>
+      </c>
+      <c r="C366">
+        <v>55</v>
+      </c>
+      <c r="D366">
+        <v>5</v>
+      </c>
+      <c r="E366">
+        <v>40</v>
+      </c>
+      <c r="F366" s="4">
+        <v>84</v>
+      </c>
+      <c r="G366">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <f>A366</f>
+        <v>44385</v>
+      </c>
+      <c r="B367">
+        <v>19</v>
+      </c>
+      <c r="C367">
+        <v>55</v>
+      </c>
+      <c r="D367">
+        <v>5</v>
+      </c>
+      <c r="E367">
+        <v>40</v>
+      </c>
+      <c r="F367" s="4">
+        <v>84</v>
+      </c>
+      <c r="G367">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <f>A367+1</f>
+        <v>44386</v>
+      </c>
+      <c r="B368">
+        <v>7</v>
+      </c>
+      <c r="C368">
+        <v>30</v>
+      </c>
+      <c r="D368">
+        <v>17</v>
+      </c>
+      <c r="E368">
+        <v>15</v>
+      </c>
+      <c r="F368" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G368">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <f>A368</f>
+        <v>44386</v>
+      </c>
+      <c r="B369">
+        <v>7</v>
+      </c>
+      <c r="C369">
+        <v>30</v>
+      </c>
+      <c r="D369">
+        <v>17</v>
+      </c>
+      <c r="E369">
+        <v>15</v>
+      </c>
+      <c r="F369" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G369">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <f>A369</f>
+        <v>44386</v>
+      </c>
+      <c r="B370">
+        <v>7</v>
+      </c>
+      <c r="C370">
+        <v>30</v>
+      </c>
+      <c r="D370">
+        <v>17</v>
+      </c>
+      <c r="E370">
+        <v>15</v>
+      </c>
+      <c r="F370" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G370">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <f>A370</f>
+        <v>44386</v>
+      </c>
+      <c r="B371">
+        <v>11</v>
+      </c>
+      <c r="C371">
+        <v>30</v>
+      </c>
+      <c r="D371">
+        <v>21</v>
+      </c>
+      <c r="E371">
+        <v>15</v>
+      </c>
+      <c r="F371" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G371">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <f>A371</f>
+        <v>44386</v>
+      </c>
+      <c r="B372">
+        <v>11</v>
+      </c>
+      <c r="C372">
+        <v>30</v>
+      </c>
+      <c r="D372">
+        <v>21</v>
+      </c>
+      <c r="E372">
+        <v>15</v>
+      </c>
+      <c r="F372" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G372">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <f>A372</f>
+        <v>44386</v>
+      </c>
+      <c r="B373">
+        <v>11</v>
+      </c>
+      <c r="C373">
+        <v>30</v>
+      </c>
+      <c r="D373">
+        <v>21</v>
+      </c>
+      <c r="E373">
+        <v>15</v>
+      </c>
+      <c r="F373" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G373">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <f>A373</f>
+        <v>44386</v>
+      </c>
+      <c r="B374">
+        <v>12</v>
+      </c>
+      <c r="C374">
+        <v>35</v>
+      </c>
+      <c r="D374">
+        <v>22</v>
+      </c>
+      <c r="E374">
+        <v>20</v>
+      </c>
+      <c r="F374" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G374">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <f>A374</f>
+        <v>44386</v>
+      </c>
+      <c r="B375">
+        <v>12</v>
+      </c>
+      <c r="C375">
+        <v>35</v>
+      </c>
+      <c r="D375">
+        <v>22</v>
+      </c>
+      <c r="E375">
+        <v>20</v>
+      </c>
+      <c r="F375" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G375">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <f>A375</f>
+        <v>44386</v>
+      </c>
+      <c r="B376">
+        <v>12</v>
+      </c>
+      <c r="C376">
+        <v>35</v>
+      </c>
+      <c r="D376">
+        <v>22</v>
+      </c>
+      <c r="E376">
+        <v>20</v>
+      </c>
+      <c r="F376" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G376">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <f>A376</f>
+        <v>44386</v>
+      </c>
+      <c r="B377">
+        <v>13</v>
+      </c>
+      <c r="C377">
+        <v>15</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G377">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <f>A377</f>
+        <v>44386</v>
+      </c>
+      <c r="B378">
+        <v>13</v>
+      </c>
+      <c r="C378">
+        <v>15</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G378">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <f>A378</f>
+        <v>44386</v>
+      </c>
+      <c r="B379">
+        <v>13</v>
+      </c>
+      <c r="C379">
+        <v>15</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G379">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <f>A379</f>
+        <v>44386</v>
+      </c>
+      <c r="B380">
+        <v>15</v>
+      </c>
+      <c r="C380">
+        <v>5</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>50</v>
+      </c>
+      <c r="F380" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G380">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <f>A380</f>
+        <v>44386</v>
+      </c>
+      <c r="B381">
+        <v>15</v>
+      </c>
+      <c r="C381">
+        <v>5</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>50</v>
+      </c>
+      <c r="F381" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G381">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <f>A381</f>
+        <v>44386</v>
+      </c>
+      <c r="B382">
+        <v>15</v>
+      </c>
+      <c r="C382">
+        <v>5</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>50</v>
+      </c>
+      <c r="F382" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G382">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7617,6 +9490,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f60a4376a33fe09dfddee3b7d8d4a7bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="906a0e747f0336b2cce67eb72cba36c9" ns2:_="">
     <xsd:import namespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
@@ -7780,22 +9668,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83972029-C29B-49D4-B62D-C7EE56B95B69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7811,21 +9701,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/spliney/martysweight.xlsx
+++ b/spliney/martysweight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19244\Documents\V2 Docs\R Git\Martysweight\spliney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740B466B-7625-4D4A-A42D-FB1BDAE72431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E000375-D153-46AB-B325-10E3A0EE10DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
+    <workbookView xWindow="9588" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,11 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A382" sqref="A382:G382"/>
+      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A414" sqref="A414:G414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9478,6 +9478,774 @@
       </c>
       <c r="G382">
         <v>69</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <f>A382+1</f>
+        <v>44387</v>
+      </c>
+      <c r="B383">
+        <v>8</v>
+      </c>
+      <c r="C383">
+        <v>30</v>
+      </c>
+      <c r="D383">
+        <v>8</v>
+      </c>
+      <c r="E383">
+        <v>30</v>
+      </c>
+      <c r="F383" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G383">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <f>A383+1</f>
+        <v>44388</v>
+      </c>
+      <c r="B384">
+        <v>8</v>
+      </c>
+      <c r="C384">
+        <v>30</v>
+      </c>
+      <c r="D384">
+        <v>12</v>
+      </c>
+      <c r="E384">
+        <v>5</v>
+      </c>
+      <c r="F384" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G384">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <f>A384</f>
+        <v>44388</v>
+      </c>
+      <c r="B385">
+        <v>8</v>
+      </c>
+      <c r="C385">
+        <v>30</v>
+      </c>
+      <c r="D385">
+        <v>12</v>
+      </c>
+      <c r="E385">
+        <v>5</v>
+      </c>
+      <c r="F385" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G385">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <f>A385</f>
+        <v>44388</v>
+      </c>
+      <c r="B386">
+        <v>8</v>
+      </c>
+      <c r="C386">
+        <v>30</v>
+      </c>
+      <c r="D386">
+        <v>12</v>
+      </c>
+      <c r="E386">
+        <v>5</v>
+      </c>
+      <c r="F386" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G386">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <f>A386</f>
+        <v>44388</v>
+      </c>
+      <c r="B387">
+        <v>13</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>16</v>
+      </c>
+      <c r="E387">
+        <v>35</v>
+      </c>
+      <c r="F387" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G387">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <f>A387</f>
+        <v>44388</v>
+      </c>
+      <c r="B388">
+        <v>13</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>16</v>
+      </c>
+      <c r="E388">
+        <v>35</v>
+      </c>
+      <c r="F388" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G388">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <f>A388</f>
+        <v>44388</v>
+      </c>
+      <c r="B389">
+        <v>19</v>
+      </c>
+      <c r="C389">
+        <v>5</v>
+      </c>
+      <c r="D389">
+        <v>5</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G389">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A390" s="1">
+        <f>A389</f>
+        <v>44388</v>
+      </c>
+      <c r="B390">
+        <v>19</v>
+      </c>
+      <c r="C390">
+        <v>5</v>
+      </c>
+      <c r="D390">
+        <v>5</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="G390">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
+        <f>A390</f>
+        <v>44388</v>
+      </c>
+      <c r="B391">
+        <v>19</v>
+      </c>
+      <c r="C391">
+        <v>5</v>
+      </c>
+      <c r="D391">
+        <v>5</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="G391">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A392" s="1">
+        <f>A391+1</f>
+        <v>44389</v>
+      </c>
+      <c r="B392">
+        <v>9</v>
+      </c>
+      <c r="C392">
+        <v>5</v>
+      </c>
+      <c r="D392">
+        <v>14</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G392">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A393" s="1">
+        <f>A392</f>
+        <v>44389</v>
+      </c>
+      <c r="B393">
+        <v>9</v>
+      </c>
+      <c r="C393">
+        <v>5</v>
+      </c>
+      <c r="D393">
+        <v>14</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G393">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
+        <f>A393</f>
+        <v>44389</v>
+      </c>
+      <c r="B394">
+        <v>9</v>
+      </c>
+      <c r="C394">
+        <v>5</v>
+      </c>
+      <c r="D394">
+        <v>14</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G394">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
+        <f>A394</f>
+        <v>44389</v>
+      </c>
+      <c r="B395">
+        <v>11</v>
+      </c>
+      <c r="C395">
+        <v>55</v>
+      </c>
+      <c r="D395">
+        <v>16</v>
+      </c>
+      <c r="E395">
+        <v>50</v>
+      </c>
+      <c r="F395" s="4">
+        <v>85</v>
+      </c>
+      <c r="G395">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <f>A395</f>
+        <v>44389</v>
+      </c>
+      <c r="B396">
+        <v>11</v>
+      </c>
+      <c r="C396">
+        <v>55</v>
+      </c>
+      <c r="D396">
+        <v>16</v>
+      </c>
+      <c r="E396">
+        <v>50</v>
+      </c>
+      <c r="F396" s="4">
+        <v>85</v>
+      </c>
+      <c r="G396">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
+        <f>A396</f>
+        <v>44389</v>
+      </c>
+      <c r="B397">
+        <v>14</v>
+      </c>
+      <c r="C397">
+        <v>40</v>
+      </c>
+      <c r="D397">
+        <v>19</v>
+      </c>
+      <c r="E397">
+        <v>35</v>
+      </c>
+      <c r="F397" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G397">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
+        <f>A397</f>
+        <v>44389</v>
+      </c>
+      <c r="B398">
+        <v>18</v>
+      </c>
+      <c r="C398">
+        <v>45</v>
+      </c>
+      <c r="D398">
+        <v>23</v>
+      </c>
+      <c r="E398">
+        <v>40</v>
+      </c>
+      <c r="F398" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G398">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
+        <f>A398</f>
+        <v>44389</v>
+      </c>
+      <c r="B399">
+        <v>18</v>
+      </c>
+      <c r="C399">
+        <v>45</v>
+      </c>
+      <c r="D399">
+        <v>23</v>
+      </c>
+      <c r="E399">
+        <v>40</v>
+      </c>
+      <c r="F399" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G399">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A400" s="1">
+        <f>A399</f>
+        <v>44389</v>
+      </c>
+      <c r="B400">
+        <v>18</v>
+      </c>
+      <c r="C400">
+        <v>45</v>
+      </c>
+      <c r="D400">
+        <v>23</v>
+      </c>
+      <c r="E400">
+        <v>40</v>
+      </c>
+      <c r="F400" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G400">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A401" s="1">
+        <f>A400</f>
+        <v>44389</v>
+      </c>
+      <c r="B401">
+        <v>21</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>24</v>
+      </c>
+      <c r="E401">
+        <v>55</v>
+      </c>
+      <c r="F401" s="4">
+        <v>84</v>
+      </c>
+      <c r="G401">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A402" s="1">
+        <f>A401</f>
+        <v>44389</v>
+      </c>
+      <c r="B402">
+        <v>21</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>24</v>
+      </c>
+      <c r="E402">
+        <v>55</v>
+      </c>
+      <c r="F402" s="4">
+        <v>84</v>
+      </c>
+      <c r="G402">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A403" s="1">
+        <f>A402+1</f>
+        <v>44390</v>
+      </c>
+      <c r="B403">
+        <v>7</v>
+      </c>
+      <c r="C403">
+        <v>5</v>
+      </c>
+      <c r="D403">
+        <v>35</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G403">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A404" s="1">
+        <f>A403</f>
+        <v>44390</v>
+      </c>
+      <c r="B404">
+        <v>7</v>
+      </c>
+      <c r="C404">
+        <v>5</v>
+      </c>
+      <c r="D404">
+        <v>35</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G404">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A405" s="1">
+        <f>A404</f>
+        <v>44390</v>
+      </c>
+      <c r="B405">
+        <v>7</v>
+      </c>
+      <c r="C405">
+        <v>5</v>
+      </c>
+      <c r="D405">
+        <v>35</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G405">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A406" s="1">
+        <f>A405</f>
+        <v>44390</v>
+      </c>
+      <c r="B406">
+        <v>9</v>
+      </c>
+      <c r="C406">
+        <v>5</v>
+      </c>
+      <c r="D406">
+        <v>37</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G406">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A407" s="1">
+        <f>A406</f>
+        <v>44390</v>
+      </c>
+      <c r="B407">
+        <v>9</v>
+      </c>
+      <c r="C407">
+        <v>5</v>
+      </c>
+      <c r="D407">
+        <v>37</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G407">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A408" s="1">
+        <f>A407</f>
+        <v>44390</v>
+      </c>
+      <c r="B408">
+        <v>9</v>
+      </c>
+      <c r="C408">
+        <v>5</v>
+      </c>
+      <c r="D408">
+        <v>37</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G408">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A409" s="1">
+        <f>A408</f>
+        <v>44390</v>
+      </c>
+      <c r="B409">
+        <v>11</v>
+      </c>
+      <c r="C409">
+        <v>55</v>
+      </c>
+      <c r="D409">
+        <v>39</v>
+      </c>
+      <c r="E409">
+        <v>50</v>
+      </c>
+      <c r="F409" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G409">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A410" s="1">
+        <f>A409</f>
+        <v>44390</v>
+      </c>
+      <c r="B410">
+        <v>11</v>
+      </c>
+      <c r="C410">
+        <v>55</v>
+      </c>
+      <c r="D410">
+        <v>39</v>
+      </c>
+      <c r="E410">
+        <v>50</v>
+      </c>
+      <c r="F410" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G410">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A411" s="1">
+        <f>A410</f>
+        <v>44390</v>
+      </c>
+      <c r="B411">
+        <v>11</v>
+      </c>
+      <c r="C411">
+        <v>55</v>
+      </c>
+      <c r="D411">
+        <v>39</v>
+      </c>
+      <c r="E411">
+        <v>50</v>
+      </c>
+      <c r="F411" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G411">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A412" s="1">
+        <f>A411</f>
+        <v>44390</v>
+      </c>
+      <c r="B412">
+        <v>13</v>
+      </c>
+      <c r="C412">
+        <v>15</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G412">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A413" s="1">
+        <f>A412</f>
+        <v>44390</v>
+      </c>
+      <c r="B413">
+        <v>13</v>
+      </c>
+      <c r="C413">
+        <v>15</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G413">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A414" s="1">
+        <f>A413</f>
+        <v>44390</v>
+      </c>
+      <c r="B414">
+        <v>13</v>
+      </c>
+      <c r="C414">
+        <v>15</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G414">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/spliney/martysweight.xlsx
+++ b/spliney/martysweight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19244\Documents\V2 Docs\R Git\Martysweight\spliney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E000375-D153-46AB-B325-10E3A0EE10DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4955FA-7318-4692-ABA2-059B959E01A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9588" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
@@ -416,11 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G414"/>
+  <dimension ref="A1:G575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A414" sqref="A414:G414"/>
+      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A576" sqref="A576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
-        <f>A328</f>
+        <f t="shared" ref="A329:A347" si="15">A328</f>
         <v>44384</v>
       </c>
       <c r="B329">
@@ -8209,7 +8209,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
-        <f>A329</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B330">
@@ -8233,7 +8233,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
-        <f>A330</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B331">
@@ -8257,7 +8257,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
-        <f>A331</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B332">
@@ -8281,7 +8281,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
-        <f>A332</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B333">
@@ -8305,7 +8305,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
-        <f>A333</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B334">
@@ -8329,7 +8329,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
-        <f>A334</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B335">
@@ -8353,7 +8353,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
-        <f>A335</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B336">
@@ -8377,7 +8377,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
-        <f>A336</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B337">
@@ -8401,7 +8401,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
-        <f>A337</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B338">
@@ -8425,7 +8425,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
-        <f>A338</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B339">
@@ -8449,7 +8449,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
-        <f>A339</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B340">
@@ -8473,7 +8473,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
-        <f>A340</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B341">
@@ -8497,7 +8497,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
-        <f>A341</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B342">
@@ -8521,7 +8521,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
-        <f>A342</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B343">
@@ -8545,7 +8545,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
-        <f>A343</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B344">
@@ -8569,7 +8569,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
-        <f>A344</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B345">
@@ -8593,7 +8593,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
-        <f>A345</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B346">
@@ -8617,7 +8617,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
-        <f>A346</f>
+        <f t="shared" si="15"/>
         <v>44384</v>
       </c>
       <c r="B347">
@@ -8666,7 +8666,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
-        <f>A348</f>
+        <f t="shared" ref="A349:A367" si="16">A348</f>
         <v>44385</v>
       </c>
       <c r="B349">
@@ -8690,7 +8690,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
-        <f>A349</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B350">
@@ -8714,7 +8714,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
-        <f>A350</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B351">
@@ -8738,7 +8738,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
-        <f>A351</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B352">
@@ -8762,7 +8762,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
-        <f>A352</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B353">
@@ -8786,7 +8786,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
-        <f>A353</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B354">
@@ -8810,7 +8810,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
-        <f>A354</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B355">
@@ -8834,7 +8834,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
-        <f>A355</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B356">
@@ -8858,7 +8858,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
-        <f>A356</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B357">
@@ -8882,7 +8882,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
-        <f>A357</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B358">
@@ -8906,7 +8906,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
-        <f>A358</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B359">
@@ -8930,7 +8930,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
-        <f>A359</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B360">
@@ -8954,7 +8954,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
-        <f>A360</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B361">
@@ -8978,7 +8978,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
-        <f>A361</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B362">
@@ -9002,7 +9002,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
-        <f>A362</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B363">
@@ -9026,7 +9026,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
-        <f>A363</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B364">
@@ -9050,7 +9050,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
-        <f>A364</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B365">
@@ -9074,7 +9074,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
-        <f>A365</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B366">
@@ -9098,7 +9098,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
-        <f>A366</f>
+        <f t="shared" si="16"/>
         <v>44385</v>
       </c>
       <c r="B367">
@@ -9146,7 +9146,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
-        <f>A368</f>
+        <f t="shared" ref="A369:A382" si="17">A368</f>
         <v>44386</v>
       </c>
       <c r="B369">
@@ -9170,7 +9170,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
-        <f>A369</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B370">
@@ -9194,7 +9194,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
-        <f>A370</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B371">
@@ -9218,7 +9218,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
-        <f>A371</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B372">
@@ -9242,7 +9242,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
-        <f>A372</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B373">
@@ -9266,7 +9266,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
-        <f>A373</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B374">
@@ -9290,7 +9290,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
-        <f>A374</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B375">
@@ -9314,7 +9314,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
-        <f>A375</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B376">
@@ -9338,7 +9338,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
-        <f>A376</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B377">
@@ -9362,7 +9362,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
-        <f>A377</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B378">
@@ -9386,7 +9386,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
-        <f>A378</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B379">
@@ -9410,7 +9410,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
-        <f>A379</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B380">
@@ -9434,7 +9434,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
-        <f>A380</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B381">
@@ -9458,7 +9458,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
-        <f>A381</f>
+        <f t="shared" si="17"/>
         <v>44386</v>
       </c>
       <c r="B382">
@@ -9530,7 +9530,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
-        <f>A384</f>
+        <f t="shared" ref="A385:A391" si="18">A384</f>
         <v>44388</v>
       </c>
       <c r="B385">
@@ -9554,7 +9554,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
-        <f>A385</f>
+        <f t="shared" si="18"/>
         <v>44388</v>
       </c>
       <c r="B386">
@@ -9578,7 +9578,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
-        <f>A386</f>
+        <f t="shared" si="18"/>
         <v>44388</v>
       </c>
       <c r="B387">
@@ -9602,7 +9602,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
-        <f>A387</f>
+        <f t="shared" si="18"/>
         <v>44388</v>
       </c>
       <c r="B388">
@@ -9626,7 +9626,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
-        <f>A388</f>
+        <f t="shared" si="18"/>
         <v>44388</v>
       </c>
       <c r="B389">
@@ -9650,7 +9650,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
-        <f>A389</f>
+        <f t="shared" si="18"/>
         <v>44388</v>
       </c>
       <c r="B390">
@@ -9674,7 +9674,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
-        <f>A390</f>
+        <f t="shared" si="18"/>
         <v>44388</v>
       </c>
       <c r="B391">
@@ -9722,7 +9722,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
-        <f>A392</f>
+        <f t="shared" ref="A393:A402" si="19">A392</f>
         <v>44389</v>
       </c>
       <c r="B393">
@@ -9746,7 +9746,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
-        <f>A393</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B394">
@@ -9770,7 +9770,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
-        <f>A394</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B395">
@@ -9794,7 +9794,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
-        <f>A395</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B396">
@@ -9818,7 +9818,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
-        <f>A396</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B397">
@@ -9842,7 +9842,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
-        <f>A397</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B398">
@@ -9866,7 +9866,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
-        <f>A398</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B399">
@@ -9890,7 +9890,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
-        <f>A399</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B400">
@@ -9914,7 +9914,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
-        <f>A400</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B401">
@@ -9938,7 +9938,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
-        <f>A401</f>
+        <f t="shared" si="19"/>
         <v>44389</v>
       </c>
       <c r="B402">
@@ -9986,7 +9986,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
-        <f>A403</f>
+        <f t="shared" ref="A404:A418" si="20">A403</f>
         <v>44390</v>
       </c>
       <c r="B404">
@@ -10010,7 +10010,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
-        <f>A404</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B405">
@@ -10034,7 +10034,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
-        <f>A405</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B406">
@@ -10058,7 +10058,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
-        <f>A406</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B407">
@@ -10082,7 +10082,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
-        <f>A407</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B408">
@@ -10106,7 +10106,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
-        <f>A408</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B409">
@@ -10130,7 +10130,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
-        <f>A409</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B410">
@@ -10154,7 +10154,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
-        <f>A410</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B411">
@@ -10178,7 +10178,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
-        <f>A411</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B412">
@@ -10202,7 +10202,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
-        <f>A412</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B413">
@@ -10226,7 +10226,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
-        <f>A413</f>
+        <f t="shared" si="20"/>
         <v>44390</v>
       </c>
       <c r="B414">
@@ -10246,6 +10246,3870 @@
       </c>
       <c r="G414">
         <v>74</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A415" s="1">
+        <f t="shared" si="20"/>
+        <v>44390</v>
+      </c>
+      <c r="B415">
+        <v>19</v>
+      </c>
+      <c r="C415">
+        <v>30</v>
+      </c>
+      <c r="D415">
+        <v>6</v>
+      </c>
+      <c r="E415">
+        <v>15</v>
+      </c>
+      <c r="F415" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G415">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A416" s="1">
+        <f t="shared" si="20"/>
+        <v>44390</v>
+      </c>
+      <c r="B416">
+        <v>19</v>
+      </c>
+      <c r="C416">
+        <v>30</v>
+      </c>
+      <c r="D416">
+        <v>6</v>
+      </c>
+      <c r="E416">
+        <v>15</v>
+      </c>
+      <c r="F416" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G416">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A417" s="1">
+        <f t="shared" si="20"/>
+        <v>44390</v>
+      </c>
+      <c r="B417">
+        <v>19</v>
+      </c>
+      <c r="C417">
+        <v>30</v>
+      </c>
+      <c r="D417">
+        <v>6</v>
+      </c>
+      <c r="E417">
+        <v>15</v>
+      </c>
+      <c r="F417" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G417">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A418" s="1">
+        <f t="shared" si="20"/>
+        <v>44390</v>
+      </c>
+      <c r="B418">
+        <v>21</v>
+      </c>
+      <c r="C418">
+        <v>20</v>
+      </c>
+      <c r="D418">
+        <v>8</v>
+      </c>
+      <c r="E418">
+        <v>5</v>
+      </c>
+      <c r="F418" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G418">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A419" s="1">
+        <f>A418+1</f>
+        <v>44391</v>
+      </c>
+      <c r="B419">
+        <v>6</v>
+      </c>
+      <c r="C419">
+        <v>5</v>
+      </c>
+      <c r="D419">
+        <v>16</v>
+      </c>
+      <c r="E419">
+        <v>50</v>
+      </c>
+      <c r="F419" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G419">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A420" s="1">
+        <f t="shared" ref="A420:A442" si="21">A419</f>
+        <v>44391</v>
+      </c>
+      <c r="B420">
+        <v>6</v>
+      </c>
+      <c r="C420">
+        <v>5</v>
+      </c>
+      <c r="D420">
+        <v>16</v>
+      </c>
+      <c r="E420">
+        <v>50</v>
+      </c>
+      <c r="F420" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G420">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A421" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B421">
+        <v>6</v>
+      </c>
+      <c r="C421">
+        <v>5</v>
+      </c>
+      <c r="D421">
+        <v>16</v>
+      </c>
+      <c r="E421">
+        <v>50</v>
+      </c>
+      <c r="F421" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G421">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A422" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B422">
+        <v>9</v>
+      </c>
+      <c r="C422">
+        <v>10</v>
+      </c>
+      <c r="D422">
+        <v>19</v>
+      </c>
+      <c r="E422">
+        <v>55</v>
+      </c>
+      <c r="F422" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G422">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A423" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B423">
+        <v>9</v>
+      </c>
+      <c r="C423">
+        <v>10</v>
+      </c>
+      <c r="D423">
+        <v>19</v>
+      </c>
+      <c r="E423">
+        <v>55</v>
+      </c>
+      <c r="F423" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G423">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A424" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B424">
+        <v>9</v>
+      </c>
+      <c r="C424">
+        <v>10</v>
+      </c>
+      <c r="D424">
+        <v>19</v>
+      </c>
+      <c r="E424">
+        <v>55</v>
+      </c>
+      <c r="F424" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G424">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A425" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B425">
+        <v>12</v>
+      </c>
+      <c r="C425">
+        <v>10</v>
+      </c>
+      <c r="D425">
+        <v>22</v>
+      </c>
+      <c r="E425">
+        <v>55</v>
+      </c>
+      <c r="F425" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G425">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A426" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B426">
+        <v>12</v>
+      </c>
+      <c r="C426">
+        <v>10</v>
+      </c>
+      <c r="D426">
+        <v>22</v>
+      </c>
+      <c r="E426">
+        <v>55</v>
+      </c>
+      <c r="F426" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G426">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A427" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B427">
+        <v>12</v>
+      </c>
+      <c r="C427">
+        <v>10</v>
+      </c>
+      <c r="D427">
+        <v>22</v>
+      </c>
+      <c r="E427">
+        <v>55</v>
+      </c>
+      <c r="F427" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G427">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A428" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B428">
+        <v>13</v>
+      </c>
+      <c r="C428">
+        <v>30</v>
+      </c>
+      <c r="D428">
+        <v>24</v>
+      </c>
+      <c r="E428">
+        <v>15</v>
+      </c>
+      <c r="F428" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G428">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A429" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B429">
+        <v>13</v>
+      </c>
+      <c r="C429">
+        <v>30</v>
+      </c>
+      <c r="D429">
+        <v>24</v>
+      </c>
+      <c r="E429">
+        <v>15</v>
+      </c>
+      <c r="F429" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G429">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A430" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B430">
+        <v>13</v>
+      </c>
+      <c r="C430">
+        <v>30</v>
+      </c>
+      <c r="D430">
+        <v>24</v>
+      </c>
+      <c r="E430">
+        <v>15</v>
+      </c>
+      <c r="F430" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G430">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A431" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B431">
+        <v>14</v>
+      </c>
+      <c r="C431">
+        <v>15</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G431">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A432" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B432">
+        <v>14</v>
+      </c>
+      <c r="C432">
+        <v>15</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G432">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A433" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B433">
+        <v>14</v>
+      </c>
+      <c r="C433">
+        <v>15</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G433">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A434" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B434">
+        <v>16</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>45</v>
+      </c>
+      <c r="F434" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G434">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A435" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B435">
+        <v>16</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>45</v>
+      </c>
+      <c r="F435" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G435">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A436" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B436">
+        <v>16</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>45</v>
+      </c>
+      <c r="F436" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G436">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A437" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B437">
+        <v>19</v>
+      </c>
+      <c r="C437">
+        <v>20</v>
+      </c>
+      <c r="D437">
+        <v>5</v>
+      </c>
+      <c r="E437">
+        <v>5</v>
+      </c>
+      <c r="F437" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G437">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A438" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B438">
+        <v>19</v>
+      </c>
+      <c r="C438">
+        <v>20</v>
+      </c>
+      <c r="D438">
+        <v>5</v>
+      </c>
+      <c r="E438">
+        <v>5</v>
+      </c>
+      <c r="F438" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G438">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A439" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B439">
+        <v>19</v>
+      </c>
+      <c r="C439">
+        <v>20</v>
+      </c>
+      <c r="D439">
+        <v>5</v>
+      </c>
+      <c r="E439">
+        <v>5</v>
+      </c>
+      <c r="F439" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G439">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A440" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B440">
+        <v>21</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>6</v>
+      </c>
+      <c r="E440">
+        <v>45</v>
+      </c>
+      <c r="F440" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G440">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A441" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B441">
+        <v>21</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>6</v>
+      </c>
+      <c r="E441">
+        <v>45</v>
+      </c>
+      <c r="F441" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G441">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A442" s="1">
+        <f t="shared" si="21"/>
+        <v>44391</v>
+      </c>
+      <c r="B442">
+        <v>21</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>6</v>
+      </c>
+      <c r="E442">
+        <v>45</v>
+      </c>
+      <c r="F442" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G442">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A443" s="1">
+        <f>A442+1</f>
+        <v>44392</v>
+      </c>
+      <c r="B443">
+        <v>7</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>16</v>
+      </c>
+      <c r="E443">
+        <v>45</v>
+      </c>
+      <c r="F443" s="4">
+        <v>82</v>
+      </c>
+      <c r="G443">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A444" s="1">
+        <f t="shared" ref="A444:A465" si="22">A443</f>
+        <v>44392</v>
+      </c>
+      <c r="B444">
+        <v>7</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>16</v>
+      </c>
+      <c r="E444">
+        <v>45</v>
+      </c>
+      <c r="F444" s="4">
+        <v>82</v>
+      </c>
+      <c r="G444">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A445" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B445">
+        <v>7</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>16</v>
+      </c>
+      <c r="E445">
+        <v>45</v>
+      </c>
+      <c r="F445" s="4">
+        <v>82</v>
+      </c>
+      <c r="G445">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A446" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B446">
+        <v>8</v>
+      </c>
+      <c r="C446">
+        <v>40</v>
+      </c>
+      <c r="D446">
+        <v>18</v>
+      </c>
+      <c r="E446">
+        <v>25</v>
+      </c>
+      <c r="F446" s="4">
+        <v>82</v>
+      </c>
+      <c r="G446">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A447" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B447">
+        <v>8</v>
+      </c>
+      <c r="C447">
+        <v>40</v>
+      </c>
+      <c r="D447">
+        <v>18</v>
+      </c>
+      <c r="E447">
+        <v>25</v>
+      </c>
+      <c r="F447" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="G447">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A448" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B448">
+        <v>8</v>
+      </c>
+      <c r="C448">
+        <v>40</v>
+      </c>
+      <c r="D448">
+        <v>18</v>
+      </c>
+      <c r="E448">
+        <v>25</v>
+      </c>
+      <c r="F448" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="G448">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A449" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B449">
+        <v>11</v>
+      </c>
+      <c r="C449">
+        <v>45</v>
+      </c>
+      <c r="D449">
+        <v>21</v>
+      </c>
+      <c r="E449">
+        <v>30</v>
+      </c>
+      <c r="F449" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G449">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A450" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B450">
+        <v>11</v>
+      </c>
+      <c r="C450">
+        <v>45</v>
+      </c>
+      <c r="D450">
+        <v>21</v>
+      </c>
+      <c r="E450">
+        <v>30</v>
+      </c>
+      <c r="F450" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G450">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A451" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B451">
+        <v>11</v>
+      </c>
+      <c r="C451">
+        <v>45</v>
+      </c>
+      <c r="D451">
+        <v>21</v>
+      </c>
+      <c r="E451">
+        <v>30</v>
+      </c>
+      <c r="F451" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="G451">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A452" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B452">
+        <v>13</v>
+      </c>
+      <c r="C452">
+        <v>45</v>
+      </c>
+      <c r="D452">
+        <v>23</v>
+      </c>
+      <c r="E452">
+        <v>30</v>
+      </c>
+      <c r="F452" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G452">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A453" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B453">
+        <v>13</v>
+      </c>
+      <c r="C453">
+        <v>45</v>
+      </c>
+      <c r="D453">
+        <v>23</v>
+      </c>
+      <c r="E453">
+        <v>30</v>
+      </c>
+      <c r="F453" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G453">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A454" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B454">
+        <v>13</v>
+      </c>
+      <c r="C454">
+        <v>45</v>
+      </c>
+      <c r="D454">
+        <v>23</v>
+      </c>
+      <c r="E454">
+        <v>30</v>
+      </c>
+      <c r="F454" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G454">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A455" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B455">
+        <v>15</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>24</v>
+      </c>
+      <c r="E455">
+        <v>45</v>
+      </c>
+      <c r="F455" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G455">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A456" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B456">
+        <v>15</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>24</v>
+      </c>
+      <c r="E456">
+        <v>45</v>
+      </c>
+      <c r="F456" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G456">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A457" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B457">
+        <v>15</v>
+      </c>
+      <c r="C457">
+        <v>45</v>
+      </c>
+      <c r="D457">
+        <v>25</v>
+      </c>
+      <c r="E457">
+        <v>30</v>
+      </c>
+      <c r="F457" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G457">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A458" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B458">
+        <v>15</v>
+      </c>
+      <c r="C458">
+        <v>45</v>
+      </c>
+      <c r="D458">
+        <v>25</v>
+      </c>
+      <c r="E458">
+        <v>30</v>
+      </c>
+      <c r="F458" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G458">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A459" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B459">
+        <v>15</v>
+      </c>
+      <c r="C459">
+        <v>45</v>
+      </c>
+      <c r="D459">
+        <v>25</v>
+      </c>
+      <c r="E459">
+        <v>30</v>
+      </c>
+      <c r="F459" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G459">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A460" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B460">
+        <v>16</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G460">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A461" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B461">
+        <v>16</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G461">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A462" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B462">
+        <v>16</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G462">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A463" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B463">
+        <v>20</v>
+      </c>
+      <c r="C463">
+        <v>55</v>
+      </c>
+      <c r="D463">
+        <v>4</v>
+      </c>
+      <c r="E463">
+        <v>55</v>
+      </c>
+      <c r="F463" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G463">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A464" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B464">
+        <v>20</v>
+      </c>
+      <c r="C464">
+        <v>55</v>
+      </c>
+      <c r="D464">
+        <v>4</v>
+      </c>
+      <c r="E464">
+        <v>55</v>
+      </c>
+      <c r="F464" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G464">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A465" s="1">
+        <f t="shared" si="22"/>
+        <v>44392</v>
+      </c>
+      <c r="B465">
+        <v>20</v>
+      </c>
+      <c r="C465">
+        <v>55</v>
+      </c>
+      <c r="D465">
+        <v>4</v>
+      </c>
+      <c r="E465">
+        <v>55</v>
+      </c>
+      <c r="F465" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G465">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A466" s="1">
+        <f>A465+1</f>
+        <v>44393</v>
+      </c>
+      <c r="B466">
+        <v>7</v>
+      </c>
+      <c r="C466">
+        <v>20</v>
+      </c>
+      <c r="D466">
+        <v>15</v>
+      </c>
+      <c r="E466">
+        <v>20</v>
+      </c>
+      <c r="F466" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G466">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A467" s="1">
+        <f t="shared" ref="A467:A485" si="23">A466</f>
+        <v>44393</v>
+      </c>
+      <c r="B467">
+        <v>7</v>
+      </c>
+      <c r="C467">
+        <v>20</v>
+      </c>
+      <c r="D467">
+        <v>15</v>
+      </c>
+      <c r="E467">
+        <v>20</v>
+      </c>
+      <c r="F467" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G467">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A468" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B468">
+        <v>7</v>
+      </c>
+      <c r="C468">
+        <v>20</v>
+      </c>
+      <c r="D468">
+        <v>15</v>
+      </c>
+      <c r="E468">
+        <v>20</v>
+      </c>
+      <c r="F468" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G468">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A469" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B469">
+        <v>12</v>
+      </c>
+      <c r="C469">
+        <v>5</v>
+      </c>
+      <c r="D469">
+        <v>20</v>
+      </c>
+      <c r="E469">
+        <v>5</v>
+      </c>
+      <c r="F469" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G469">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A470" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B470">
+        <v>12</v>
+      </c>
+      <c r="C470">
+        <v>5</v>
+      </c>
+      <c r="D470">
+        <v>20</v>
+      </c>
+      <c r="E470">
+        <v>5</v>
+      </c>
+      <c r="F470" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G470">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A471" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B471">
+        <v>12</v>
+      </c>
+      <c r="C471">
+        <v>5</v>
+      </c>
+      <c r="D471">
+        <v>20</v>
+      </c>
+      <c r="E471">
+        <v>5</v>
+      </c>
+      <c r="F471" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G471">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A472" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B472">
+        <v>13</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>21</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G472">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A473" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B473">
+        <v>13</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>21</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G473">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A474" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B474">
+        <v>13</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>21</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G474">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A475" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B475">
+        <v>14</v>
+      </c>
+      <c r="C475">
+        <v>30</v>
+      </c>
+      <c r="D475">
+        <v>22</v>
+      </c>
+      <c r="E475">
+        <v>30</v>
+      </c>
+      <c r="F475" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G475">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A476" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B476">
+        <v>14</v>
+      </c>
+      <c r="C476">
+        <v>30</v>
+      </c>
+      <c r="D476">
+        <v>22</v>
+      </c>
+      <c r="E476">
+        <v>30</v>
+      </c>
+      <c r="F476" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G476">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A477" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B477">
+        <v>15</v>
+      </c>
+      <c r="C477">
+        <v>50</v>
+      </c>
+      <c r="D477">
+        <v>23</v>
+      </c>
+      <c r="E477">
+        <v>50</v>
+      </c>
+      <c r="F477" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="G477">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A478" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B478">
+        <v>15</v>
+      </c>
+      <c r="C478">
+        <v>50</v>
+      </c>
+      <c r="D478">
+        <v>23</v>
+      </c>
+      <c r="E478">
+        <v>50</v>
+      </c>
+      <c r="F478" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="G478">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A479" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B479">
+        <v>15</v>
+      </c>
+      <c r="C479">
+        <v>50</v>
+      </c>
+      <c r="D479">
+        <v>23</v>
+      </c>
+      <c r="E479">
+        <v>50</v>
+      </c>
+      <c r="F479" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="G479">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A480" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B480">
+        <v>16</v>
+      </c>
+      <c r="C480">
+        <v>15</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G480">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A481" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B481">
+        <v>16</v>
+      </c>
+      <c r="C481">
+        <v>15</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G481">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A482" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B482">
+        <v>16</v>
+      </c>
+      <c r="C482">
+        <v>15</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G482">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A483" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B483">
+        <v>20</v>
+      </c>
+      <c r="C483">
+        <v>20</v>
+      </c>
+      <c r="D483">
+        <v>4</v>
+      </c>
+      <c r="E483">
+        <v>5</v>
+      </c>
+      <c r="F483" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G483">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A484" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B484">
+        <v>20</v>
+      </c>
+      <c r="C484">
+        <v>20</v>
+      </c>
+      <c r="D484">
+        <v>4</v>
+      </c>
+      <c r="E484">
+        <v>5</v>
+      </c>
+      <c r="F484" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G484">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A485" s="1">
+        <f t="shared" si="23"/>
+        <v>44393</v>
+      </c>
+      <c r="B485">
+        <v>20</v>
+      </c>
+      <c r="C485">
+        <v>20</v>
+      </c>
+      <c r="D485">
+        <v>4</v>
+      </c>
+      <c r="E485">
+        <v>5</v>
+      </c>
+      <c r="F485" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G485">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A486" s="1">
+        <f>A485+1</f>
+        <v>44394</v>
+      </c>
+      <c r="B486">
+        <v>7</v>
+      </c>
+      <c r="C486">
+        <v>10</v>
+      </c>
+      <c r="D486">
+        <v>14</v>
+      </c>
+      <c r="E486">
+        <v>55</v>
+      </c>
+      <c r="F486" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G486">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A487" s="1">
+        <f t="shared" ref="A487:A497" si="24">A486</f>
+        <v>44394</v>
+      </c>
+      <c r="B487">
+        <v>7</v>
+      </c>
+      <c r="C487">
+        <v>10</v>
+      </c>
+      <c r="D487">
+        <v>14</v>
+      </c>
+      <c r="E487">
+        <v>55</v>
+      </c>
+      <c r="F487" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G487">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A488" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B488">
+        <v>7</v>
+      </c>
+      <c r="C488">
+        <v>10</v>
+      </c>
+      <c r="D488">
+        <v>14</v>
+      </c>
+      <c r="E488">
+        <v>55</v>
+      </c>
+      <c r="F488" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G488">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A489" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B489">
+        <v>9</v>
+      </c>
+      <c r="C489">
+        <v>30</v>
+      </c>
+      <c r="D489">
+        <v>17</v>
+      </c>
+      <c r="E489">
+        <v>15</v>
+      </c>
+      <c r="F489" s="4">
+        <v>82</v>
+      </c>
+      <c r="G489">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A490" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B490">
+        <v>9</v>
+      </c>
+      <c r="C490">
+        <v>30</v>
+      </c>
+      <c r="D490">
+        <v>17</v>
+      </c>
+      <c r="E490">
+        <v>15</v>
+      </c>
+      <c r="F490" s="4">
+        <v>82</v>
+      </c>
+      <c r="G490">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A491" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B491">
+        <v>9</v>
+      </c>
+      <c r="C491">
+        <v>30</v>
+      </c>
+      <c r="D491">
+        <v>17</v>
+      </c>
+      <c r="E491">
+        <v>15</v>
+      </c>
+      <c r="F491" s="4">
+        <v>82</v>
+      </c>
+      <c r="G491">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A492" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B492">
+        <v>14</v>
+      </c>
+      <c r="C492">
+        <v>55</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G492">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A493" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B493">
+        <v>14</v>
+      </c>
+      <c r="C493">
+        <v>55</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G493">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A494" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B494">
+        <v>14</v>
+      </c>
+      <c r="C494">
+        <v>55</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G494">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A495" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B495">
+        <v>17</v>
+      </c>
+      <c r="C495">
+        <v>50</v>
+      </c>
+      <c r="D495">
+        <v>2</v>
+      </c>
+      <c r="E495">
+        <v>55</v>
+      </c>
+      <c r="F495" s="4">
+        <v>83</v>
+      </c>
+      <c r="G495">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A496" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B496">
+        <v>17</v>
+      </c>
+      <c r="C496">
+        <v>50</v>
+      </c>
+      <c r="D496">
+        <v>2</v>
+      </c>
+      <c r="E496">
+        <v>55</v>
+      </c>
+      <c r="F496" s="4">
+        <v>83</v>
+      </c>
+      <c r="G496">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A497" s="1">
+        <f t="shared" si="24"/>
+        <v>44394</v>
+      </c>
+      <c r="B497">
+        <v>17</v>
+      </c>
+      <c r="C497">
+        <v>50</v>
+      </c>
+      <c r="D497">
+        <v>2</v>
+      </c>
+      <c r="E497">
+        <v>55</v>
+      </c>
+      <c r="F497" s="4">
+        <v>83</v>
+      </c>
+      <c r="G497">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A498" s="1">
+        <f>A497+1</f>
+        <v>44395</v>
+      </c>
+      <c r="B498">
+        <v>7</v>
+      </c>
+      <c r="C498">
+        <v>30</v>
+      </c>
+      <c r="D498">
+        <v>12</v>
+      </c>
+      <c r="E498">
+        <v>15</v>
+      </c>
+      <c r="F498" s="4">
+        <v>83</v>
+      </c>
+      <c r="G498">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A499" s="1">
+        <f>A498</f>
+        <v>44395</v>
+      </c>
+      <c r="B499">
+        <v>7</v>
+      </c>
+      <c r="C499">
+        <v>30</v>
+      </c>
+      <c r="D499">
+        <v>12</v>
+      </c>
+      <c r="E499">
+        <v>15</v>
+      </c>
+      <c r="F499" s="4">
+        <v>83</v>
+      </c>
+      <c r="G499">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A500" s="1">
+        <f>A499</f>
+        <v>44395</v>
+      </c>
+      <c r="B500">
+        <v>7</v>
+      </c>
+      <c r="C500">
+        <v>30</v>
+      </c>
+      <c r="D500">
+        <v>12</v>
+      </c>
+      <c r="E500">
+        <v>15</v>
+      </c>
+      <c r="F500" s="4">
+        <v>83</v>
+      </c>
+      <c r="G500">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A501" s="1">
+        <f>A500</f>
+        <v>44395</v>
+      </c>
+      <c r="B501">
+        <v>12</v>
+      </c>
+      <c r="C501">
+        <v>30</v>
+      </c>
+      <c r="D501">
+        <v>17</v>
+      </c>
+      <c r="E501">
+        <v>15</v>
+      </c>
+      <c r="F501" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G501">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A502" s="1">
+        <f>A501</f>
+        <v>44395</v>
+      </c>
+      <c r="B502">
+        <v>12</v>
+      </c>
+      <c r="C502">
+        <v>30</v>
+      </c>
+      <c r="D502">
+        <v>17</v>
+      </c>
+      <c r="E502">
+        <v>15</v>
+      </c>
+      <c r="F502" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G502">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A503" s="1">
+        <f>A502</f>
+        <v>44395</v>
+      </c>
+      <c r="B503">
+        <v>12</v>
+      </c>
+      <c r="C503">
+        <v>30</v>
+      </c>
+      <c r="D503">
+        <v>17</v>
+      </c>
+      <c r="E503">
+        <v>15</v>
+      </c>
+      <c r="F503" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G503">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A504" s="1">
+        <f>A503+1</f>
+        <v>44396</v>
+      </c>
+      <c r="B504">
+        <v>7</v>
+      </c>
+      <c r="C504">
+        <v>45</v>
+      </c>
+      <c r="D504">
+        <v>12</v>
+      </c>
+      <c r="E504">
+        <v>30</v>
+      </c>
+      <c r="F504" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G504">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A505" s="1">
+        <f>A504</f>
+        <v>44396</v>
+      </c>
+      <c r="B505">
+        <v>7</v>
+      </c>
+      <c r="C505">
+        <v>45</v>
+      </c>
+      <c r="D505">
+        <v>12</v>
+      </c>
+      <c r="E505">
+        <v>30</v>
+      </c>
+      <c r="F505" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G505">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A506" s="1">
+        <f>A505</f>
+        <v>44396</v>
+      </c>
+      <c r="B506">
+        <v>7</v>
+      </c>
+      <c r="C506">
+        <v>45</v>
+      </c>
+      <c r="D506">
+        <v>12</v>
+      </c>
+      <c r="E506">
+        <v>30</v>
+      </c>
+      <c r="F506" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G506">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A507" s="1">
+        <f>A506</f>
+        <v>44396</v>
+      </c>
+      <c r="B507">
+        <v>9</v>
+      </c>
+      <c r="C507">
+        <v>15</v>
+      </c>
+      <c r="D507">
+        <v>14</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+      <c r="F507" s="4">
+        <v>83</v>
+      </c>
+      <c r="G507">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A508" s="1">
+        <f>A507</f>
+        <v>44396</v>
+      </c>
+      <c r="B508">
+        <v>9</v>
+      </c>
+      <c r="C508">
+        <v>15</v>
+      </c>
+      <c r="D508">
+        <v>14</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="F508" s="4">
+        <v>83</v>
+      </c>
+      <c r="G508">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A509" s="1">
+        <f>A508</f>
+        <v>44396</v>
+      </c>
+      <c r="B509">
+        <v>9</v>
+      </c>
+      <c r="C509">
+        <v>15</v>
+      </c>
+      <c r="D509">
+        <v>14</v>
+      </c>
+      <c r="E509">
+        <v>0</v>
+      </c>
+      <c r="F509" s="4">
+        <v>83</v>
+      </c>
+      <c r="G509">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A510" s="1">
+        <f>A509</f>
+        <v>44396</v>
+      </c>
+      <c r="B510">
+        <v>13</v>
+      </c>
+      <c r="C510">
+        <v>5</v>
+      </c>
+      <c r="D510">
+        <v>17</v>
+      </c>
+      <c r="E510">
+        <v>50</v>
+      </c>
+      <c r="F510" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G510">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A511" s="1">
+        <f>A510</f>
+        <v>44396</v>
+      </c>
+      <c r="B511">
+        <v>13</v>
+      </c>
+      <c r="C511">
+        <v>5</v>
+      </c>
+      <c r="D511">
+        <v>17</v>
+      </c>
+      <c r="E511">
+        <v>50</v>
+      </c>
+      <c r="F511" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G511">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A512" s="1">
+        <f>A511</f>
+        <v>44396</v>
+      </c>
+      <c r="B512">
+        <v>13</v>
+      </c>
+      <c r="C512">
+        <v>5</v>
+      </c>
+      <c r="D512">
+        <v>17</v>
+      </c>
+      <c r="E512">
+        <v>50</v>
+      </c>
+      <c r="F512" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G512">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A513" s="1">
+        <f>A512</f>
+        <v>44396</v>
+      </c>
+      <c r="B513">
+        <v>14</v>
+      </c>
+      <c r="C513">
+        <v>45</v>
+      </c>
+      <c r="D513">
+        <v>19</v>
+      </c>
+      <c r="E513">
+        <v>30</v>
+      </c>
+      <c r="F513" s="4">
+        <v>83</v>
+      </c>
+      <c r="G513">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A514" s="1">
+        <f>A513</f>
+        <v>44396</v>
+      </c>
+      <c r="B514">
+        <v>14</v>
+      </c>
+      <c r="C514">
+        <v>45</v>
+      </c>
+      <c r="D514">
+        <v>19</v>
+      </c>
+      <c r="E514">
+        <v>30</v>
+      </c>
+      <c r="F514" s="4">
+        <v>83</v>
+      </c>
+      <c r="G514">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A515" s="1">
+        <f>A514</f>
+        <v>44396</v>
+      </c>
+      <c r="B515">
+        <v>14</v>
+      </c>
+      <c r="C515">
+        <v>45</v>
+      </c>
+      <c r="D515">
+        <v>19</v>
+      </c>
+      <c r="E515">
+        <v>30</v>
+      </c>
+      <c r="F515" s="4">
+        <v>83</v>
+      </c>
+      <c r="G515">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A516" s="1">
+        <f>A515</f>
+        <v>44396</v>
+      </c>
+      <c r="B516">
+        <v>17</v>
+      </c>
+      <c r="C516">
+        <v>55</v>
+      </c>
+      <c r="D516">
+        <v>22</v>
+      </c>
+      <c r="E516">
+        <v>40</v>
+      </c>
+      <c r="F516" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G516">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A517" s="1">
+        <f>A516</f>
+        <v>44396</v>
+      </c>
+      <c r="B517">
+        <v>17</v>
+      </c>
+      <c r="C517">
+        <v>55</v>
+      </c>
+      <c r="D517">
+        <v>22</v>
+      </c>
+      <c r="E517">
+        <v>40</v>
+      </c>
+      <c r="F517" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G517">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A518" s="1">
+        <f>A517</f>
+        <v>44396</v>
+      </c>
+      <c r="B518">
+        <v>17</v>
+      </c>
+      <c r="C518">
+        <v>55</v>
+      </c>
+      <c r="D518">
+        <v>22</v>
+      </c>
+      <c r="E518">
+        <v>40</v>
+      </c>
+      <c r="F518" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G518">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A519" s="1">
+        <f>A518</f>
+        <v>44396</v>
+      </c>
+      <c r="B519">
+        <v>19</v>
+      </c>
+      <c r="C519">
+        <v>45</v>
+      </c>
+      <c r="D519">
+        <v>24</v>
+      </c>
+      <c r="E519">
+        <v>30</v>
+      </c>
+      <c r="F519" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G519">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A520" s="1">
+        <f>A519</f>
+        <v>44396</v>
+      </c>
+      <c r="B520">
+        <v>19</v>
+      </c>
+      <c r="C520">
+        <v>45</v>
+      </c>
+      <c r="D520">
+        <v>24</v>
+      </c>
+      <c r="E520">
+        <v>30</v>
+      </c>
+      <c r="F520" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G520">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A521" s="1">
+        <f>A520</f>
+        <v>44396</v>
+      </c>
+      <c r="B521">
+        <v>19</v>
+      </c>
+      <c r="C521">
+        <v>45</v>
+      </c>
+      <c r="D521">
+        <v>24</v>
+      </c>
+      <c r="E521">
+        <v>30</v>
+      </c>
+      <c r="F521" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G521">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A522" s="1">
+        <f>A521</f>
+        <v>44396</v>
+      </c>
+      <c r="B522">
+        <v>21</v>
+      </c>
+      <c r="C522">
+        <v>15</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G522">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A523" s="1">
+        <f>A522</f>
+        <v>44396</v>
+      </c>
+      <c r="B523">
+        <v>21</v>
+      </c>
+      <c r="C523">
+        <v>15</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G523">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A524" s="1">
+        <f>A523</f>
+        <v>44396</v>
+      </c>
+      <c r="B524">
+        <v>21</v>
+      </c>
+      <c r="C524">
+        <v>15</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G524">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A525" s="1">
+        <f>A524+1</f>
+        <v>44397</v>
+      </c>
+      <c r="B525">
+        <v>7</v>
+      </c>
+      <c r="C525">
+        <v>30</v>
+      </c>
+      <c r="D525">
+        <v>10</v>
+      </c>
+      <c r="E525">
+        <v>15</v>
+      </c>
+      <c r="F525" s="4">
+        <v>83</v>
+      </c>
+      <c r="G525">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A526" s="1">
+        <f>A525</f>
+        <v>44397</v>
+      </c>
+      <c r="B526">
+        <v>7</v>
+      </c>
+      <c r="C526">
+        <v>30</v>
+      </c>
+      <c r="D526">
+        <v>10</v>
+      </c>
+      <c r="E526">
+        <v>15</v>
+      </c>
+      <c r="F526" s="4">
+        <v>83</v>
+      </c>
+      <c r="G526">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A527" s="1">
+        <f>A526</f>
+        <v>44397</v>
+      </c>
+      <c r="B527">
+        <v>7</v>
+      </c>
+      <c r="C527">
+        <v>30</v>
+      </c>
+      <c r="D527">
+        <v>10</v>
+      </c>
+      <c r="E527">
+        <v>15</v>
+      </c>
+      <c r="F527" s="4">
+        <v>83</v>
+      </c>
+      <c r="G527">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A528" s="1">
+        <f>A527</f>
+        <v>44397</v>
+      </c>
+      <c r="B528">
+        <v>12</v>
+      </c>
+      <c r="C528">
+        <v>20</v>
+      </c>
+      <c r="D528">
+        <v>15</v>
+      </c>
+      <c r="E528">
+        <v>5</v>
+      </c>
+      <c r="F528" s="4">
+        <v>83</v>
+      </c>
+      <c r="G528">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A529" s="1">
+        <f>A528</f>
+        <v>44397</v>
+      </c>
+      <c r="B529">
+        <v>12</v>
+      </c>
+      <c r="C529">
+        <v>20</v>
+      </c>
+      <c r="D529">
+        <v>15</v>
+      </c>
+      <c r="E529">
+        <v>5</v>
+      </c>
+      <c r="F529" s="4">
+        <v>83</v>
+      </c>
+      <c r="G529">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A530" s="1">
+        <f>A529</f>
+        <v>44397</v>
+      </c>
+      <c r="B530">
+        <v>12</v>
+      </c>
+      <c r="C530">
+        <v>20</v>
+      </c>
+      <c r="D530">
+        <v>15</v>
+      </c>
+      <c r="E530">
+        <v>5</v>
+      </c>
+      <c r="F530" s="4">
+        <v>83</v>
+      </c>
+      <c r="G530">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A531" s="1">
+        <f>A530+1</f>
+        <v>44398</v>
+      </c>
+      <c r="B531">
+        <v>8</v>
+      </c>
+      <c r="C531">
+        <v>30</v>
+      </c>
+      <c r="D531">
+        <v>11</v>
+      </c>
+      <c r="E531">
+        <v>30</v>
+      </c>
+      <c r="F531" s="4">
+        <v>83</v>
+      </c>
+      <c r="G531">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A532" s="1">
+        <f>A531</f>
+        <v>44398</v>
+      </c>
+      <c r="B532">
+        <v>8</v>
+      </c>
+      <c r="C532">
+        <v>30</v>
+      </c>
+      <c r="D532">
+        <v>11</v>
+      </c>
+      <c r="E532">
+        <v>30</v>
+      </c>
+      <c r="F532" s="4">
+        <v>83</v>
+      </c>
+      <c r="G532">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A533" s="1">
+        <f>A532</f>
+        <v>44398</v>
+      </c>
+      <c r="B533">
+        <v>8</v>
+      </c>
+      <c r="C533">
+        <v>30</v>
+      </c>
+      <c r="D533">
+        <v>11</v>
+      </c>
+      <c r="E533">
+        <v>30</v>
+      </c>
+      <c r="F533" s="4">
+        <v>83</v>
+      </c>
+      <c r="G533">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A534" s="1">
+        <f>A533</f>
+        <v>44398</v>
+      </c>
+      <c r="B534">
+        <v>10</v>
+      </c>
+      <c r="C534">
+        <v>45</v>
+      </c>
+      <c r="D534">
+        <v>13</v>
+      </c>
+      <c r="E534">
+        <v>45</v>
+      </c>
+      <c r="F534" s="4">
+        <v>83</v>
+      </c>
+      <c r="G534">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A535" s="1">
+        <f>A534</f>
+        <v>44398</v>
+      </c>
+      <c r="B535">
+        <v>10</v>
+      </c>
+      <c r="C535">
+        <v>45</v>
+      </c>
+      <c r="D535">
+        <v>13</v>
+      </c>
+      <c r="E535">
+        <v>45</v>
+      </c>
+      <c r="F535" s="4">
+        <v>83</v>
+      </c>
+      <c r="G535">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A536" s="1">
+        <f>A535</f>
+        <v>44398</v>
+      </c>
+      <c r="B536">
+        <v>12</v>
+      </c>
+      <c r="C536">
+        <v>45</v>
+      </c>
+      <c r="D536">
+        <v>15</v>
+      </c>
+      <c r="E536">
+        <v>45</v>
+      </c>
+      <c r="F536" s="4">
+        <v>83</v>
+      </c>
+      <c r="G536">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A537" s="1">
+        <f>A536</f>
+        <v>44398</v>
+      </c>
+      <c r="B537">
+        <v>12</v>
+      </c>
+      <c r="C537">
+        <v>45</v>
+      </c>
+      <c r="D537">
+        <v>15</v>
+      </c>
+      <c r="E537">
+        <v>45</v>
+      </c>
+      <c r="F537" s="4">
+        <v>83</v>
+      </c>
+      <c r="G537">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A538" s="1">
+        <f>A537+3</f>
+        <v>44401</v>
+      </c>
+      <c r="B538">
+        <v>7</v>
+      </c>
+      <c r="C538">
+        <v>30</v>
+      </c>
+      <c r="D538">
+        <v>14</v>
+      </c>
+      <c r="E538">
+        <v>45</v>
+      </c>
+      <c r="F538" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G538">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A539" s="1">
+        <f>A538</f>
+        <v>44401</v>
+      </c>
+      <c r="B539">
+        <v>7</v>
+      </c>
+      <c r="C539">
+        <v>30</v>
+      </c>
+      <c r="D539">
+        <v>14</v>
+      </c>
+      <c r="E539">
+        <v>45</v>
+      </c>
+      <c r="F539" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G539">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A540" s="1">
+        <f>A539</f>
+        <v>44401</v>
+      </c>
+      <c r="B540">
+        <v>7</v>
+      </c>
+      <c r="C540">
+        <v>30</v>
+      </c>
+      <c r="D540">
+        <v>14</v>
+      </c>
+      <c r="E540">
+        <v>45</v>
+      </c>
+      <c r="F540" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="G540">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A541" s="1">
+        <f>A540</f>
+        <v>44401</v>
+      </c>
+      <c r="B541">
+        <v>17</v>
+      </c>
+      <c r="C541">
+        <v>35</v>
+      </c>
+      <c r="D541">
+        <v>5</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G541">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A542" s="1">
+        <f>A541</f>
+        <v>44401</v>
+      </c>
+      <c r="B542">
+        <v>17</v>
+      </c>
+      <c r="C542">
+        <v>35</v>
+      </c>
+      <c r="D542">
+        <v>5</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G542">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A543" s="1">
+        <f>A542</f>
+        <v>44401</v>
+      </c>
+      <c r="B543">
+        <v>17</v>
+      </c>
+      <c r="C543">
+        <v>35</v>
+      </c>
+      <c r="D543">
+        <v>5</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G543">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A544" s="1">
+        <f>A543+1</f>
+        <v>44402</v>
+      </c>
+      <c r="B544">
+        <v>7</v>
+      </c>
+      <c r="C544">
+        <v>30</v>
+      </c>
+      <c r="D544">
+        <v>16</v>
+      </c>
+      <c r="E544">
+        <v>55</v>
+      </c>
+      <c r="F544" s="4">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G544">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A545" s="1">
+        <f>A544</f>
+        <v>44402</v>
+      </c>
+      <c r="B545">
+        <v>7</v>
+      </c>
+      <c r="C545">
+        <v>30</v>
+      </c>
+      <c r="D545">
+        <v>16</v>
+      </c>
+      <c r="E545">
+        <v>55</v>
+      </c>
+      <c r="F545" s="4">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G545">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A546" s="1">
+        <f>A545</f>
+        <v>44402</v>
+      </c>
+      <c r="B546">
+        <v>7</v>
+      </c>
+      <c r="C546">
+        <v>30</v>
+      </c>
+      <c r="D546">
+        <v>16</v>
+      </c>
+      <c r="E546">
+        <v>55</v>
+      </c>
+      <c r="F546" s="4">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G546">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A547" s="1">
+        <f>A546</f>
+        <v>44402</v>
+      </c>
+      <c r="B547">
+        <v>10</v>
+      </c>
+      <c r="C547">
+        <v>10</v>
+      </c>
+      <c r="D547">
+        <v>21</v>
+      </c>
+      <c r="E547">
+        <v>35</v>
+      </c>
+      <c r="F547" s="4">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G547">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A548" s="1">
+        <f>A547</f>
+        <v>44402</v>
+      </c>
+      <c r="B548">
+        <v>10</v>
+      </c>
+      <c r="C548">
+        <v>10</v>
+      </c>
+      <c r="D548">
+        <v>21</v>
+      </c>
+      <c r="E548">
+        <v>35</v>
+      </c>
+      <c r="F548" s="4">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G548">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A549" s="1">
+        <f>A548</f>
+        <v>44402</v>
+      </c>
+      <c r="B549">
+        <v>10</v>
+      </c>
+      <c r="C549">
+        <v>10</v>
+      </c>
+      <c r="D549">
+        <v>21</v>
+      </c>
+      <c r="E549">
+        <v>35</v>
+      </c>
+      <c r="F549" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G549">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A550" s="1">
+        <f>A549+1</f>
+        <v>44403</v>
+      </c>
+      <c r="B550">
+        <v>7</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>8</v>
+      </c>
+      <c r="E550">
+        <v>30</v>
+      </c>
+      <c r="F550" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G550">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A551" s="1">
+        <f>A550</f>
+        <v>44403</v>
+      </c>
+      <c r="B551">
+        <v>7</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>8</v>
+      </c>
+      <c r="E551">
+        <v>30</v>
+      </c>
+      <c r="F551" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G551">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A552" s="1">
+        <f>A551</f>
+        <v>44403</v>
+      </c>
+      <c r="B552">
+        <v>7</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552">
+        <v>8</v>
+      </c>
+      <c r="E552">
+        <v>30</v>
+      </c>
+      <c r="F552" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G552">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A553" s="1">
+        <f>A552</f>
+        <v>44403</v>
+      </c>
+      <c r="B553">
+        <v>10</v>
+      </c>
+      <c r="C553">
+        <v>55</v>
+      </c>
+      <c r="D553">
+        <v>12</v>
+      </c>
+      <c r="E553">
+        <v>25</v>
+      </c>
+      <c r="F553" s="4">
+        <v>83</v>
+      </c>
+      <c r="G553">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A554" s="1">
+        <f>A553</f>
+        <v>44403</v>
+      </c>
+      <c r="B554">
+        <v>10</v>
+      </c>
+      <c r="C554">
+        <v>55</v>
+      </c>
+      <c r="D554">
+        <v>12</v>
+      </c>
+      <c r="E554">
+        <v>25</v>
+      </c>
+      <c r="F554" s="4">
+        <v>83</v>
+      </c>
+      <c r="G554">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A555" s="1">
+        <f>A554</f>
+        <v>44403</v>
+      </c>
+      <c r="B555">
+        <v>10</v>
+      </c>
+      <c r="C555">
+        <v>55</v>
+      </c>
+      <c r="D555">
+        <v>12</v>
+      </c>
+      <c r="E555">
+        <v>25</v>
+      </c>
+      <c r="F555" s="4">
+        <v>83</v>
+      </c>
+      <c r="G555">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A556" s="1">
+        <f>A555</f>
+        <v>44403</v>
+      </c>
+      <c r="B556">
+        <v>14</v>
+      </c>
+      <c r="C556">
+        <v>45</v>
+      </c>
+      <c r="D556">
+        <v>0</v>
+      </c>
+      <c r="E556">
+        <v>0</v>
+      </c>
+      <c r="F556" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="G556">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A557" s="1">
+        <f>A556</f>
+        <v>44403</v>
+      </c>
+      <c r="B557">
+        <v>14</v>
+      </c>
+      <c r="C557">
+        <v>45</v>
+      </c>
+      <c r="D557">
+        <v>0</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557" s="4">
+        <v>84</v>
+      </c>
+      <c r="G557">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A558" s="1">
+        <f>A557</f>
+        <v>44403</v>
+      </c>
+      <c r="B558">
+        <v>14</v>
+      </c>
+      <c r="C558">
+        <v>45</v>
+      </c>
+      <c r="D558">
+        <v>0</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+      <c r="F558" s="4">
+        <v>84</v>
+      </c>
+      <c r="G558">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A559" s="1">
+        <f>A558</f>
+        <v>44403</v>
+      </c>
+      <c r="B559">
+        <v>18</v>
+      </c>
+      <c r="C559">
+        <v>45</v>
+      </c>
+      <c r="D559">
+        <v>4</v>
+      </c>
+      <c r="E559">
+        <v>0</v>
+      </c>
+      <c r="F559" s="4">
+        <v>84</v>
+      </c>
+      <c r="G559">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A560" s="1">
+        <f>A559</f>
+        <v>44403</v>
+      </c>
+      <c r="B560">
+        <v>18</v>
+      </c>
+      <c r="C560">
+        <v>45</v>
+      </c>
+      <c r="D560">
+        <v>4</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+      <c r="F560" s="4">
+        <v>84</v>
+      </c>
+      <c r="G560">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A561" s="1">
+        <f>A560</f>
+        <v>44403</v>
+      </c>
+      <c r="B561">
+        <v>18</v>
+      </c>
+      <c r="C561">
+        <v>45</v>
+      </c>
+      <c r="D561">
+        <v>4</v>
+      </c>
+      <c r="E561">
+        <v>0</v>
+      </c>
+      <c r="F561" s="4">
+        <v>84</v>
+      </c>
+      <c r="G561">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A562" s="1">
+        <f>A561+1</f>
+        <v>44404</v>
+      </c>
+      <c r="B562">
+        <v>8</v>
+      </c>
+      <c r="C562">
+        <v>5</v>
+      </c>
+      <c r="D562">
+        <v>17</v>
+      </c>
+      <c r="E562">
+        <v>50</v>
+      </c>
+      <c r="F562" s="4">
+        <v>83</v>
+      </c>
+      <c r="G562">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A563" s="1">
+        <f>A562</f>
+        <v>44404</v>
+      </c>
+      <c r="B563">
+        <v>8</v>
+      </c>
+      <c r="C563">
+        <v>5</v>
+      </c>
+      <c r="D563">
+        <v>17</v>
+      </c>
+      <c r="E563">
+        <v>50</v>
+      </c>
+      <c r="F563" s="4">
+        <v>83</v>
+      </c>
+      <c r="G563">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A564" s="1">
+        <f>A563</f>
+        <v>44404</v>
+      </c>
+      <c r="B564">
+        <v>8</v>
+      </c>
+      <c r="C564">
+        <v>5</v>
+      </c>
+      <c r="D564">
+        <v>17</v>
+      </c>
+      <c r="E564">
+        <v>50</v>
+      </c>
+      <c r="F564" s="4">
+        <v>83</v>
+      </c>
+      <c r="G564">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A565" s="1">
+        <f>A564</f>
+        <v>44404</v>
+      </c>
+      <c r="B565">
+        <v>13</v>
+      </c>
+      <c r="C565">
+        <v>30</v>
+      </c>
+      <c r="D565">
+        <v>23</v>
+      </c>
+      <c r="E565">
+        <v>15</v>
+      </c>
+      <c r="F565" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="G565">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A566" s="1">
+        <f>A565</f>
+        <v>44404</v>
+      </c>
+      <c r="B566">
+        <v>13</v>
+      </c>
+      <c r="C566">
+        <v>30</v>
+      </c>
+      <c r="D566">
+        <v>23</v>
+      </c>
+      <c r="E566">
+        <v>15</v>
+      </c>
+      <c r="F566" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="G566">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A567" s="1">
+        <f>A566</f>
+        <v>44404</v>
+      </c>
+      <c r="B567">
+        <v>13</v>
+      </c>
+      <c r="C567">
+        <v>30</v>
+      </c>
+      <c r="D567">
+        <v>23</v>
+      </c>
+      <c r="E567">
+        <v>15</v>
+      </c>
+      <c r="F567" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="G567">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A568" s="1">
+        <f>A567</f>
+        <v>44404</v>
+      </c>
+      <c r="B568">
+        <v>15</v>
+      </c>
+      <c r="C568">
+        <v>15</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G568">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A569" s="1">
+        <f>A568</f>
+        <v>44404</v>
+      </c>
+      <c r="B569">
+        <v>15</v>
+      </c>
+      <c r="C569">
+        <v>15</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+      <c r="F569" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G569">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A570" s="1">
+        <f>A569</f>
+        <v>44404</v>
+      </c>
+      <c r="B570">
+        <v>15</v>
+      </c>
+      <c r="C570">
+        <v>15</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G570">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A571" s="1">
+        <f>A570</f>
+        <v>44404</v>
+      </c>
+      <c r="B571">
+        <v>18</v>
+      </c>
+      <c r="C571">
+        <v>55</v>
+      </c>
+      <c r="D571">
+        <v>4</v>
+      </c>
+      <c r="E571">
+        <v>40</v>
+      </c>
+      <c r="F571" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G571">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A572" s="1">
+        <f>A571</f>
+        <v>44404</v>
+      </c>
+      <c r="B572">
+        <v>18</v>
+      </c>
+      <c r="C572">
+        <v>55</v>
+      </c>
+      <c r="D572">
+        <v>4</v>
+      </c>
+      <c r="E572">
+        <v>40</v>
+      </c>
+      <c r="F572" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G572">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A573" s="1">
+        <f>A572+1</f>
+        <v>44405</v>
+      </c>
+      <c r="B573">
+        <v>10</v>
+      </c>
+      <c r="C573">
+        <v>50</v>
+      </c>
+      <c r="D573">
+        <v>20</v>
+      </c>
+      <c r="E573">
+        <v>35</v>
+      </c>
+      <c r="F573" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G573">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A574" s="1">
+        <f>A573</f>
+        <v>44405</v>
+      </c>
+      <c r="B574">
+        <v>10</v>
+      </c>
+      <c r="C574">
+        <v>50</v>
+      </c>
+      <c r="D574">
+        <v>20</v>
+      </c>
+      <c r="E574">
+        <v>35</v>
+      </c>
+      <c r="F574" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G574">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A575" s="1">
+        <f>A574</f>
+        <v>44405</v>
+      </c>
+      <c r="B575">
+        <v>10</v>
+      </c>
+      <c r="C575">
+        <v>50</v>
+      </c>
+      <c r="D575">
+        <v>20</v>
+      </c>
+      <c r="E575">
+        <v>35</v>
+      </c>
+      <c r="F575" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G575">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/spliney/martysweight.xlsx
+++ b/spliney/martysweight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19244\Documents\V2 Docs\R Git\Martysweight\spliney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4955FA-7318-4692-ABA2-059B959E01A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7A351-7AE4-4FF5-BDF6-E3B22EB92E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9588" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
+    <workbookView xWindow="-13305" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,11 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G575"/>
+  <dimension ref="A1:G612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A576" sqref="A576"/>
+      <pane ySplit="1" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A614" sqref="A614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
-        <f>A504</f>
+        <f t="shared" ref="A505:A524" si="25">A504</f>
         <v>44396</v>
       </c>
       <c r="B505">
@@ -12434,7 +12434,7 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
-        <f>A505</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B506">
@@ -12458,7 +12458,7 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
-        <f>A506</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B507">
@@ -12482,7 +12482,7 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
-        <f>A507</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B508">
@@ -12506,7 +12506,7 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
-        <f>A508</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B509">
@@ -12530,7 +12530,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
-        <f>A509</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B510">
@@ -12554,7 +12554,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
-        <f>A510</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B511">
@@ -12578,7 +12578,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
-        <f>A511</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B512">
@@ -12602,7 +12602,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
-        <f>A512</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B513">
@@ -12626,7 +12626,7 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
-        <f>A513</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B514">
@@ -12650,7 +12650,7 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
-        <f>A514</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B515">
@@ -12674,7 +12674,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
-        <f>A515</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B516">
@@ -12698,7 +12698,7 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
-        <f>A516</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B517">
@@ -12722,7 +12722,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
-        <f>A517</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B518">
@@ -12746,7 +12746,7 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
-        <f>A518</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B519">
@@ -12770,7 +12770,7 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
-        <f>A519</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B520">
@@ -12794,7 +12794,7 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
-        <f>A520</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B521">
@@ -12818,7 +12818,7 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
-        <f>A521</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B522">
@@ -12842,7 +12842,7 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
-        <f>A522</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B523">
@@ -12866,7 +12866,7 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
-        <f>A523</f>
+        <f t="shared" si="25"/>
         <v>44396</v>
       </c>
       <c r="B524">
@@ -13058,7 +13058,7 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
-        <f>A531</f>
+        <f t="shared" ref="A532:A537" si="26">A531</f>
         <v>44398</v>
       </c>
       <c r="B532">
@@ -13082,7 +13082,7 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
-        <f>A532</f>
+        <f t="shared" si="26"/>
         <v>44398</v>
       </c>
       <c r="B533">
@@ -13106,7 +13106,7 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
-        <f>A533</f>
+        <f t="shared" si="26"/>
         <v>44398</v>
       </c>
       <c r="B534">
@@ -13130,7 +13130,7 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
-        <f>A534</f>
+        <f t="shared" si="26"/>
         <v>44398</v>
       </c>
       <c r="B535">
@@ -13154,7 +13154,7 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
-        <f>A535</f>
+        <f t="shared" si="26"/>
         <v>44398</v>
       </c>
       <c r="B536">
@@ -13178,7 +13178,7 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
-        <f>A536</f>
+        <f t="shared" si="26"/>
         <v>44398</v>
       </c>
       <c r="B537">
@@ -13514,7 +13514,7 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
-        <f>A550</f>
+        <f t="shared" ref="A551:A561" si="27">A550</f>
         <v>44403</v>
       </c>
       <c r="B551">
@@ -13538,7 +13538,7 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
-        <f>A551</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B552">
@@ -13562,7 +13562,7 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
-        <f>A552</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B553">
@@ -13586,7 +13586,7 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
-        <f>A553</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B554">
@@ -13610,7 +13610,7 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
-        <f>A554</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B555">
@@ -13634,7 +13634,7 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
-        <f>A555</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B556">
@@ -13658,7 +13658,7 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
-        <f>A556</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B557">
@@ -13682,7 +13682,7 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
-        <f>A557</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B558">
@@ -13706,7 +13706,7 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
-        <f>A558</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B559">
@@ -13730,7 +13730,7 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
-        <f>A559</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B560">
@@ -13754,7 +13754,7 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
-        <f>A560</f>
+        <f t="shared" si="27"/>
         <v>44403</v>
       </c>
       <c r="B561">
@@ -13802,7 +13802,7 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
-        <f>A562</f>
+        <f t="shared" ref="A563:A572" si="28">A562</f>
         <v>44404</v>
       </c>
       <c r="B563">
@@ -13826,7 +13826,7 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
-        <f>A563</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B564">
@@ -13850,7 +13850,7 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
-        <f>A564</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B565">
@@ -13874,7 +13874,7 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
-        <f>A565</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B566">
@@ -13898,7 +13898,7 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
-        <f>A566</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B567">
@@ -13922,7 +13922,7 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
-        <f>A567</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B568">
@@ -13946,7 +13946,7 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
-        <f>A568</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B569">
@@ -13970,7 +13970,7 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
-        <f>A569</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B570">
@@ -13994,7 +13994,7 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
-        <f>A570</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B571">
@@ -14018,7 +14018,7 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
-        <f>A571</f>
+        <f t="shared" si="28"/>
         <v>44404</v>
       </c>
       <c r="B572">
@@ -14110,6 +14110,894 @@
       </c>
       <c r="G575">
         <v>87</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A576" s="1">
+        <f>A575</f>
+        <v>44405</v>
+      </c>
+      <c r="B576">
+        <v>12</v>
+      </c>
+      <c r="C576">
+        <v>35</v>
+      </c>
+      <c r="D576">
+        <v>22</v>
+      </c>
+      <c r="E576">
+        <v>30</v>
+      </c>
+      <c r="F576" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G576">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A577" s="1">
+        <f>A576</f>
+        <v>44405</v>
+      </c>
+      <c r="B577">
+        <v>12</v>
+      </c>
+      <c r="C577">
+        <v>35</v>
+      </c>
+      <c r="D577">
+        <v>22</v>
+      </c>
+      <c r="E577">
+        <v>30</v>
+      </c>
+      <c r="F577" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G577">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A578" s="1">
+        <f>A577</f>
+        <v>44405</v>
+      </c>
+      <c r="B578">
+        <v>13</v>
+      </c>
+      <c r="C578">
+        <v>35</v>
+      </c>
+      <c r="D578">
+        <v>23</v>
+      </c>
+      <c r="E578">
+        <v>30</v>
+      </c>
+      <c r="F578" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G578">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A579" s="1">
+        <f>A578</f>
+        <v>44405</v>
+      </c>
+      <c r="B579">
+        <v>13</v>
+      </c>
+      <c r="C579">
+        <v>35</v>
+      </c>
+      <c r="D579">
+        <v>23</v>
+      </c>
+      <c r="E579">
+        <v>30</v>
+      </c>
+      <c r="F579" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G579">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A580" s="1">
+        <f>A579+1</f>
+        <v>44406</v>
+      </c>
+      <c r="B580">
+        <v>11</v>
+      </c>
+      <c r="C580">
+        <v>20</v>
+      </c>
+      <c r="D580">
+        <v>14</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+      <c r="F580" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G580">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A581" s="1">
+        <f>A580</f>
+        <v>44406</v>
+      </c>
+      <c r="B581">
+        <v>11</v>
+      </c>
+      <c r="C581">
+        <v>20</v>
+      </c>
+      <c r="D581">
+        <v>14</v>
+      </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
+      <c r="F581" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G581">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A582" s="1">
+        <f>A581</f>
+        <v>44406</v>
+      </c>
+      <c r="B582">
+        <v>11</v>
+      </c>
+      <c r="C582">
+        <v>20</v>
+      </c>
+      <c r="D582">
+        <v>14</v>
+      </c>
+      <c r="E582">
+        <v>0</v>
+      </c>
+      <c r="F582" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G582">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A583" s="1">
+        <f>A582</f>
+        <v>44406</v>
+      </c>
+      <c r="B583">
+        <v>15</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+      <c r="D583">
+        <v>17</v>
+      </c>
+      <c r="E583">
+        <v>40</v>
+      </c>
+      <c r="F583" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G583">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A584" s="1">
+        <f>A583</f>
+        <v>44406</v>
+      </c>
+      <c r="B584">
+        <v>15</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584">
+        <v>17</v>
+      </c>
+      <c r="E584">
+        <v>40</v>
+      </c>
+      <c r="F584" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G584">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A585" s="1">
+        <f>A584</f>
+        <v>44406</v>
+      </c>
+      <c r="B585">
+        <v>15</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+      <c r="D585">
+        <v>17</v>
+      </c>
+      <c r="E585">
+        <v>40</v>
+      </c>
+      <c r="F585" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G585">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A586" s="1">
+        <f>A585+1</f>
+        <v>44407</v>
+      </c>
+      <c r="B586">
+        <v>8</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>9</v>
+      </c>
+      <c r="E586">
+        <v>30</v>
+      </c>
+      <c r="F586" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G586">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A587" s="1">
+        <f>A586</f>
+        <v>44407</v>
+      </c>
+      <c r="B587">
+        <v>8</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587">
+        <v>9</v>
+      </c>
+      <c r="E587">
+        <v>30</v>
+      </c>
+      <c r="F587" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G587">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A588" s="1">
+        <f>A587</f>
+        <v>44407</v>
+      </c>
+      <c r="B588">
+        <v>8</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>9</v>
+      </c>
+      <c r="E588">
+        <v>30</v>
+      </c>
+      <c r="F588" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G588">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A589" s="1">
+        <f>A588+2</f>
+        <v>44409</v>
+      </c>
+      <c r="B589">
+        <v>11</v>
+      </c>
+      <c r="C589">
+        <v>15</v>
+      </c>
+      <c r="D589">
+        <v>13</v>
+      </c>
+      <c r="E589">
+        <v>15</v>
+      </c>
+      <c r="F589" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G589">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A590" s="1">
+        <f>A589</f>
+        <v>44409</v>
+      </c>
+      <c r="B590">
+        <v>11</v>
+      </c>
+      <c r="C590">
+        <v>15</v>
+      </c>
+      <c r="D590">
+        <v>13</v>
+      </c>
+      <c r="E590">
+        <v>15</v>
+      </c>
+      <c r="F590" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G590">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A591" s="1">
+        <f>A590</f>
+        <v>44409</v>
+      </c>
+      <c r="B591">
+        <v>11</v>
+      </c>
+      <c r="C591">
+        <v>15</v>
+      </c>
+      <c r="D591">
+        <v>13</v>
+      </c>
+      <c r="E591">
+        <v>15</v>
+      </c>
+      <c r="F591" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G591">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A592" s="1">
+        <f>A591+1</f>
+        <v>44410</v>
+      </c>
+      <c r="B592">
+        <v>13</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592">
+        <v>15</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="F592" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G592">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A593" s="1">
+        <f>A592</f>
+        <v>44410</v>
+      </c>
+      <c r="B593">
+        <v>13</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
+        <v>15</v>
+      </c>
+      <c r="E593">
+        <v>0</v>
+      </c>
+      <c r="F593" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G593">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A594" s="1">
+        <f>A593</f>
+        <v>44410</v>
+      </c>
+      <c r="B594">
+        <v>13</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594">
+        <v>15</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+      <c r="F594" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G594">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A595" s="1">
+        <f>A594</f>
+        <v>44410</v>
+      </c>
+      <c r="B595">
+        <v>15</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595">
+        <v>17</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+      <c r="F595" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G595">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A596" s="1">
+        <f>A595</f>
+        <v>44410</v>
+      </c>
+      <c r="B596">
+        <v>15</v>
+      </c>
+      <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596">
+        <v>17</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+      <c r="F596" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G596">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A597" s="1">
+        <f>A596</f>
+        <v>44410</v>
+      </c>
+      <c r="B597">
+        <v>15</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+      <c r="D597">
+        <v>17</v>
+      </c>
+      <c r="E597">
+        <v>0</v>
+      </c>
+      <c r="F597" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G597">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A598" s="1">
+        <f>A597+1</f>
+        <v>44411</v>
+      </c>
+      <c r="B598">
+        <v>10</v>
+      </c>
+      <c r="C598">
+        <v>20</v>
+      </c>
+      <c r="D598">
+        <v>16</v>
+      </c>
+      <c r="E598">
+        <v>50</v>
+      </c>
+      <c r="F598" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G598">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A599" s="1">
+        <f>A598</f>
+        <v>44411</v>
+      </c>
+      <c r="B599">
+        <v>10</v>
+      </c>
+      <c r="C599">
+        <v>20</v>
+      </c>
+      <c r="D599">
+        <v>16</v>
+      </c>
+      <c r="E599">
+        <v>50</v>
+      </c>
+      <c r="F599" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G599">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A600" s="1">
+        <f>A599</f>
+        <v>44411</v>
+      </c>
+      <c r="B600">
+        <v>10</v>
+      </c>
+      <c r="C600">
+        <v>20</v>
+      </c>
+      <c r="D600">
+        <v>16</v>
+      </c>
+      <c r="E600">
+        <v>50</v>
+      </c>
+      <c r="F600" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G600">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A601" s="1">
+        <f>A600</f>
+        <v>44411</v>
+      </c>
+      <c r="B601">
+        <v>12</v>
+      </c>
+      <c r="C601">
+        <v>15</v>
+      </c>
+      <c r="D601">
+        <v>18</v>
+      </c>
+      <c r="E601">
+        <v>45</v>
+      </c>
+      <c r="F601" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G601">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A602" s="1">
+        <f>A601</f>
+        <v>44411</v>
+      </c>
+      <c r="B602">
+        <v>12</v>
+      </c>
+      <c r="C602">
+        <v>15</v>
+      </c>
+      <c r="D602">
+        <v>18</v>
+      </c>
+      <c r="E602">
+        <v>45</v>
+      </c>
+      <c r="F602" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G602">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A603" s="1">
+        <f>A602</f>
+        <v>44411</v>
+      </c>
+      <c r="B603">
+        <v>12</v>
+      </c>
+      <c r="C603">
+        <v>15</v>
+      </c>
+      <c r="D603">
+        <v>18</v>
+      </c>
+      <c r="E603">
+        <v>45</v>
+      </c>
+      <c r="F603" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="G603">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A604" s="1">
+        <f>A603+1</f>
+        <v>44412</v>
+      </c>
+      <c r="B604">
+        <v>12</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604">
+        <v>16</v>
+      </c>
+      <c r="E604">
+        <v>30</v>
+      </c>
+      <c r="F604" s="4">
+        <v>82</v>
+      </c>
+      <c r="G604">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A605" s="1">
+        <f>A604</f>
+        <v>44412</v>
+      </c>
+      <c r="B605">
+        <v>12</v>
+      </c>
+      <c r="C605">
+        <v>0</v>
+      </c>
+      <c r="D605">
+        <v>16</v>
+      </c>
+      <c r="E605">
+        <v>30</v>
+      </c>
+      <c r="F605" s="4">
+        <v>82</v>
+      </c>
+      <c r="G605">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A606" s="1">
+        <f>A605</f>
+        <v>44412</v>
+      </c>
+      <c r="B606">
+        <v>12</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+      <c r="D606">
+        <v>16</v>
+      </c>
+      <c r="E606">
+        <v>30</v>
+      </c>
+      <c r="F606" s="4">
+        <v>82</v>
+      </c>
+      <c r="G606">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A607" s="1">
+        <f>A606+10</f>
+        <v>44422</v>
+      </c>
+      <c r="B607">
+        <v>10</v>
+      </c>
+      <c r="C607">
+        <v>30</v>
+      </c>
+      <c r="D607">
+        <v>12</v>
+      </c>
+      <c r="E607">
+        <v>30</v>
+      </c>
+      <c r="F607" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G607">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A608" s="1">
+        <f>A607</f>
+        <v>44422</v>
+      </c>
+      <c r="B608">
+        <v>10</v>
+      </c>
+      <c r="C608">
+        <v>30</v>
+      </c>
+      <c r="D608">
+        <v>12</v>
+      </c>
+      <c r="E608">
+        <v>30</v>
+      </c>
+      <c r="F608" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G608">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A609" s="1">
+        <f>A608</f>
+        <v>44422</v>
+      </c>
+      <c r="B609">
+        <v>10</v>
+      </c>
+      <c r="C609">
+        <v>30</v>
+      </c>
+      <c r="D609">
+        <v>12</v>
+      </c>
+      <c r="E609">
+        <v>30</v>
+      </c>
+      <c r="F609" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G609">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A610" s="1">
+        <f>A609</f>
+        <v>44422</v>
+      </c>
+      <c r="B610">
+        <v>12</v>
+      </c>
+      <c r="C610">
+        <v>35</v>
+      </c>
+      <c r="D610">
+        <v>14</v>
+      </c>
+      <c r="E610">
+        <v>35</v>
+      </c>
+      <c r="F610" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G610">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A611" s="1">
+        <f>A610</f>
+        <v>44422</v>
+      </c>
+      <c r="B611">
+        <v>12</v>
+      </c>
+      <c r="C611">
+        <v>35</v>
+      </c>
+      <c r="D611">
+        <v>14</v>
+      </c>
+      <c r="E611">
+        <v>35</v>
+      </c>
+      <c r="F611" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G611">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A612" s="1">
+        <f>A611</f>
+        <v>44422</v>
+      </c>
+      <c r="B612">
+        <v>12</v>
+      </c>
+      <c r="C612">
+        <v>35</v>
+      </c>
+      <c r="D612">
+        <v>14</v>
+      </c>
+      <c r="E612">
+        <v>35</v>
+      </c>
+      <c r="F612" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G612">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -14131,12 +15019,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f60a4376a33fe09dfddee3b7d8d4a7bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="906a0e747f0336b2cce67eb72cba36c9" ns2:_="">
     <xsd:import namespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
@@ -14300,6 +15182,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
   <ds:schemaRefs>
@@ -14309,15 +15197,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83972029-C29B-49D4-B62D-C7EE56B95B69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14333,4 +15212,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spliney/martysweight.xlsx
+++ b/spliney/martysweight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19244\Documents\V2 Docs\R Git\Martysweight\spliney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7A351-7AE4-4FF5-BDF6-E3B22EB92E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA62F8D-B757-487F-9B0B-31976711568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13305" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,11 +417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G612"/>
+  <dimension ref="A1:G695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A614" sqref="A614"/>
+      <pane ySplit="1" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H694" sqref="H694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14066,7 +14067,7 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
-        <f>A573</f>
+        <f t="shared" ref="A574:A579" si="29">A573</f>
         <v>44405</v>
       </c>
       <c r="B574">
@@ -14090,7 +14091,7 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
-        <f>A574</f>
+        <f t="shared" si="29"/>
         <v>44405</v>
       </c>
       <c r="B575">
@@ -14114,7 +14115,7 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
-        <f>A575</f>
+        <f t="shared" si="29"/>
         <v>44405</v>
       </c>
       <c r="B576">
@@ -14138,7 +14139,7 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
-        <f>A576</f>
+        <f t="shared" si="29"/>
         <v>44405</v>
       </c>
       <c r="B577">
@@ -14162,7 +14163,7 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
-        <f>A577</f>
+        <f t="shared" si="29"/>
         <v>44405</v>
       </c>
       <c r="B578">
@@ -14186,7 +14187,7 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
-        <f>A578</f>
+        <f t="shared" si="29"/>
         <v>44405</v>
       </c>
       <c r="B579">
@@ -14998,6 +14999,1998 @@
       </c>
       <c r="G612">
         <v>94</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A613" s="1">
+        <f>A612</f>
+        <v>44422</v>
+      </c>
+      <c r="B613">
+        <v>15</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>17</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+      <c r="F613" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G613">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A614" s="1">
+        <f>A613</f>
+        <v>44422</v>
+      </c>
+      <c r="B614">
+        <v>15</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614">
+        <v>17</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="F614" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G614">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A615" s="1">
+        <f>A614</f>
+        <v>44422</v>
+      </c>
+      <c r="B615">
+        <v>15</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="D615">
+        <v>17</v>
+      </c>
+      <c r="E615">
+        <v>0</v>
+      </c>
+      <c r="F615" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G615">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A616" s="1">
+        <f>A615</f>
+        <v>44422</v>
+      </c>
+      <c r="B616">
+        <v>16</v>
+      </c>
+      <c r="C616">
+        <v>20</v>
+      </c>
+      <c r="D616">
+        <v>0</v>
+      </c>
+      <c r="E616">
+        <v>45</v>
+      </c>
+      <c r="F616" s="4">
+        <v>84</v>
+      </c>
+      <c r="G616">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A617" s="1">
+        <f>A616</f>
+        <v>44422</v>
+      </c>
+      <c r="B617">
+        <v>16</v>
+      </c>
+      <c r="C617">
+        <v>20</v>
+      </c>
+      <c r="D617">
+        <v>0</v>
+      </c>
+      <c r="E617">
+        <v>45</v>
+      </c>
+      <c r="F617" s="4">
+        <v>84</v>
+      </c>
+      <c r="G617">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A618" s="1">
+        <f>A617</f>
+        <v>44422</v>
+      </c>
+      <c r="B618">
+        <v>16</v>
+      </c>
+      <c r="C618">
+        <v>20</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+      <c r="E618">
+        <v>45</v>
+      </c>
+      <c r="F618" s="4">
+        <v>84</v>
+      </c>
+      <c r="G618">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A619" s="1">
+        <f>A618</f>
+        <v>44422</v>
+      </c>
+      <c r="B619">
+        <v>21</v>
+      </c>
+      <c r="C619">
+        <v>10</v>
+      </c>
+      <c r="D619">
+        <v>5</v>
+      </c>
+      <c r="E619">
+        <v>35</v>
+      </c>
+      <c r="F619" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G619">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A620" s="1">
+        <f>A619</f>
+        <v>44422</v>
+      </c>
+      <c r="B620">
+        <v>21</v>
+      </c>
+      <c r="C620">
+        <v>10</v>
+      </c>
+      <c r="D620">
+        <v>5</v>
+      </c>
+      <c r="E620">
+        <v>35</v>
+      </c>
+      <c r="F620" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G620">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A621" s="1">
+        <f>A620</f>
+        <v>44422</v>
+      </c>
+      <c r="B621">
+        <v>21</v>
+      </c>
+      <c r="C621">
+        <v>10</v>
+      </c>
+      <c r="D621">
+        <v>5</v>
+      </c>
+      <c r="E621">
+        <v>35</v>
+      </c>
+      <c r="F621" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G621">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A622" s="1">
+        <f>A621+1</f>
+        <v>44423</v>
+      </c>
+      <c r="B622">
+        <v>7</v>
+      </c>
+      <c r="C622">
+        <v>30</v>
+      </c>
+      <c r="D622">
+        <v>9</v>
+      </c>
+      <c r="E622">
+        <v>30</v>
+      </c>
+      <c r="F622" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G622">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A623" s="1">
+        <f>A622</f>
+        <v>44423</v>
+      </c>
+      <c r="B623">
+        <v>7</v>
+      </c>
+      <c r="C623">
+        <v>30</v>
+      </c>
+      <c r="D623">
+        <v>9</v>
+      </c>
+      <c r="E623">
+        <v>30</v>
+      </c>
+      <c r="F623" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G623">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A624" s="1">
+        <f>A623</f>
+        <v>44423</v>
+      </c>
+      <c r="B624">
+        <v>7</v>
+      </c>
+      <c r="C624">
+        <v>30</v>
+      </c>
+      <c r="D624">
+        <v>9</v>
+      </c>
+      <c r="E624">
+        <v>30</v>
+      </c>
+      <c r="F624" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="G624">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A625" s="1">
+        <f>A624</f>
+        <v>44423</v>
+      </c>
+      <c r="B625">
+        <v>14</v>
+      </c>
+      <c r="C625">
+        <v>45</v>
+      </c>
+      <c r="D625">
+        <v>16</v>
+      </c>
+      <c r="E625">
+        <v>45</v>
+      </c>
+      <c r="F625" s="4">
+        <v>83</v>
+      </c>
+      <c r="G625">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A626" s="1">
+        <f>A625</f>
+        <v>44423</v>
+      </c>
+      <c r="B626">
+        <v>14</v>
+      </c>
+      <c r="C626">
+        <v>45</v>
+      </c>
+      <c r="D626">
+        <v>16</v>
+      </c>
+      <c r="E626">
+        <v>45</v>
+      </c>
+      <c r="F626" s="4">
+        <v>83</v>
+      </c>
+      <c r="G626">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A627" s="1">
+        <f>A626</f>
+        <v>44423</v>
+      </c>
+      <c r="B627">
+        <v>14</v>
+      </c>
+      <c r="C627">
+        <v>45</v>
+      </c>
+      <c r="D627">
+        <v>16</v>
+      </c>
+      <c r="E627">
+        <v>45</v>
+      </c>
+      <c r="F627" s="4">
+        <v>83</v>
+      </c>
+      <c r="G627">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A628" s="1">
+        <f>A627</f>
+        <v>44423</v>
+      </c>
+      <c r="B628">
+        <v>16</v>
+      </c>
+      <c r="C628">
+        <v>30</v>
+      </c>
+      <c r="D628">
+        <v>18</v>
+      </c>
+      <c r="E628">
+        <v>30</v>
+      </c>
+      <c r="F628" s="4">
+        <v>83</v>
+      </c>
+      <c r="G628">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A629" s="1">
+        <f>A628</f>
+        <v>44423</v>
+      </c>
+      <c r="B629">
+        <v>16</v>
+      </c>
+      <c r="C629">
+        <v>30</v>
+      </c>
+      <c r="D629">
+        <v>18</v>
+      </c>
+      <c r="E629">
+        <v>30</v>
+      </c>
+      <c r="F629" s="4">
+        <v>83</v>
+      </c>
+      <c r="G629">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A630" s="1">
+        <f>A629</f>
+        <v>44423</v>
+      </c>
+      <c r="B630">
+        <v>17</v>
+      </c>
+      <c r="C630">
+        <v>55</v>
+      </c>
+      <c r="D630">
+        <v>0</v>
+      </c>
+      <c r="E630">
+        <v>0</v>
+      </c>
+      <c r="F630" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G630">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A631" s="1">
+        <f>A630</f>
+        <v>44423</v>
+      </c>
+      <c r="B631">
+        <v>17</v>
+      </c>
+      <c r="C631">
+        <v>55</v>
+      </c>
+      <c r="D631">
+        <v>0</v>
+      </c>
+      <c r="E631">
+        <v>0</v>
+      </c>
+      <c r="F631" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G631">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A632" s="1">
+        <f>A631</f>
+        <v>44423</v>
+      </c>
+      <c r="B632">
+        <v>17</v>
+      </c>
+      <c r="C632">
+        <v>55</v>
+      </c>
+      <c r="D632">
+        <v>0</v>
+      </c>
+      <c r="E632">
+        <v>0</v>
+      </c>
+      <c r="F632" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="G632">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A633" s="5">
+        <f>A632+1</f>
+        <v>44424</v>
+      </c>
+      <c r="B633">
+        <v>7</v>
+      </c>
+      <c r="C633">
+        <v>20</v>
+      </c>
+      <c r="D633">
+        <v>13</v>
+      </c>
+      <c r="E633">
+        <v>25</v>
+      </c>
+      <c r="F633" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G633">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A634" s="1">
+        <f>A633</f>
+        <v>44424</v>
+      </c>
+      <c r="B634">
+        <v>7</v>
+      </c>
+      <c r="C634">
+        <v>20</v>
+      </c>
+      <c r="D634">
+        <v>13</v>
+      </c>
+      <c r="E634">
+        <v>25</v>
+      </c>
+      <c r="F634" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G634">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A635" s="1">
+        <f>A634</f>
+        <v>44424</v>
+      </c>
+      <c r="B635">
+        <v>7</v>
+      </c>
+      <c r="C635">
+        <v>20</v>
+      </c>
+      <c r="D635">
+        <v>13</v>
+      </c>
+      <c r="E635">
+        <v>25</v>
+      </c>
+      <c r="F635" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G635">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A636" s="1">
+        <f>A635</f>
+        <v>44424</v>
+      </c>
+      <c r="B636">
+        <v>10</v>
+      </c>
+      <c r="C636">
+        <v>55</v>
+      </c>
+      <c r="D636">
+        <v>17</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+      <c r="F636" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G636">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A637" s="1">
+        <f>A636</f>
+        <v>44424</v>
+      </c>
+      <c r="B637">
+        <v>10</v>
+      </c>
+      <c r="C637">
+        <v>55</v>
+      </c>
+      <c r="D637">
+        <v>17</v>
+      </c>
+      <c r="E637">
+        <v>0</v>
+      </c>
+      <c r="F637" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G637">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A638" s="1">
+        <f>A637</f>
+        <v>44424</v>
+      </c>
+      <c r="B638">
+        <v>10</v>
+      </c>
+      <c r="C638">
+        <v>55</v>
+      </c>
+      <c r="D638">
+        <v>17</v>
+      </c>
+      <c r="E638">
+        <v>0</v>
+      </c>
+      <c r="F638" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G638">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A639" s="1">
+        <f>A638</f>
+        <v>44424</v>
+      </c>
+      <c r="B639">
+        <v>14</v>
+      </c>
+      <c r="C639">
+        <v>15</v>
+      </c>
+      <c r="D639">
+        <v>20</v>
+      </c>
+      <c r="E639">
+        <v>20</v>
+      </c>
+      <c r="F639" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G639">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A640" s="1">
+        <f>A639</f>
+        <v>44424</v>
+      </c>
+      <c r="B640">
+        <v>14</v>
+      </c>
+      <c r="C640">
+        <v>15</v>
+      </c>
+      <c r="D640">
+        <v>20</v>
+      </c>
+      <c r="E640">
+        <v>20</v>
+      </c>
+      <c r="F640" s="4">
+        <v>83</v>
+      </c>
+      <c r="G640">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A641" s="1">
+        <f>A640</f>
+        <v>44424</v>
+      </c>
+      <c r="B641">
+        <v>14</v>
+      </c>
+      <c r="C641">
+        <v>15</v>
+      </c>
+      <c r="D641">
+        <v>20</v>
+      </c>
+      <c r="E641">
+        <v>20</v>
+      </c>
+      <c r="F641" s="4">
+        <v>83</v>
+      </c>
+      <c r="G641">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A642" s="1">
+        <f>A641</f>
+        <v>44424</v>
+      </c>
+      <c r="B642">
+        <v>17</v>
+      </c>
+      <c r="C642">
+        <v>50</v>
+      </c>
+      <c r="D642">
+        <v>3</v>
+      </c>
+      <c r="E642">
+        <v>0</v>
+      </c>
+      <c r="F642" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="G642">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A643" s="1">
+        <f>A642</f>
+        <v>44424</v>
+      </c>
+      <c r="B643">
+        <v>17</v>
+      </c>
+      <c r="C643">
+        <v>50</v>
+      </c>
+      <c r="D643">
+        <v>3</v>
+      </c>
+      <c r="E643">
+        <v>0</v>
+      </c>
+      <c r="F643" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G643">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A644" s="1">
+        <f>A643</f>
+        <v>44424</v>
+      </c>
+      <c r="B644">
+        <v>17</v>
+      </c>
+      <c r="C644">
+        <v>50</v>
+      </c>
+      <c r="D644">
+        <v>3</v>
+      </c>
+      <c r="E644">
+        <v>0</v>
+      </c>
+      <c r="F644" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="G644">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A645" s="1">
+        <f>A644+1</f>
+        <v>44425</v>
+      </c>
+      <c r="B645">
+        <v>9</v>
+      </c>
+      <c r="C645">
+        <v>30</v>
+      </c>
+      <c r="D645">
+        <v>11</v>
+      </c>
+      <c r="E645">
+        <v>50</v>
+      </c>
+      <c r="F645" s="4">
+        <v>93.7</v>
+      </c>
+      <c r="G645">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A646" s="1">
+        <f>A645</f>
+        <v>44425</v>
+      </c>
+      <c r="B646">
+        <v>9</v>
+      </c>
+      <c r="C646">
+        <v>30</v>
+      </c>
+      <c r="D646">
+        <v>11</v>
+      </c>
+      <c r="E646">
+        <v>50</v>
+      </c>
+      <c r="F646" s="4">
+        <v>93.7</v>
+      </c>
+      <c r="G646">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A647" s="1">
+        <f>A646</f>
+        <v>44425</v>
+      </c>
+      <c r="B647">
+        <v>9</v>
+      </c>
+      <c r="C647">
+        <v>30</v>
+      </c>
+      <c r="D647">
+        <v>11</v>
+      </c>
+      <c r="E647">
+        <v>50</v>
+      </c>
+      <c r="F647" s="4">
+        <v>93.7</v>
+      </c>
+      <c r="G647">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A648" s="1">
+        <f>A647+3</f>
+        <v>44428</v>
+      </c>
+      <c r="B648">
+        <v>13</v>
+      </c>
+      <c r="C648">
+        <v>55</v>
+      </c>
+      <c r="D648">
+        <v>14</v>
+      </c>
+      <c r="E648">
+        <v>55</v>
+      </c>
+      <c r="F648" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G648">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A649" s="1">
+        <f>A648</f>
+        <v>44428</v>
+      </c>
+      <c r="B649">
+        <v>13</v>
+      </c>
+      <c r="C649">
+        <v>55</v>
+      </c>
+      <c r="D649">
+        <v>14</v>
+      </c>
+      <c r="E649">
+        <v>55</v>
+      </c>
+      <c r="F649" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G649">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A650" s="1">
+        <f>A649</f>
+        <v>44428</v>
+      </c>
+      <c r="B650">
+        <v>13</v>
+      </c>
+      <c r="C650">
+        <v>55</v>
+      </c>
+      <c r="D650">
+        <v>14</v>
+      </c>
+      <c r="E650">
+        <v>55</v>
+      </c>
+      <c r="F650" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G650">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A651" s="1">
+        <f>A650</f>
+        <v>44428</v>
+      </c>
+      <c r="B651">
+        <v>16</v>
+      </c>
+      <c r="C651">
+        <v>15</v>
+      </c>
+      <c r="D651">
+        <v>17</v>
+      </c>
+      <c r="E651">
+        <v>15</v>
+      </c>
+      <c r="F651" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G651">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A652" s="1">
+        <f>A651</f>
+        <v>44428</v>
+      </c>
+      <c r="B652">
+        <v>16</v>
+      </c>
+      <c r="C652">
+        <v>15</v>
+      </c>
+      <c r="D652">
+        <v>17</v>
+      </c>
+      <c r="E652">
+        <v>15</v>
+      </c>
+      <c r="F652" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G652">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A653" s="1">
+        <f>A652</f>
+        <v>44428</v>
+      </c>
+      <c r="B653">
+        <v>17</v>
+      </c>
+      <c r="C653">
+        <v>25</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>25</v>
+      </c>
+      <c r="F653" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G653">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A654" s="1">
+        <f>A653</f>
+        <v>44428</v>
+      </c>
+      <c r="B654">
+        <v>17</v>
+      </c>
+      <c r="C654">
+        <v>25</v>
+      </c>
+      <c r="D654">
+        <v>0</v>
+      </c>
+      <c r="E654">
+        <v>25</v>
+      </c>
+      <c r="F654" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G654">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A655" s="1">
+        <f>A654</f>
+        <v>44428</v>
+      </c>
+      <c r="B655">
+        <v>17</v>
+      </c>
+      <c r="C655">
+        <v>25</v>
+      </c>
+      <c r="D655">
+        <v>0</v>
+      </c>
+      <c r="E655">
+        <v>25</v>
+      </c>
+      <c r="F655" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="G655">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A656" s="1">
+        <f>A655+1</f>
+        <v>44429</v>
+      </c>
+      <c r="B656">
+        <v>11</v>
+      </c>
+      <c r="C656">
+        <v>10</v>
+      </c>
+      <c r="D656">
+        <v>18</v>
+      </c>
+      <c r="E656">
+        <v>10</v>
+      </c>
+      <c r="F656" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G656">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A657" s="1">
+        <f>A656</f>
+        <v>44429</v>
+      </c>
+      <c r="B657">
+        <v>11</v>
+      </c>
+      <c r="C657">
+        <v>10</v>
+      </c>
+      <c r="D657">
+        <v>18</v>
+      </c>
+      <c r="E657">
+        <v>10</v>
+      </c>
+      <c r="F657" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G657">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A658" s="1">
+        <f>A657</f>
+        <v>44429</v>
+      </c>
+      <c r="B658">
+        <v>11</v>
+      </c>
+      <c r="C658">
+        <v>10</v>
+      </c>
+      <c r="D658">
+        <v>18</v>
+      </c>
+      <c r="E658">
+        <v>10</v>
+      </c>
+      <c r="F658" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G658">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A659" s="1">
+        <f>A658</f>
+        <v>44429</v>
+      </c>
+      <c r="B659">
+        <v>14</v>
+      </c>
+      <c r="C659">
+        <v>20</v>
+      </c>
+      <c r="D659">
+        <v>21</v>
+      </c>
+      <c r="E659">
+        <v>20</v>
+      </c>
+      <c r="F659" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G659">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A660" s="1">
+        <f>A659</f>
+        <v>44429</v>
+      </c>
+      <c r="B660">
+        <v>14</v>
+      </c>
+      <c r="C660">
+        <v>20</v>
+      </c>
+      <c r="D660">
+        <v>21</v>
+      </c>
+      <c r="E660">
+        <v>20</v>
+      </c>
+      <c r="F660" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="G660">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A661" s="1">
+        <f>A660</f>
+        <v>44429</v>
+      </c>
+      <c r="B661">
+        <v>14</v>
+      </c>
+      <c r="C661">
+        <v>20</v>
+      </c>
+      <c r="D661">
+        <v>21</v>
+      </c>
+      <c r="E661">
+        <v>20</v>
+      </c>
+      <c r="F661" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="G661">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A662" s="1">
+        <f>A661</f>
+        <v>44429</v>
+      </c>
+      <c r="B662">
+        <v>14</v>
+      </c>
+      <c r="C662">
+        <v>20</v>
+      </c>
+      <c r="D662">
+        <v>21</v>
+      </c>
+      <c r="E662">
+        <v>20</v>
+      </c>
+      <c r="F662" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="G662">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A663" s="1">
+        <f>A662+1</f>
+        <v>44430</v>
+      </c>
+      <c r="B663">
+        <v>8</v>
+      </c>
+      <c r="C663">
+        <v>55</v>
+      </c>
+      <c r="D663">
+        <v>11</v>
+      </c>
+      <c r="E663">
+        <v>35</v>
+      </c>
+      <c r="F663" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G663">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A664" s="1">
+        <f>A663</f>
+        <v>44430</v>
+      </c>
+      <c r="B664">
+        <v>8</v>
+      </c>
+      <c r="C664">
+        <v>55</v>
+      </c>
+      <c r="D664">
+        <v>11</v>
+      </c>
+      <c r="E664">
+        <v>35</v>
+      </c>
+      <c r="F664" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G664">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A665" s="1">
+        <f>A664</f>
+        <v>44430</v>
+      </c>
+      <c r="B665">
+        <v>8</v>
+      </c>
+      <c r="C665">
+        <v>55</v>
+      </c>
+      <c r="D665">
+        <v>11</v>
+      </c>
+      <c r="E665">
+        <v>35</v>
+      </c>
+      <c r="F665" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G665">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A666" s="1">
+        <f>A665</f>
+        <v>44430</v>
+      </c>
+      <c r="B666">
+        <v>11</v>
+      </c>
+      <c r="C666">
+        <v>50</v>
+      </c>
+      <c r="D666">
+        <v>14</v>
+      </c>
+      <c r="E666">
+        <v>30</v>
+      </c>
+      <c r="F666" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G666">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A667" s="1">
+        <f>A666</f>
+        <v>44430</v>
+      </c>
+      <c r="B667">
+        <v>11</v>
+      </c>
+      <c r="C667">
+        <v>50</v>
+      </c>
+      <c r="D667">
+        <v>14</v>
+      </c>
+      <c r="E667">
+        <v>30</v>
+      </c>
+      <c r="F667" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G667">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A668" s="1">
+        <f>A667</f>
+        <v>44430</v>
+      </c>
+      <c r="B668">
+        <v>20</v>
+      </c>
+      <c r="C668">
+        <v>30</v>
+      </c>
+      <c r="D668">
+        <v>3</v>
+      </c>
+      <c r="E668">
+        <v>0</v>
+      </c>
+      <c r="F668" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G668">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A669" s="1">
+        <f>A668</f>
+        <v>44430</v>
+      </c>
+      <c r="B669">
+        <v>20</v>
+      </c>
+      <c r="C669">
+        <v>30</v>
+      </c>
+      <c r="D669">
+        <v>3</v>
+      </c>
+      <c r="E669">
+        <v>0</v>
+      </c>
+      <c r="F669" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G669">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A670" s="1">
+        <f>A669</f>
+        <v>44430</v>
+      </c>
+      <c r="B670">
+        <v>20</v>
+      </c>
+      <c r="C670">
+        <v>30</v>
+      </c>
+      <c r="D670">
+        <v>3</v>
+      </c>
+      <c r="E670">
+        <v>0</v>
+      </c>
+      <c r="F670" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="G670">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A671" s="1">
+        <f>A670+1</f>
+        <v>44431</v>
+      </c>
+      <c r="B671">
+        <v>11</v>
+      </c>
+      <c r="C671">
+        <v>30</v>
+      </c>
+      <c r="D671">
+        <v>18</v>
+      </c>
+      <c r="E671">
+        <v>0</v>
+      </c>
+      <c r="F671" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G671">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A672" s="1">
+        <f>A671</f>
+        <v>44431</v>
+      </c>
+      <c r="B672">
+        <v>11</v>
+      </c>
+      <c r="C672">
+        <v>30</v>
+      </c>
+      <c r="D672">
+        <v>18</v>
+      </c>
+      <c r="E672">
+        <v>0</v>
+      </c>
+      <c r="F672" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G672">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A673" s="1">
+        <f>A672</f>
+        <v>44431</v>
+      </c>
+      <c r="B673">
+        <v>11</v>
+      </c>
+      <c r="C673">
+        <v>30</v>
+      </c>
+      <c r="D673">
+        <v>18</v>
+      </c>
+      <c r="E673">
+        <v>0</v>
+      </c>
+      <c r="F673" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G673">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A674" s="1">
+        <f>A673</f>
+        <v>44431</v>
+      </c>
+      <c r="B674">
+        <v>14</v>
+      </c>
+      <c r="C674">
+        <v>20</v>
+      </c>
+      <c r="D674">
+        <v>20</v>
+      </c>
+      <c r="E674">
+        <v>50</v>
+      </c>
+      <c r="F674" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G674">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A675" s="1">
+        <f>A674</f>
+        <v>44431</v>
+      </c>
+      <c r="B675">
+        <v>14</v>
+      </c>
+      <c r="C675">
+        <v>20</v>
+      </c>
+      <c r="D675">
+        <v>20</v>
+      </c>
+      <c r="E675">
+        <v>50</v>
+      </c>
+      <c r="F675" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G675">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A676" s="1">
+        <f>A675</f>
+        <v>44431</v>
+      </c>
+      <c r="B676">
+        <v>14</v>
+      </c>
+      <c r="C676">
+        <v>20</v>
+      </c>
+      <c r="D676">
+        <v>20</v>
+      </c>
+      <c r="E676">
+        <v>50</v>
+      </c>
+      <c r="F676" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G676">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A677" s="1">
+        <f>A676+1</f>
+        <v>44432</v>
+      </c>
+      <c r="B677">
+        <v>9</v>
+      </c>
+      <c r="C677">
+        <v>50</v>
+      </c>
+      <c r="D677">
+        <v>12</v>
+      </c>
+      <c r="E677">
+        <v>50</v>
+      </c>
+      <c r="F677" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G677">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A678" s="1">
+        <f>A677</f>
+        <v>44432</v>
+      </c>
+      <c r="B678">
+        <v>9</v>
+      </c>
+      <c r="C678">
+        <v>50</v>
+      </c>
+      <c r="D678">
+        <v>12</v>
+      </c>
+      <c r="E678">
+        <v>50</v>
+      </c>
+      <c r="F678" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G678">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A679" s="1">
+        <f>A678</f>
+        <v>44432</v>
+      </c>
+      <c r="B679">
+        <v>9</v>
+      </c>
+      <c r="C679">
+        <v>50</v>
+      </c>
+      <c r="D679">
+        <v>12</v>
+      </c>
+      <c r="E679">
+        <v>50</v>
+      </c>
+      <c r="F679" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="G679">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A680" s="1">
+        <f>A679+2</f>
+        <v>44434</v>
+      </c>
+      <c r="B680">
+        <v>8</v>
+      </c>
+      <c r="C680">
+        <v>45</v>
+      </c>
+      <c r="D680">
+        <v>10</v>
+      </c>
+      <c r="E680">
+        <v>45</v>
+      </c>
+      <c r="F680" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G680">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A681" s="1">
+        <f>A680</f>
+        <v>44434</v>
+      </c>
+      <c r="B681">
+        <v>8</v>
+      </c>
+      <c r="C681">
+        <v>45</v>
+      </c>
+      <c r="D681">
+        <v>10</v>
+      </c>
+      <c r="E681">
+        <v>45</v>
+      </c>
+      <c r="F681" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G681">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A682" s="1">
+        <f>A681+3</f>
+        <v>44437</v>
+      </c>
+      <c r="B682">
+        <v>15</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+      <c r="D682">
+        <v>16</v>
+      </c>
+      <c r="E682">
+        <v>0</v>
+      </c>
+      <c r="F682" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G682">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A683" s="1">
+        <f>A682</f>
+        <v>44437</v>
+      </c>
+      <c r="B683">
+        <v>15</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+      <c r="D683">
+        <v>16</v>
+      </c>
+      <c r="E683">
+        <v>0</v>
+      </c>
+      <c r="F683" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="G683">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A684" s="1">
+        <f>A683+1</f>
+        <v>44438</v>
+      </c>
+      <c r="B684">
+        <v>12</v>
+      </c>
+      <c r="C684">
+        <v>30</v>
+      </c>
+      <c r="D684">
+        <v>22</v>
+      </c>
+      <c r="E684">
+        <v>30</v>
+      </c>
+      <c r="F684" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G684">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A685" s="1">
+        <f>A684</f>
+        <v>44438</v>
+      </c>
+      <c r="B685">
+        <v>12</v>
+      </c>
+      <c r="C685">
+        <v>30</v>
+      </c>
+      <c r="D685">
+        <v>22</v>
+      </c>
+      <c r="E685">
+        <v>30</v>
+      </c>
+      <c r="F685" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G685">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A686" s="1">
+        <f>A685</f>
+        <v>44438</v>
+      </c>
+      <c r="B686">
+        <v>14</v>
+      </c>
+      <c r="C686">
+        <v>40</v>
+      </c>
+      <c r="D686">
+        <v>24</v>
+      </c>
+      <c r="E686">
+        <v>10</v>
+      </c>
+      <c r="F686" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="G686">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A687" s="1">
+        <f>A686</f>
+        <v>44438</v>
+      </c>
+      <c r="B687">
+        <v>14</v>
+      </c>
+      <c r="C687">
+        <v>40</v>
+      </c>
+      <c r="D687">
+        <v>24</v>
+      </c>
+      <c r="E687">
+        <v>10</v>
+      </c>
+      <c r="F687" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="G687">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A688" s="1">
+        <f>A687+1</f>
+        <v>44439</v>
+      </c>
+      <c r="B688">
+        <v>8</v>
+      </c>
+      <c r="C688">
+        <v>25</v>
+      </c>
+      <c r="D688">
+        <v>16</v>
+      </c>
+      <c r="E688">
+        <v>20</v>
+      </c>
+      <c r="F688" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G688">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A689" s="1">
+        <f>A688</f>
+        <v>44439</v>
+      </c>
+      <c r="B689">
+        <v>8</v>
+      </c>
+      <c r="C689">
+        <v>25</v>
+      </c>
+      <c r="D689">
+        <v>16</v>
+      </c>
+      <c r="E689">
+        <v>20</v>
+      </c>
+      <c r="F689" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="G689">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A690" s="1">
+        <f>A689</f>
+        <v>44439</v>
+      </c>
+      <c r="B690">
+        <v>15</v>
+      </c>
+      <c r="C690">
+        <v>7</v>
+      </c>
+      <c r="D690">
+        <v>23</v>
+      </c>
+      <c r="E690">
+        <v>2</v>
+      </c>
+      <c r="F690" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G690">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A691" s="1">
+        <f>A690</f>
+        <v>44439</v>
+      </c>
+      <c r="B691">
+        <v>15</v>
+      </c>
+      <c r="C691">
+        <v>7</v>
+      </c>
+      <c r="D691">
+        <v>23</v>
+      </c>
+      <c r="E691">
+        <v>2</v>
+      </c>
+      <c r="F691" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="G691">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A692" s="1">
+        <f>A691+1</f>
+        <v>44440</v>
+      </c>
+      <c r="B692">
+        <v>8</v>
+      </c>
+      <c r="C692">
+        <v>30</v>
+      </c>
+      <c r="D692">
+        <v>16</v>
+      </c>
+      <c r="E692">
+        <v>45</v>
+      </c>
+      <c r="F692" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G692">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A693" s="1">
+        <f>A692</f>
+        <v>44440</v>
+      </c>
+      <c r="B693">
+        <v>8</v>
+      </c>
+      <c r="C693">
+        <v>30</v>
+      </c>
+      <c r="D693">
+        <v>16</v>
+      </c>
+      <c r="E693">
+        <v>45</v>
+      </c>
+      <c r="F693" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G693">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A694" s="1">
+        <f>A693</f>
+        <v>44440</v>
+      </c>
+      <c r="B694">
+        <v>12</v>
+      </c>
+      <c r="C694">
+        <v>15</v>
+      </c>
+      <c r="D694">
+        <v>20</v>
+      </c>
+      <c r="E694">
+        <v>30</v>
+      </c>
+      <c r="F694" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G694">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A695" s="1">
+        <f>A694</f>
+        <v>44440</v>
+      </c>
+      <c r="B695">
+        <v>12</v>
+      </c>
+      <c r="C695">
+        <v>15</v>
+      </c>
+      <c r="D695">
+        <v>20</v>
+      </c>
+      <c r="E695">
+        <v>30</v>
+      </c>
+      <c r="F695" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="G695">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -15010,12 +17003,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15183,15 +17173,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15215,10 +17209,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/spliney/martysweight.xlsx
+++ b/spliney/martysweight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19244\Documents\V2 Docs\R Git\Martysweight\spliney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA62F8D-B757-487F-9B0B-31976711568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68A31BF-F0B7-4DDF-B942-B20252DAEAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
@@ -420,8 +420,8 @@
   <dimension ref="A1:G695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H694" sqref="H694"/>
+      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F647" sqref="F647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15787,7 +15787,7 @@
         <v>50</v>
       </c>
       <c r="F645" s="4">
-        <v>93.7</v>
+        <v>83.7</v>
       </c>
       <c r="G645">
         <v>99</v>
@@ -15811,7 +15811,7 @@
         <v>50</v>
       </c>
       <c r="F646" s="4">
-        <v>93.7</v>
+        <v>83.7</v>
       </c>
       <c r="G646">
         <v>99</v>
@@ -15835,7 +15835,7 @@
         <v>50</v>
       </c>
       <c r="F647" s="4">
-        <v>93.7</v>
+        <v>83.7</v>
       </c>
       <c r="G647">
         <v>99</v>
